--- a/performance.xlsx
+++ b/performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LightGBM" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="black" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="74">
   <si>
     <t>Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,10 +64,6 @@
   </si>
   <si>
     <t>rate_os</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate_device</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -311,6 +308,22 @@
   </si>
   <si>
     <t>Feature Importance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_os</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_os</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,113 +870,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -983,17 +894,119 @@
     <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1279,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AD131"/>
+  <dimension ref="B3:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,13 +1311,13 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="48" t="s">
         <v>2</v>
       </c>
@@ -1322,30 +1335,30 @@
         <v>8</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="17"/>
       <c r="C4" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
+      <c r="J4" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="115">
+      <c r="B5" s="92">
         <v>10000000</v>
       </c>
       <c r="C5" s="33">
@@ -1365,18 +1378,18 @@
         <v>0.94449950000000005</v>
       </c>
       <c r="I5" s="35"/>
-      <c r="J5" s="118">
+      <c r="J5" s="84">
         <v>0.97592789000000002</v>
       </c>
       <c r="K5" s="56">
         <v>2.7291899999999998E-3</v>
       </c>
-      <c r="L5" s="116">
+      <c r="L5" s="82">
         <v>2.1342920000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="17">
         <v>4</v>
       </c>
@@ -1405,7 +1418,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="86"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="17">
         <v>5</v>
       </c>
@@ -1434,7 +1447,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="17">
         <v>6</v>
       </c>
@@ -1463,7 +1476,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="87"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="10">
         <v>7</v>
       </c>
@@ -1477,7 +1490,7 @@
       <c r="G9" s="52">
         <v>0.97558400000000001</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="83">
         <v>0.95400810000000003</v>
       </c>
       <c r="I9" s="23"/>
@@ -1492,7 +1505,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="113">
+      <c r="B10" s="95">
         <v>20000000</v>
       </c>
       <c r="C10" s="17">
@@ -1523,7 +1536,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="86"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="17">
         <v>4</v>
       </c>
@@ -1552,7 +1565,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="86"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="17">
         <v>5</v>
       </c>
@@ -1581,7 +1594,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="17">
         <v>6</v>
       </c>
@@ -1610,7 +1623,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="86"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="17">
         <v>7</v>
       </c>
@@ -1624,7 +1637,7 @@
       <c r="G14" s="46">
         <v>0.96933400000000003</v>
       </c>
-      <c r="H14" s="114">
+      <c r="H14" s="81">
         <v>0.953955</v>
       </c>
       <c r="I14" s="19"/>
@@ -1639,7 +1652,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="115">
+      <c r="B15" s="92">
         <v>30000000</v>
       </c>
       <c r="C15" s="33">
@@ -1659,18 +1672,18 @@
         <v>0.95611520000000005</v>
       </c>
       <c r="I15" s="35"/>
-      <c r="J15" s="118">
+      <c r="J15" s="84">
         <v>0.68560248000000001</v>
       </c>
       <c r="K15" s="56">
         <v>2.712208E-2</v>
       </c>
-      <c r="L15" s="116">
+      <c r="L15" s="82">
         <v>0.28727543999999999</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="86"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="17">
         <v>4</v>
       </c>
@@ -1699,7 +1712,7 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="86"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="17">
         <v>5</v>
       </c>
@@ -1728,7 +1741,7 @@
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B18" s="86"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="17">
         <v>6</v>
       </c>
@@ -1757,7 +1770,7 @@
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B19" s="87"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="10">
         <v>7</v>
       </c>
@@ -1771,7 +1784,7 @@
       <c r="G19" s="52">
         <v>0.96390399999999998</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="83">
         <v>0.95619339999999997</v>
       </c>
       <c r="I19" s="23"/>
@@ -1786,7 +1799,7 @@
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B20" s="113">
+      <c r="B20" s="95">
         <v>40000000</v>
       </c>
       <c r="C20" s="17">
@@ -1817,7 +1830,7 @@
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B21" s="86"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="17">
         <v>4</v>
       </c>
@@ -1846,7 +1859,7 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="86"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="17">
         <v>5</v>
       </c>
@@ -1875,7 +1888,7 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="86"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="17">
         <v>6</v>
       </c>
@@ -1904,7 +1917,7 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="86"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="17">
         <v>7</v>
       </c>
@@ -1918,7 +1931,7 @@
       <c r="G24" s="46">
         <v>0.96278600000000003</v>
       </c>
-      <c r="H24" s="114">
+      <c r="H24" s="81">
         <v>0.95599959999999995</v>
       </c>
       <c r="I24" s="19"/>
@@ -1933,7 +1946,7 @@
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B25" s="115">
+      <c r="B25" s="92">
         <v>50000000</v>
       </c>
       <c r="C25" s="33">
@@ -1949,22 +1962,22 @@
       <c r="G25" s="56">
         <v>0.96177699999999999</v>
       </c>
-      <c r="H25" s="125">
+      <c r="H25" s="88">
         <v>0.95710810000000002</v>
       </c>
       <c r="I25" s="35"/>
-      <c r="J25" s="118">
+      <c r="J25" s="84">
         <v>0.68019322000000004</v>
       </c>
       <c r="K25" s="56">
         <v>2.4769449999999998E-2</v>
       </c>
-      <c r="L25" s="116">
+      <c r="L25" s="82">
         <v>0.29503732999999999</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="86"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="17">
         <v>4</v>
       </c>
@@ -1993,7 +2006,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="86"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="17">
         <v>5</v>
       </c>
@@ -2022,7 +2035,7 @@
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="86"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="17">
         <v>6</v>
       </c>
@@ -2051,7 +2064,7 @@
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="10">
         <v>7</v>
       </c>
@@ -2081,13 +2094,13 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="98"/>
       <c r="F32" s="48" t="s">
         <v>2</v>
       </c>
@@ -2102,236 +2115,446 @@
         <v>7</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="L32" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="48" t="s">
+      <c r="N32" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="48" t="s">
-        <v>11</v>
-      </c>
       <c r="O32" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P32" s="48" t="s">
+      <c r="Q32" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q32" s="48" t="s">
+      <c r="R32" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R32" s="48" t="s">
-        <v>31</v>
-      </c>
       <c r="S32" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="T32" s="48" t="s">
+      <c r="U32" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="U32" s="48" t="s">
+      <c r="V32" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="V32" s="48" t="s">
+      <c r="W32" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="W32" s="48" t="s">
+      <c r="X32" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="X32" s="48" t="s">
+      <c r="Y32" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="Y32" s="48" t="s">
+      <c r="Z32" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="Z32" s="50" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
       <c r="H33" s="47"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="99"/>
-      <c r="U33" s="99"/>
-      <c r="V33" s="99"/>
-      <c r="W33" s="99"/>
-      <c r="X33" s="99"/>
-      <c r="Y33" s="99"/>
-      <c r="Z33" s="100"/>
+      <c r="J33" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="91"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="115">
+      <c r="B34" s="92">
         <v>10000000</v>
       </c>
       <c r="C34" s="33">
         <v>3</v>
       </c>
       <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="E34" s="36">
+        <v>803</v>
+      </c>
+      <c r="F34" s="56">
+        <v>0.98223300000000002</v>
+      </c>
+      <c r="G34" s="56">
+        <v>0.97960700000000001</v>
+      </c>
+      <c r="H34" s="57">
+        <v>0.96372080000000004</v>
+      </c>
       <c r="I34" s="35"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="116"/>
+      <c r="J34" s="84">
+        <v>0.750284383</v>
+      </c>
+      <c r="K34" s="56">
+        <v>5.50829257E-3</v>
+      </c>
+      <c r="L34" s="56">
+        <v>7.8736163699999993E-3</v>
+      </c>
+      <c r="M34" s="56">
+        <v>5.1006328500000003E-2</v>
+      </c>
+      <c r="N34" s="56">
+        <v>1.42414667E-3</v>
+      </c>
+      <c r="O34" s="56">
+        <v>0.126749748</v>
+      </c>
+      <c r="P34" s="56">
+        <v>3.5006291600000002E-4</v>
+      </c>
+      <c r="Q34" s="56">
+        <v>9.4760365599999997E-3</v>
+      </c>
+      <c r="R34" s="56">
+        <v>7.6287464199999997E-3</v>
+      </c>
+      <c r="S34" s="56">
+        <v>2.4464839800000002E-3</v>
+      </c>
+      <c r="T34" s="56">
+        <v>2.6620510699999999E-2</v>
+      </c>
+      <c r="U34" s="56">
+        <v>1.93645161E-3</v>
+      </c>
+      <c r="V34" s="56">
+        <v>3.1807654300000001E-7</v>
+      </c>
+      <c r="W34" s="56">
+        <v>1.03690418E-5</v>
+      </c>
+      <c r="X34" s="56">
+        <v>4.3070152800000003E-4</v>
+      </c>
+      <c r="Y34" s="56">
+        <v>1.2005943E-4</v>
+      </c>
+      <c r="Z34" s="82">
+        <v>8.1337446399999992E-3</v>
+      </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="86"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="17">
         <v>4</v>
       </c>
       <c r="D35" s="19"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
+      <c r="E35" s="28">
+        <v>420</v>
+      </c>
+      <c r="F35" s="46">
+        <v>0.98304000000000002</v>
+      </c>
+      <c r="G35" s="46">
+        <v>0.97953800000000002</v>
+      </c>
+      <c r="H35" s="47">
+        <v>0.96352749999999998</v>
+      </c>
       <c r="I35" s="19"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="51"/>
+      <c r="J35" s="55">
+        <v>0.74857758500000005</v>
+      </c>
+      <c r="K35" s="46">
+        <v>5.03295749E-3</v>
+      </c>
+      <c r="L35" s="46">
+        <v>7.5375741500000003E-3</v>
+      </c>
+      <c r="M35" s="46">
+        <v>4.8867074500000003E-2</v>
+      </c>
+      <c r="N35" s="46">
+        <v>1.67244366E-3</v>
+      </c>
+      <c r="O35" s="46">
+        <v>0.128605475</v>
+      </c>
+      <c r="P35" s="46">
+        <v>3.5006291600000002E-4</v>
+      </c>
+      <c r="Q35" s="46">
+        <v>1.04125168E-2</v>
+      </c>
+      <c r="R35" s="46">
+        <v>7.0433829900000003E-3</v>
+      </c>
+      <c r="S35" s="46">
+        <v>2.7728962299999999E-3</v>
+      </c>
+      <c r="T35" s="46">
+        <v>2.6869486000000001E-2</v>
+      </c>
+      <c r="U35" s="46">
+        <v>2.3335686399999999E-3</v>
+      </c>
+      <c r="V35" s="46">
+        <v>1.1365760800000001E-7</v>
+      </c>
+      <c r="W35" s="46">
+        <v>2.92115442E-5</v>
+      </c>
+      <c r="X35" s="46">
+        <v>7.8552907200000002E-4</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>9.92797852E-5</v>
+      </c>
+      <c r="Z35" s="51">
+        <v>8.9005221699999994E-3</v>
+      </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="86"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="17">
         <v>5</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
+      <c r="E36" s="28">
+        <v>335</v>
+      </c>
+      <c r="F36" s="46">
+        <v>0.98524999999999996</v>
+      </c>
+      <c r="G36" s="46">
+        <v>0.97959399999999996</v>
+      </c>
+      <c r="H36" s="47">
+        <v>0.9622676</v>
+      </c>
       <c r="I36" s="19"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="51"/>
+      <c r="J36" s="55">
+        <v>0.73736307499999998</v>
+      </c>
+      <c r="K36" s="46">
+        <v>4.8384399499999996E-3</v>
+      </c>
+      <c r="L36" s="46">
+        <v>9.1731202699999997E-3</v>
+      </c>
+      <c r="M36" s="46">
+        <v>4.9424124600000001E-2</v>
+      </c>
+      <c r="N36" s="46">
+        <v>2.4768984900000002E-3</v>
+      </c>
+      <c r="O36" s="46">
+        <v>0.129382206</v>
+      </c>
+      <c r="P36" s="46">
+        <v>8.11920445E-4</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>1.2253479899999999E-2</v>
+      </c>
+      <c r="R36" s="46">
+        <v>9.4403331399999998E-3</v>
+      </c>
+      <c r="S36" s="46">
+        <v>3.0670422700000001E-3</v>
+      </c>
+      <c r="T36" s="46">
+        <v>2.6099175499999999E-2</v>
+      </c>
+      <c r="U36" s="46">
+        <v>1.8738003400000001E-3</v>
+      </c>
+      <c r="V36" s="46">
+        <v>3.8436424399999997E-6</v>
+      </c>
+      <c r="W36" s="46">
+        <v>1.8773087700000001E-5</v>
+      </c>
+      <c r="X36" s="46">
+        <v>6.4115040099999997E-4</v>
+      </c>
+      <c r="Y36" s="46">
+        <v>9.3943197500000002E-5</v>
+      </c>
+      <c r="Z36" s="51">
+        <v>1.3038674199999999E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B37" s="86"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="17">
         <v>6</v>
       </c>
       <c r="D37" s="19"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
+      <c r="E37" s="28">
+        <v>315</v>
+      </c>
+      <c r="F37" s="46">
+        <v>0.98686799999999997</v>
+      </c>
+      <c r="G37" s="46">
+        <v>0.97958000000000001</v>
+      </c>
+      <c r="H37" s="47">
+        <v>0.96199179999999995</v>
+      </c>
       <c r="I37" s="19"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="51"/>
+      <c r="J37" s="85">
+        <v>0.730590988</v>
+      </c>
+      <c r="K37" s="46">
+        <v>4.6243770099999998E-3</v>
+      </c>
+      <c r="L37" s="46">
+        <v>9.9997927800000008E-3</v>
+      </c>
+      <c r="M37" s="46">
+        <v>5.0547939200000003E-2</v>
+      </c>
+      <c r="N37" s="46">
+        <v>3.4391114700000002E-3</v>
+      </c>
+      <c r="O37" s="46">
+        <v>0.12907175100000001</v>
+      </c>
+      <c r="P37" s="46">
+        <v>7.5818303800000001E-4</v>
+      </c>
+      <c r="Q37" s="46">
+        <v>1.3258653800000001E-2</v>
+      </c>
+      <c r="R37" s="46">
+        <v>1.0465799600000001E-2</v>
+      </c>
+      <c r="S37" s="46">
+        <v>3.4236320100000002E-3</v>
+      </c>
+      <c r="T37" s="46">
+        <v>2.55803327E-2</v>
+      </c>
+      <c r="U37" s="46">
+        <v>1.90585345E-3</v>
+      </c>
+      <c r="V37" s="46">
+        <v>0</v>
+      </c>
+      <c r="W37" s="46">
+        <v>3.5481777600000003E-5</v>
+      </c>
+      <c r="X37" s="46">
+        <v>6.6097122199999998E-4</v>
+      </c>
+      <c r="Y37" s="46">
+        <v>7.5020907200000001E-5</v>
+      </c>
+      <c r="Z37" s="51">
+        <v>1.5562112100000001E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="87"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="10">
         <v>7</v>
       </c>
       <c r="D38" s="23"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
+      <c r="E38" s="29">
+        <v>274</v>
+      </c>
+      <c r="F38" s="52">
+        <v>0.98705900000000002</v>
+      </c>
+      <c r="G38" s="52">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="H38" s="53">
+        <v>0.96265679999999998</v>
+      </c>
       <c r="I38" s="23"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="9"/>
+      <c r="J38" s="86">
+        <v>0.72974124600000001</v>
+      </c>
+      <c r="K38" s="52">
+        <v>4.6908487399999997E-3</v>
+      </c>
+      <c r="L38" s="52">
+        <v>9.6709421599999994E-3</v>
+      </c>
+      <c r="M38" s="52">
+        <v>5.0516285899999999E-2</v>
+      </c>
+      <c r="N38" s="52">
+        <v>3.1747862500000001E-3</v>
+      </c>
+      <c r="O38" s="52">
+        <v>0.12974842</v>
+      </c>
+      <c r="P38" s="52">
+        <v>6.2126375599999995E-4</v>
+      </c>
+      <c r="Q38" s="52">
+        <v>1.3343372100000001E-2</v>
+      </c>
+      <c r="R38" s="52">
+        <v>9.9930336500000001E-3</v>
+      </c>
+      <c r="S38" s="52">
+        <v>3.6331371400000001E-3</v>
+      </c>
+      <c r="T38" s="52">
+        <v>2.55885382E-2</v>
+      </c>
+      <c r="U38" s="52">
+        <v>1.85178753E-3</v>
+      </c>
+      <c r="V38" s="52">
+        <v>1.9430930500000001E-6</v>
+      </c>
+      <c r="W38" s="52">
+        <v>4.9392128400000001E-5</v>
+      </c>
+      <c r="X38" s="52">
+        <v>6.3309821300000003E-4</v>
+      </c>
+      <c r="Y38" s="52">
+        <v>1.6422434500000001E-4</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>1.6577680500000001E-2</v>
+      </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="113">
+      <c r="B39" s="95">
         <v>20000000</v>
       </c>
       <c r="C39" s="17">
@@ -2351,7 +2574,7 @@
         <v>0.96390500000000001</v>
       </c>
       <c r="I39" s="19"/>
-      <c r="J39" s="119">
+      <c r="J39" s="85">
         <v>0.91520573400000005</v>
       </c>
       <c r="K39" s="46">
@@ -2404,7 +2627,7 @@
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="86"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="17">
         <v>4</v>
       </c>
@@ -2422,7 +2645,7 @@
         <v>0.96457289999999996</v>
       </c>
       <c r="I40" s="19"/>
-      <c r="J40" s="119">
+      <c r="J40" s="85">
         <v>0.90996805599999997</v>
       </c>
       <c r="K40" s="46">
@@ -2475,7 +2698,7 @@
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="86"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="17">
         <v>5</v>
       </c>
@@ -2489,11 +2712,11 @@
       <c r="G41" s="46">
         <v>0.97426800000000002</v>
       </c>
-      <c r="H41" s="114">
+      <c r="H41" s="81">
         <v>0.9648042</v>
       </c>
       <c r="I41" s="19"/>
-      <c r="J41" s="119">
+      <c r="J41" s="85">
         <v>0.90184040600000004</v>
       </c>
       <c r="K41" s="46">
@@ -2546,7 +2769,7 @@
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="86"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="17">
         <v>6</v>
       </c>
@@ -2564,7 +2787,7 @@
         <v>0.96473960000000003</v>
       </c>
       <c r="I42" s="19"/>
-      <c r="J42" s="119">
+      <c r="J42" s="85">
         <v>0.89699074499999998</v>
       </c>
       <c r="K42" s="46">
@@ -2617,7 +2840,7 @@
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="86"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="17">
         <v>7</v>
       </c>
@@ -2635,7 +2858,7 @@
         <v>0.96449050000000003</v>
       </c>
       <c r="I43" s="19"/>
-      <c r="J43" s="119">
+      <c r="J43" s="85">
         <v>0.88941244100000005</v>
       </c>
       <c r="K43" s="46">
@@ -2688,7 +2911,7 @@
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="115">
+      <c r="B44" s="92">
         <v>30000000</v>
       </c>
       <c r="C44" s="33">
@@ -2708,7 +2931,7 @@
         <v>0.96406230000000004</v>
       </c>
       <c r="I44" s="35"/>
-      <c r="J44" s="121">
+      <c r="J44" s="87">
         <v>0.91015398999999997</v>
       </c>
       <c r="K44" s="56">
@@ -2756,12 +2979,12 @@
       <c r="Y44" s="56">
         <v>1.4957196400000001E-7</v>
       </c>
-      <c r="Z44" s="116">
+      <c r="Z44" s="82">
         <v>4.32380955E-3</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B45" s="86"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="17">
         <v>4</v>
       </c>
@@ -2779,7 +3002,7 @@
         <v>0.9648253</v>
       </c>
       <c r="I45" s="19"/>
-      <c r="J45" s="119">
+      <c r="J45" s="85">
         <v>0.90521665699999998</v>
       </c>
       <c r="K45" s="46">
@@ -2832,7 +3055,7 @@
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B46" s="86"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="17">
         <v>5</v>
       </c>
@@ -2850,7 +3073,7 @@
         <v>0.96512719999999996</v>
       </c>
       <c r="I46" s="19"/>
-      <c r="J46" s="119">
+      <c r="J46" s="85">
         <v>0.89995013999999995</v>
       </c>
       <c r="K46" s="46">
@@ -2903,7 +3126,7 @@
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="86"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="17">
         <v>6</v>
       </c>
@@ -2917,11 +3140,11 @@
       <c r="G47" s="46">
         <v>0.96986600000000001</v>
       </c>
-      <c r="H47" s="114">
+      <c r="H47" s="81">
         <v>0.96516250000000003</v>
       </c>
       <c r="I47" s="19"/>
-      <c r="J47" s="119">
+      <c r="J47" s="85">
         <v>0.898048772</v>
       </c>
       <c r="K47" s="46">
@@ -2974,7 +3197,7 @@
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B48" s="87"/>
+      <c r="B48" s="94"/>
       <c r="C48" s="10">
         <v>7</v>
       </c>
@@ -2992,7 +3215,7 @@
         <v>0.96486680000000002</v>
       </c>
       <c r="I48" s="23"/>
-      <c r="J48" s="120">
+      <c r="J48" s="86">
         <v>0.89297088199999997</v>
       </c>
       <c r="K48" s="52">
@@ -3045,7 +3268,7 @@
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B49" s="113">
+      <c r="B49" s="95">
         <v>40000000</v>
       </c>
       <c r="C49" s="17">
@@ -3065,7 +3288,7 @@
         <v>0.96409180000000005</v>
       </c>
       <c r="I49" s="19"/>
-      <c r="J49" s="119">
+      <c r="J49" s="85">
         <v>0.90153313899999998</v>
       </c>
       <c r="K49" s="46">
@@ -3118,7 +3341,7 @@
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B50" s="86"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="17">
         <v>4</v>
       </c>
@@ -3136,7 +3359,7 @@
         <v>0.96497080000000002</v>
       </c>
       <c r="I50" s="19"/>
-      <c r="J50" s="119">
+      <c r="J50" s="85">
         <v>0.89525076000000003</v>
       </c>
       <c r="K50" s="46">
@@ -3189,7 +3412,7 @@
       </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="86"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="17">
         <v>5</v>
       </c>
@@ -3203,11 +3426,11 @@
       <c r="G51" s="46">
         <v>0.96836100000000003</v>
       </c>
-      <c r="H51" s="114">
+      <c r="H51" s="81">
         <v>0.96548650000000003</v>
       </c>
       <c r="I51" s="19"/>
-      <c r="J51" s="119">
+      <c r="J51" s="85">
         <v>0.89354330599999998</v>
       </c>
       <c r="K51" s="46">
@@ -3260,7 +3483,7 @@
       </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B52" s="86"/>
+      <c r="B52" s="93"/>
       <c r="C52" s="17">
         <v>6</v>
       </c>
@@ -3278,7 +3501,7 @@
         <v>0.96546430000000005</v>
       </c>
       <c r="I52" s="19"/>
-      <c r="J52" s="119">
+      <c r="J52" s="85">
         <v>0.89037181899999995</v>
       </c>
       <c r="K52" s="46">
@@ -3331,7 +3554,7 @@
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B53" s="86"/>
+      <c r="B53" s="93"/>
       <c r="C53" s="17">
         <v>7</v>
       </c>
@@ -3349,7 +3572,7 @@
         <v>0.96519370000000004</v>
       </c>
       <c r="I53" s="19"/>
-      <c r="J53" s="119">
+      <c r="J53" s="85">
         <v>0.89203715400000005</v>
       </c>
       <c r="K53" s="46">
@@ -3402,7 +3625,7 @@
       </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B54" s="115">
+      <c r="B54" s="92">
         <v>50000000</v>
       </c>
       <c r="C54" s="33">
@@ -3414,7 +3637,7 @@
       <c r="G54" s="56"/>
       <c r="H54" s="57"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="121"/>
+      <c r="J54" s="87"/>
       <c r="K54" s="56"/>
       <c r="L54" s="56"/>
       <c r="M54" s="56"/>
@@ -3430,10 +3653,10 @@
       <c r="W54" s="56"/>
       <c r="X54" s="56"/>
       <c r="Y54" s="56"/>
-      <c r="Z54" s="116"/>
+      <c r="Z54" s="82"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="86"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="17">
         <v>4</v>
       </c>
@@ -3443,7 +3666,7 @@
       <c r="G55" s="46"/>
       <c r="H55" s="47"/>
       <c r="I55" s="19"/>
-      <c r="J55" s="119"/>
+      <c r="J55" s="85"/>
       <c r="K55" s="46"/>
       <c r="L55" s="46"/>
       <c r="M55" s="46"/>
@@ -3462,7 +3685,7 @@
       <c r="Z55" s="51"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B56" s="86"/>
+      <c r="B56" s="93"/>
       <c r="C56" s="17">
         <v>5</v>
       </c>
@@ -3491,7 +3714,7 @@
       <c r="Z56" s="51"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="86"/>
+      <c r="B57" s="93"/>
       <c r="C57" s="17">
         <v>6</v>
       </c>
@@ -3520,7 +3743,7 @@
       <c r="Z57" s="51"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B58" s="87"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="10">
         <v>7</v>
       </c>
@@ -3549,8 +3772,8 @@
       <c r="Z58" s="9"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B59" s="113" t="s">
-        <v>64</v>
+      <c r="B59" s="95" t="s">
+        <v>63</v>
       </c>
       <c r="C59" s="17">
         <v>3</v>
@@ -3622,7 +3845,7 @@
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="86"/>
+      <c r="B60" s="93"/>
       <c r="C60" s="17">
         <v>4</v>
       </c>
@@ -3693,7 +3916,7 @@
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B61" s="86"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="17">
         <v>5</v>
       </c>
@@ -3764,7 +3987,7 @@
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="86"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="17">
         <v>6</v>
       </c>
@@ -3833,7 +4056,7 @@
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="87"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="10">
         <v>7</v>
       </c>
@@ -3865,11 +4088,11 @@
       <c r="B66" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="81"/>
-      <c r="E66" s="82"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="98"/>
       <c r="F66" s="48" t="s">
         <v>2</v>
       </c>
@@ -3884,164 +4107,294 @@
         <v>7</v>
       </c>
       <c r="K66" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L66" s="48" t="s">
-        <v>11</v>
-      </c>
       <c r="M66" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="N66" s="48" t="s">
+      <c r="O66" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O66" s="48" t="s">
+      <c r="P66" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P66" s="48" t="s">
-        <v>31</v>
-      </c>
       <c r="Q66" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R66" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="46"/>
       <c r="G67" s="46"/>
       <c r="H67" s="47"/>
       <c r="I67" s="19"/>
-      <c r="J67" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="K67" s="99"/>
-      <c r="L67" s="99"/>
-      <c r="M67" s="99"/>
-      <c r="N67" s="99"/>
-      <c r="O67" s="99"/>
-      <c r="P67" s="99"/>
-      <c r="Q67" s="99"/>
-      <c r="R67" s="100"/>
+      <c r="J67" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="91"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="115">
+      <c r="B68" s="92">
         <v>10000000</v>
       </c>
       <c r="C68" s="33">
         <v>3</v>
       </c>
       <c r="D68" s="35"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="57"/>
+      <c r="E68" s="36">
+        <v>824</v>
+      </c>
+      <c r="F68" s="56">
+        <v>0.98198600000000003</v>
+      </c>
+      <c r="G68" s="56">
+        <v>0.97931699999999999</v>
+      </c>
+      <c r="H68" s="57">
+        <v>0.96343540000000005</v>
+      </c>
       <c r="I68" s="35"/>
-      <c r="J68" s="118"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="116"/>
+      <c r="J68" s="84">
+        <v>0.85150543999999995</v>
+      </c>
+      <c r="K68" s="56">
+        <v>4.5909449999999997E-2</v>
+      </c>
+      <c r="L68" s="56">
+        <v>3.56843E-3</v>
+      </c>
+      <c r="M68" s="56">
+        <v>3.8528340000000001E-2</v>
+      </c>
+      <c r="N68" s="56">
+        <v>2.5660700000000002E-3</v>
+      </c>
+      <c r="O68" s="56">
+        <v>1.420742E-2</v>
+      </c>
+      <c r="P68" s="56">
+        <v>8.2242600000000006E-3</v>
+      </c>
+      <c r="Q68" s="56">
+        <v>2.7214439999999999E-2</v>
+      </c>
+      <c r="R68" s="82">
+        <v>8.2761499999999995E-3</v>
+      </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B69" s="86"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="17">
         <v>4</v>
       </c>
       <c r="D69" s="19"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="47"/>
+      <c r="E69" s="28">
+        <v>403</v>
+      </c>
+      <c r="F69" s="46">
+        <v>0.98268100000000003</v>
+      </c>
+      <c r="G69" s="46">
+        <v>0.97957000000000005</v>
+      </c>
+      <c r="H69" s="81">
+        <v>0.96382089999999998</v>
+      </c>
       <c r="I69" s="19"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="51"/>
+      <c r="J69" s="55">
+        <v>0.85044485999999997</v>
+      </c>
+      <c r="K69" s="46">
+        <v>4.2735549999999997E-2</v>
+      </c>
+      <c r="L69" s="46">
+        <v>4.0439899999999999E-3</v>
+      </c>
+      <c r="M69" s="46">
+        <v>4.039094E-2</v>
+      </c>
+      <c r="N69" s="46">
+        <v>2.7835199999999998E-3</v>
+      </c>
+      <c r="O69" s="46">
+        <v>1.472856E-2</v>
+      </c>
+      <c r="P69" s="46">
+        <v>7.5597599999999996E-3</v>
+      </c>
+      <c r="Q69" s="46">
+        <v>2.6398669999999999E-2</v>
+      </c>
+      <c r="R69" s="51">
+        <v>1.0914139999999999E-2</v>
+      </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B70" s="86"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="17">
         <v>5</v>
       </c>
       <c r="D70" s="19"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="47"/>
+      <c r="E70" s="28">
+        <v>279</v>
+      </c>
+      <c r="F70" s="46">
+        <v>0.98375699999999999</v>
+      </c>
+      <c r="G70" s="46">
+        <v>0.97929200000000005</v>
+      </c>
+      <c r="H70" s="47">
+        <v>0.96305739999999995</v>
+      </c>
       <c r="I70" s="19"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="51"/>
+      <c r="J70" s="55">
+        <v>0.84687548999999995</v>
+      </c>
+      <c r="K70" s="46">
+        <v>3.906138E-2</v>
+      </c>
+      <c r="L70" s="46">
+        <v>4.6709899999999999E-3</v>
+      </c>
+      <c r="M70" s="46">
+        <v>4.2051610000000003E-2</v>
+      </c>
+      <c r="N70" s="46">
+        <v>3.0625800000000001E-3</v>
+      </c>
+      <c r="O70" s="46">
+        <v>1.5579880000000001E-2</v>
+      </c>
+      <c r="P70" s="46">
+        <v>9.1043700000000005E-3</v>
+      </c>
+      <c r="Q70" s="46">
+        <v>2.6089210000000002E-2</v>
+      </c>
+      <c r="R70" s="51">
+        <v>1.3504510000000001E-2</v>
+      </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B71" s="86"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="17">
         <v>6</v>
       </c>
       <c r="D71" s="19"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="47"/>
+      <c r="E71" s="28">
+        <v>247</v>
+      </c>
+      <c r="F71" s="46">
+        <v>0.98486399999999996</v>
+      </c>
+      <c r="G71" s="46">
+        <v>0.97948100000000005</v>
+      </c>
+      <c r="H71" s="47">
+        <v>0.96297169999999999</v>
+      </c>
       <c r="I71" s="19"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="51"/>
+      <c r="J71" s="55">
+        <v>0.84238681999999998</v>
+      </c>
+      <c r="K71" s="46">
+        <v>3.8167840000000001E-2</v>
+      </c>
+      <c r="L71" s="46">
+        <v>5.0227400000000004E-3</v>
+      </c>
+      <c r="M71" s="46">
+        <v>4.2562309999999999E-2</v>
+      </c>
+      <c r="N71" s="46">
+        <v>3.0041600000000001E-3</v>
+      </c>
+      <c r="O71" s="46">
+        <v>1.7433339999999999E-2</v>
+      </c>
+      <c r="P71" s="46">
+        <v>1.0377290000000001E-2</v>
+      </c>
+      <c r="Q71" s="46">
+        <v>2.5664329999999999E-2</v>
+      </c>
+      <c r="R71" s="51">
+        <v>1.538117E-2</v>
+      </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B72" s="87"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="10">
         <v>7</v>
       </c>
       <c r="D72" s="23"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="53"/>
+      <c r="E72" s="29">
+        <v>206</v>
+      </c>
+      <c r="F72" s="52">
+        <v>0.98449799999999998</v>
+      </c>
+      <c r="G72" s="52">
+        <v>0.97930300000000003</v>
+      </c>
+      <c r="H72" s="53">
+        <v>0.96377789999999997</v>
+      </c>
       <c r="I72" s="23"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="9"/>
+      <c r="J72" s="11">
+        <v>0.84490094999999998</v>
+      </c>
+      <c r="K72" s="52">
+        <v>3.6205180000000003E-2</v>
+      </c>
+      <c r="L72" s="52">
+        <v>5.0955200000000001E-3</v>
+      </c>
+      <c r="M72" s="52">
+        <v>4.2662770000000003E-2</v>
+      </c>
+      <c r="N72" s="52">
+        <v>2.8727499999999999E-3</v>
+      </c>
+      <c r="O72" s="52">
+        <v>1.80191E-2</v>
+      </c>
+      <c r="P72" s="52">
+        <v>1.0015359999999999E-2</v>
+      </c>
+      <c r="Q72" s="52">
+        <v>2.558947E-2</v>
+      </c>
+      <c r="R72" s="9">
+        <v>1.46389E-2</v>
+      </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B73" s="113">
+      <c r="B73" s="95">
         <v>20000000</v>
       </c>
       <c r="C73" s="17">
@@ -4090,7 +4443,7 @@
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B74" s="86"/>
+      <c r="B74" s="93"/>
       <c r="C74" s="17">
         <v>4</v>
       </c>
@@ -4137,7 +4490,7 @@
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B75" s="86"/>
+      <c r="B75" s="93"/>
       <c r="C75" s="17">
         <v>5</v>
       </c>
@@ -4184,7 +4537,7 @@
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B76" s="86"/>
+      <c r="B76" s="93"/>
       <c r="C76" s="17">
         <v>6</v>
       </c>
@@ -4198,7 +4551,7 @@
       <c r="G76" s="46">
         <v>0.974437</v>
       </c>
-      <c r="H76" s="114">
+      <c r="H76" s="81">
         <v>0.96555559999999996</v>
       </c>
       <c r="I76" s="19"/>
@@ -4231,7 +4584,7 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B77" s="86"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="17">
         <v>7</v>
       </c>
@@ -4278,7 +4631,7 @@
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B78" s="115">
+      <c r="B78" s="92">
         <v>30000000</v>
       </c>
       <c r="C78" s="33">
@@ -4294,9 +4647,11 @@
       <c r="G78" s="56">
         <v>0.96950599999999998</v>
       </c>
-      <c r="H78" s="57"/>
+      <c r="H78" s="57">
+        <v>0.96581539999999999</v>
+      </c>
       <c r="I78" s="35"/>
-      <c r="J78" s="118">
+      <c r="J78" s="84">
         <v>0.84867066999999996</v>
       </c>
       <c r="K78" s="56">
@@ -4320,12 +4675,12 @@
       <c r="Q78" s="56">
         <v>3.2833479999999998E-2</v>
       </c>
-      <c r="R78" s="116">
+      <c r="R78" s="82">
         <v>9.9197E-3</v>
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B79" s="86"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="17">
         <v>4</v>
       </c>
@@ -4339,7 +4694,9 @@
       <c r="G79" s="46">
         <v>0.96995699999999996</v>
       </c>
-      <c r="H79" s="47"/>
+      <c r="H79" s="81">
+        <v>0.96606040000000004</v>
+      </c>
       <c r="I79" s="19"/>
       <c r="J79" s="55">
         <v>0.84182166999999997</v>
@@ -4370,7 +4727,7 @@
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
+      <c r="B80" s="93"/>
       <c r="C80" s="17">
         <v>5</v>
       </c>
@@ -4384,7 +4741,9 @@
       <c r="G80" s="46">
         <v>0.97009800000000002</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="47">
+        <v>0.96580469999999996</v>
+      </c>
       <c r="I80" s="19"/>
       <c r="J80" s="55">
         <v>0.83207228</v>
@@ -4415,7 +4774,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B81" s="86"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="17">
         <v>6</v>
       </c>
@@ -4429,7 +4788,9 @@
       <c r="G81" s="46">
         <v>0.97014599999999995</v>
       </c>
-      <c r="H81" s="47"/>
+      <c r="H81" s="47">
+        <v>0.96599740000000001</v>
+      </c>
       <c r="I81" s="19"/>
       <c r="J81" s="55">
         <v>0.83410832999999995</v>
@@ -4460,7 +4821,7 @@
       </c>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="87"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="10">
         <v>7</v>
       </c>
@@ -4474,7 +4835,9 @@
       <c r="G82" s="52">
         <v>0.96999400000000002</v>
       </c>
-      <c r="H82" s="53"/>
+      <c r="H82" s="53">
+        <v>0.96594460000000004</v>
+      </c>
       <c r="I82" s="23"/>
       <c r="J82" s="11">
         <v>0.83136169000000004</v>
@@ -4505,7 +4868,7 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="113">
+      <c r="B83" s="95">
         <v>40000000</v>
       </c>
       <c r="C83" s="17">
@@ -4521,7 +4884,9 @@
       <c r="G83" s="46">
         <v>0.96852700000000003</v>
       </c>
-      <c r="H83" s="47"/>
+      <c r="H83" s="47">
+        <v>0.96606550000000002</v>
+      </c>
       <c r="I83" s="19"/>
       <c r="J83" s="55">
         <v>0.84495151000000002</v>
@@ -4552,7 +4917,7 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="86"/>
+      <c r="B84" s="93"/>
       <c r="C84" s="17">
         <v>4</v>
       </c>
@@ -4566,7 +4931,9 @@
       <c r="G84" s="46">
         <v>0.96911599999999998</v>
       </c>
-      <c r="H84" s="47"/>
+      <c r="H84" s="47">
+        <v>0.9665203</v>
+      </c>
       <c r="I84" s="19"/>
       <c r="J84" s="55">
         <v>0.83820320999999998</v>
@@ -4597,7 +4964,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="86"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="17">
         <v>5</v>
       </c>
@@ -4611,7 +4978,9 @@
       <c r="G85" s="46">
         <v>0.96918400000000005</v>
       </c>
-      <c r="H85" s="47"/>
+      <c r="H85" s="47">
+        <v>0.96648940000000005</v>
+      </c>
       <c r="I85" s="19"/>
       <c r="J85" s="55">
         <v>0.83390657999999995</v>
@@ -4642,7 +5011,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="86"/>
+      <c r="B86" s="93"/>
       <c r="C86" s="17">
         <v>6</v>
       </c>
@@ -4656,7 +5025,9 @@
       <c r="G86" s="46">
         <v>0.96906899999999996</v>
       </c>
-      <c r="H86" s="47"/>
+      <c r="H86" s="47">
+        <v>0.96651770000000004</v>
+      </c>
       <c r="I86" s="19"/>
       <c r="J86" s="55">
         <v>0.83567846999999995</v>
@@ -4687,7 +5058,7 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="86"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="17">
         <v>7</v>
       </c>
@@ -4701,7 +5072,9 @@
       <c r="G87" s="46">
         <v>0.96915799999999996</v>
       </c>
-      <c r="H87" s="47"/>
+      <c r="H87" s="81">
+        <v>0.96660690000000005</v>
+      </c>
       <c r="I87" s="19"/>
       <c r="J87" s="55">
         <v>0.83483538999999996</v>
@@ -4732,1127 +5105,1435 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B88" s="115">
+      <c r="B88" s="92">
         <v>50000000</v>
       </c>
       <c r="C88" s="33">
         <v>3</v>
       </c>
       <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="57"/>
+      <c r="E88" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F88" s="56">
+        <v>0.96950599999999998</v>
+      </c>
+      <c r="G88" s="56">
+        <v>0.96932399999999996</v>
+      </c>
+      <c r="H88" s="57">
+        <v>0.9658639</v>
+      </c>
       <c r="I88" s="35"/>
-      <c r="J88" s="118"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="56"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="116"/>
+      <c r="J88" s="84">
+        <v>0.84222836000000001</v>
+      </c>
+      <c r="K88" s="56">
+        <v>4.2471200000000001E-2</v>
+      </c>
+      <c r="L88" s="56">
+        <v>5.9689699999999997E-3</v>
+      </c>
+      <c r="M88" s="56">
+        <v>3.55643E-2</v>
+      </c>
+      <c r="N88" s="56">
+        <v>3.08406E-3</v>
+      </c>
+      <c r="O88" s="56">
+        <v>1.392788E-2</v>
+      </c>
+      <c r="P88" s="56">
+        <v>4.9557400000000001E-3</v>
+      </c>
+      <c r="Q88" s="56">
+        <v>4.0171819999999997E-2</v>
+      </c>
+      <c r="R88" s="82">
+        <v>1.162767E-2</v>
+      </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B89" s="86"/>
+      <c r="B89" s="93"/>
       <c r="C89" s="17">
         <v>4</v>
       </c>
       <c r="D89" s="19"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="47"/>
+      <c r="E89" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="46">
+        <v>0.97141699999999997</v>
+      </c>
+      <c r="G89" s="46">
+        <v>0.96996899999999997</v>
+      </c>
+      <c r="H89" s="47">
+        <v>0.9663834</v>
+      </c>
       <c r="I89" s="19"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
-      <c r="Q89" s="46"/>
-      <c r="R89" s="51"/>
+      <c r="J89" s="55">
+        <v>0.83665957999999996</v>
+      </c>
+      <c r="K89" s="46">
+        <v>3.9816989999999997E-2</v>
+      </c>
+      <c r="L89" s="46">
+        <v>7.7403799999999998E-3</v>
+      </c>
+      <c r="M89" s="46">
+        <v>3.5911529999999997E-2</v>
+      </c>
+      <c r="N89" s="46">
+        <v>3.6609300000000002E-3</v>
+      </c>
+      <c r="O89" s="46">
+        <v>1.629653E-2</v>
+      </c>
+      <c r="P89" s="46">
+        <v>6.7954299999999999E-3</v>
+      </c>
+      <c r="Q89" s="46">
+        <v>3.8926620000000002E-2</v>
+      </c>
+      <c r="R89" s="51">
+        <v>1.419201E-2</v>
+      </c>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B90" s="86"/>
+      <c r="B90" s="93"/>
       <c r="C90" s="17">
         <v>5</v>
       </c>
       <c r="D90" s="19"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="47"/>
+      <c r="E90" s="28">
+        <v>661</v>
+      </c>
+      <c r="F90" s="46">
+        <v>0.97251600000000005</v>
+      </c>
+      <c r="G90" s="46">
+        <v>0.97006700000000001</v>
+      </c>
+      <c r="H90" s="81">
+        <v>0.96641489999999997</v>
+      </c>
       <c r="I90" s="19"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="46"/>
-      <c r="R90" s="51"/>
+      <c r="J90" s="55">
+        <v>0.83358456000000003</v>
+      </c>
+      <c r="K90" s="46">
+        <v>3.470869E-2</v>
+      </c>
+      <c r="L90" s="46">
+        <v>8.3979899999999993E-3</v>
+      </c>
+      <c r="M90" s="46">
+        <v>3.9273870000000002E-2</v>
+      </c>
+      <c r="N90" s="46">
+        <v>4.0449400000000003E-3</v>
+      </c>
+      <c r="O90" s="46">
+        <v>1.8059909999999998E-2</v>
+      </c>
+      <c r="P90" s="46">
+        <v>8.0053499999999996E-3</v>
+      </c>
+      <c r="Q90" s="46">
+        <v>3.8710689999999999E-2</v>
+      </c>
+      <c r="R90" s="51">
+        <v>1.5214E-2</v>
+      </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B91" s="86"/>
+      <c r="B91" s="93"/>
       <c r="C91" s="17">
         <v>6</v>
       </c>
       <c r="D91" s="19"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="47"/>
+      <c r="E91" s="28">
+        <v>660</v>
+      </c>
+      <c r="F91" s="46">
+        <v>0.97370800000000002</v>
+      </c>
+      <c r="G91" s="46">
+        <v>0.97008799999999995</v>
+      </c>
+      <c r="H91" s="47">
+        <v>0.96635979999999999</v>
+      </c>
       <c r="I91" s="19"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="51"/>
+      <c r="J91" s="55">
+        <v>0.82968246999999995</v>
+      </c>
+      <c r="K91" s="46">
+        <v>3.3962600000000003E-2</v>
+      </c>
+      <c r="L91" s="46">
+        <v>9.33258E-3</v>
+      </c>
+      <c r="M91" s="46">
+        <v>3.9651270000000002E-2</v>
+      </c>
+      <c r="N91" s="46">
+        <v>4.1283099999999996E-3</v>
+      </c>
+      <c r="O91" s="46">
+        <v>1.957596E-2</v>
+      </c>
+      <c r="P91" s="46">
+        <v>9.3076300000000008E-3</v>
+      </c>
+      <c r="Q91" s="46">
+        <v>3.8028470000000002E-2</v>
+      </c>
+      <c r="R91" s="51">
+        <v>1.6330709999999998E-2</v>
+      </c>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B92" s="87"/>
+      <c r="B92" s="94"/>
       <c r="C92" s="10">
         <v>7</v>
       </c>
       <c r="D92" s="23"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="53"/>
+      <c r="E92" s="29">
+        <v>552</v>
+      </c>
+      <c r="F92" s="52">
+        <v>0.97367899999999996</v>
+      </c>
+      <c r="G92" s="52">
+        <v>0.97007600000000005</v>
+      </c>
+      <c r="H92" s="53">
+        <v>0.96633930000000001</v>
+      </c>
       <c r="I92" s="23"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="52"/>
-      <c r="L92" s="52"/>
-      <c r="M92" s="52"/>
-      <c r="N92" s="52"/>
-      <c r="O92" s="52"/>
-      <c r="P92" s="52"/>
-      <c r="Q92" s="52"/>
-      <c r="R92" s="9"/>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B93" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C93" s="17">
+      <c r="J92" s="11">
+        <v>0.54670751399999995</v>
+      </c>
+      <c r="K92" s="52">
+        <v>0.44994645799999999</v>
+      </c>
+      <c r="L92" s="52">
+        <v>2.8314092000000001E-3</v>
+      </c>
+      <c r="M92" s="52">
+        <v>1.0913305900000001E-5</v>
+      </c>
+      <c r="N92" s="52">
+        <v>4.6604349E-17</v>
+      </c>
+      <c r="O92" s="52">
+        <v>4.9133029000000003E-4</v>
+      </c>
+      <c r="P92" s="52">
+        <v>1.2375069799999999E-5</v>
+      </c>
+      <c r="Q92" s="52">
+        <v>4.1918929600000001E-16</v>
+      </c>
+      <c r="R92" s="9">
+        <v>3.32380048E-15</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B95" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="97"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="51"/>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B94" s="86"/>
-      <c r="C94" s="17">
+      <c r="H95" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="55"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46"/>
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
-      <c r="Q94" s="46"/>
-      <c r="R94" s="51"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B95" s="86"/>
-      <c r="C95" s="17">
+      <c r="I95" s="75"/>
+      <c r="J95" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L95" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="M95" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O95" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="P95" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q95" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B96" s="17"/>
+      <c r="C96" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96" s="28"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="100"/>
+      <c r="L96" s="100"/>
+      <c r="M96" s="100"/>
+      <c r="N96" s="100"/>
+      <c r="O96" s="100"/>
+      <c r="P96" s="100"/>
+      <c r="Q96" s="101"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B97" s="92">
+        <v>10000000</v>
+      </c>
+      <c r="C97" s="33">
+        <v>3</v>
+      </c>
+      <c r="D97" s="35"/>
+      <c r="E97" s="36">
+        <v>694</v>
+      </c>
+      <c r="F97" s="56">
+        <v>0.97999099999999995</v>
+      </c>
+      <c r="G97" s="56">
+        <v>0.97787999999999997</v>
+      </c>
+      <c r="H97" s="88">
+        <v>0.96324010000000004</v>
+      </c>
+      <c r="I97" s="35"/>
+      <c r="J97" s="84">
+        <v>0.71778217600000005</v>
+      </c>
+      <c r="K97" s="56">
+        <v>1.5291003100000001E-2</v>
+      </c>
+      <c r="L97" s="56">
+        <v>5.6477935100000001E-2</v>
+      </c>
+      <c r="M97" s="56">
+        <v>0.16849106799999999</v>
+      </c>
+      <c r="N97" s="56">
+        <v>7.77328793E-3</v>
+      </c>
+      <c r="O97" s="56">
+        <v>2.6086505199999999E-2</v>
+      </c>
+      <c r="P97" s="56">
+        <v>2.7842993400000002E-5</v>
+      </c>
+      <c r="Q97" s="82">
+        <v>8.0701815499999996E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B98" s="93"/>
+      <c r="C98" s="17">
+        <v>4</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="28">
+        <v>357</v>
+      </c>
+      <c r="F98" s="46">
+        <v>0.98065100000000005</v>
+      </c>
+      <c r="G98" s="46">
+        <v>0.97799700000000001</v>
+      </c>
+      <c r="H98" s="47">
+        <v>0.96302069999999995</v>
+      </c>
+      <c r="I98" s="19"/>
+      <c r="J98" s="55">
+        <v>0.714793648</v>
+      </c>
+      <c r="K98" s="46">
+        <v>1.6065361199999999E-2</v>
+      </c>
+      <c r="L98" s="46">
+        <v>5.4351590999999998E-2</v>
+      </c>
+      <c r="M98" s="46">
+        <v>0.17108662999999999</v>
+      </c>
+      <c r="N98" s="46">
+        <v>7.2563749000000002E-3</v>
+      </c>
+      <c r="O98" s="46">
+        <v>2.7302091899999999E-2</v>
+      </c>
+      <c r="P98" s="46">
+        <v>3.6369611300000003E-5</v>
+      </c>
+      <c r="Q98" s="51">
+        <v>9.1079334299999995E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B99" s="93"/>
+      <c r="C99" s="17">
         <v>5</v>
       </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="55"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="51"/>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B96" s="86"/>
-      <c r="C96" s="17">
+      <c r="D99" s="19"/>
+      <c r="E99" s="28">
+        <v>247</v>
+      </c>
+      <c r="F99" s="46">
+        <v>0.98172400000000004</v>
+      </c>
+      <c r="G99" s="46">
+        <v>0.97798799999999997</v>
+      </c>
+      <c r="H99" s="47">
+        <v>0.96259340000000004</v>
+      </c>
+      <c r="I99" s="19"/>
+      <c r="J99" s="55">
+        <v>0.70983300199999999</v>
+      </c>
+      <c r="K99" s="46">
+        <v>1.7853361799999998E-2</v>
+      </c>
+      <c r="L99" s="46">
+        <v>5.3932601900000002E-2</v>
+      </c>
+      <c r="M99" s="46">
+        <v>0.17148591599999999</v>
+      </c>
+      <c r="N99" s="46">
+        <v>8.6971764300000001E-3</v>
+      </c>
+      <c r="O99" s="46">
+        <v>2.6965268399999999E-2</v>
+      </c>
+      <c r="P99" s="46">
+        <v>4.6911698599999998E-5</v>
+      </c>
+      <c r="Q99" s="51">
+        <v>1.11857624E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B100" s="93"/>
+      <c r="C100" s="17">
         <v>6</v>
       </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="55"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="51"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B97" s="87"/>
-      <c r="C97" s="10">
+      <c r="D100" s="19"/>
+      <c r="E100" s="28">
+        <v>201</v>
+      </c>
+      <c r="F100" s="46">
+        <v>0.98203300000000004</v>
+      </c>
+      <c r="G100" s="46">
+        <v>0.97796499999999997</v>
+      </c>
+      <c r="H100" s="47">
+        <v>0.96234790000000003</v>
+      </c>
+      <c r="I100" s="19"/>
+      <c r="J100" s="55">
+        <v>0.706904541</v>
+      </c>
+      <c r="K100" s="46">
+        <v>1.8959918799999999E-2</v>
+      </c>
+      <c r="L100" s="46">
+        <v>5.4568328399999998E-2</v>
+      </c>
+      <c r="M100" s="46">
+        <v>0.17300169900000001</v>
+      </c>
+      <c r="N100" s="46">
+        <v>8.8481438500000002E-3</v>
+      </c>
+      <c r="O100" s="46">
+        <v>2.6356893199999998E-2</v>
+      </c>
+      <c r="P100" s="46">
+        <v>3.7861197999999997E-5</v>
+      </c>
+      <c r="Q100" s="51">
+        <v>1.1322614700000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B101" s="94"/>
+      <c r="C101" s="10">
         <v>7</v>
       </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="52"/>
-      <c r="L97" s="52"/>
-      <c r="M97" s="52"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="52"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="52"/>
-      <c r="R97" s="9"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B100" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="81"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100" s="48" t="s">
+      <c r="D101" s="23"/>
+      <c r="E101" s="29">
+        <v>182</v>
+      </c>
+      <c r="F101" s="52">
+        <v>0.98230499999999998</v>
+      </c>
+      <c r="G101" s="52">
+        <v>0.97808200000000001</v>
+      </c>
+      <c r="H101" s="53">
+        <v>0.96271609999999996</v>
+      </c>
+      <c r="I101" s="23"/>
+      <c r="J101" s="11">
+        <v>0.70381463300000002</v>
+      </c>
+      <c r="K101" s="52">
+        <v>1.9199510400000001E-2</v>
+      </c>
+      <c r="L101" s="52">
+        <v>5.6561781499999998E-2</v>
+      </c>
+      <c r="M101" s="52">
+        <v>0.17413682799999999</v>
+      </c>
+      <c r="N101" s="52">
+        <v>7.79837298E-3</v>
+      </c>
+      <c r="O101" s="52">
+        <v>2.5937767099999998E-2</v>
+      </c>
+      <c r="P101" s="52">
+        <v>4.4054444400000003E-5</v>
+      </c>
+      <c r="Q101" s="9">
+        <v>1.25070522E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B102" s="95">
+        <v>20000000</v>
+      </c>
+      <c r="C102" s="17">
         <v>3</v>
       </c>
-      <c r="H100" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="75"/>
-      <c r="J100" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K100" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="M100" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="N100" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="O100" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="P100" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q100" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B101" s="17"/>
-      <c r="C101" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E101" s="28"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="K101" s="122"/>
-      <c r="L101" s="122"/>
-      <c r="M101" s="122"/>
-      <c r="N101" s="122"/>
-      <c r="O101" s="122"/>
-      <c r="P101" s="122"/>
-      <c r="Q101" s="123"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B102" s="115">
-        <v>10000000</v>
-      </c>
-      <c r="C102" s="33">
-        <v>3</v>
-      </c>
-      <c r="D102" s="35"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="118"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="56"/>
-      <c r="N102" s="56"/>
-      <c r="O102" s="56"/>
-      <c r="P102" s="56"/>
-      <c r="Q102" s="116"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B103" s="86"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="46">
+        <v>0.97516700000000001</v>
+      </c>
+      <c r="G102" s="46">
+        <v>0.97259700000000004</v>
+      </c>
+      <c r="H102" s="81">
+        <v>0.96376139999999999</v>
+      </c>
+      <c r="I102" s="19"/>
+      <c r="J102" s="55">
+        <v>0.71456977899999996</v>
+      </c>
+      <c r="K102" s="46">
+        <v>1.80833733E-2</v>
+      </c>
+      <c r="L102" s="46">
+        <v>5.9508768300000001E-2</v>
+      </c>
+      <c r="M102" s="46">
+        <v>0.163593828</v>
+      </c>
+      <c r="N102" s="46">
+        <v>5.9944030099999997E-3</v>
+      </c>
+      <c r="O102" s="46">
+        <v>2.8839717800000001E-2</v>
+      </c>
+      <c r="P102" s="46">
+        <v>2.6924533999999999E-5</v>
+      </c>
+      <c r="Q102" s="51">
+        <v>9.3832059400000001E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B103" s="93"/>
       <c r="C103" s="17">
         <v>4</v>
       </c>
       <c r="D103" s="19"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="47"/>
+      <c r="E103" s="28">
+        <v>770</v>
+      </c>
+      <c r="F103" s="46">
+        <v>0.97688699999999995</v>
+      </c>
+      <c r="G103" s="46">
+        <v>0.972966</v>
+      </c>
+      <c r="H103" s="47">
+        <v>0.96368520000000002</v>
+      </c>
       <c r="I103" s="19"/>
-      <c r="J103" s="55"/>
-      <c r="K103" s="46"/>
-      <c r="L103" s="46"/>
-      <c r="M103" s="46"/>
-      <c r="N103" s="46"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
-      <c r="Q103" s="51"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B104" s="86"/>
+      <c r="J103" s="55">
+        <v>0.70635136300000001</v>
+      </c>
+      <c r="K103" s="46">
+        <v>2.0910423599999999E-2</v>
+      </c>
+      <c r="L103" s="46">
+        <v>5.6438440499999999E-2</v>
+      </c>
+      <c r="M103" s="46">
+        <v>0.16701243199999999</v>
+      </c>
+      <c r="N103" s="46">
+        <v>6.9905357499999996E-3</v>
+      </c>
+      <c r="O103" s="46">
+        <v>2.9939784000000001E-2</v>
+      </c>
+      <c r="P103" s="46">
+        <v>5.6410736900000001E-5</v>
+      </c>
+      <c r="Q103" s="51">
+        <v>1.23006101E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B104" s="93"/>
       <c r="C104" s="17">
         <v>5</v>
       </c>
       <c r="D104" s="19"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="47"/>
+      <c r="E104" s="28">
+        <v>443</v>
+      </c>
+      <c r="F104" s="46">
+        <v>0.97750800000000004</v>
+      </c>
+      <c r="G104" s="46">
+        <v>0.97282000000000002</v>
+      </c>
+      <c r="H104" s="47">
+        <v>0.96350429999999998</v>
+      </c>
       <c r="I104" s="19"/>
-      <c r="J104" s="55"/>
-      <c r="K104" s="46"/>
-      <c r="L104" s="46"/>
-      <c r="M104" s="46"/>
-      <c r="N104" s="46"/>
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="51"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B105" s="86"/>
+      <c r="J104" s="55">
+        <v>0.70312180800000001</v>
+      </c>
+      <c r="K104" s="46">
+        <v>2.1483581799999998E-2</v>
+      </c>
+      <c r="L104" s="46">
+        <v>5.5481304100000003E-2</v>
+      </c>
+      <c r="M104" s="46">
+        <v>0.16928442199999999</v>
+      </c>
+      <c r="N104" s="46">
+        <v>7.6614586099999996E-3</v>
+      </c>
+      <c r="O104" s="46">
+        <v>2.9843212399999999E-2</v>
+      </c>
+      <c r="P104" s="46">
+        <v>7.4014216599999994E-5</v>
+      </c>
+      <c r="Q104" s="51">
+        <v>1.3050199199999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B105" s="93"/>
       <c r="C105" s="17">
         <v>6</v>
       </c>
       <c r="D105" s="19"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="47"/>
+      <c r="E105" s="28">
+        <v>431</v>
+      </c>
+      <c r="F105" s="46">
+        <v>0.97899099999999994</v>
+      </c>
+      <c r="G105" s="46">
+        <v>0.97294700000000001</v>
+      </c>
+      <c r="H105" s="47">
+        <v>0.96348429999999996</v>
+      </c>
       <c r="I105" s="19"/>
-      <c r="J105" s="55"/>
-      <c r="K105" s="46"/>
-      <c r="L105" s="46"/>
-      <c r="M105" s="46"/>
-      <c r="N105" s="46"/>
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
-      <c r="Q105" s="51"/>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B106" s="87"/>
-      <c r="C106" s="10">
+      <c r="J105" s="55">
+        <v>0.69720965000000001</v>
+      </c>
+      <c r="K105" s="46">
+        <v>2.3498866E-2</v>
+      </c>
+      <c r="L105" s="46">
+        <v>5.6140578699999999E-2</v>
+      </c>
+      <c r="M105" s="46">
+        <v>0.16974219400000001</v>
+      </c>
+      <c r="N105" s="46">
+        <v>9.2674321800000001E-3</v>
+      </c>
+      <c r="O105" s="46">
+        <v>2.9127441699999999E-2</v>
+      </c>
+      <c r="P105" s="46">
+        <v>8.0067104200000005E-5</v>
+      </c>
+      <c r="Q105" s="51">
+        <v>1.49337706E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B106" s="93"/>
+      <c r="C106" s="17">
         <v>7</v>
       </c>
-      <c r="D106" s="23"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="52"/>
-      <c r="L106" s="52"/>
-      <c r="M106" s="52"/>
-      <c r="N106" s="52"/>
-      <c r="O106" s="52"/>
-      <c r="P106" s="52"/>
-      <c r="Q106" s="9"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B107" s="113">
-        <v>20000000</v>
-      </c>
-      <c r="C107" s="17">
+      <c r="D106" s="19"/>
+      <c r="E106" s="28">
+        <v>358</v>
+      </c>
+      <c r="F106" s="46">
+        <v>0.97900200000000004</v>
+      </c>
+      <c r="G106" s="46">
+        <v>0.97306099999999995</v>
+      </c>
+      <c r="H106" s="47">
+        <v>0.96342879999999997</v>
+      </c>
+      <c r="I106" s="19"/>
+      <c r="J106" s="55">
+        <v>0.69676076600000003</v>
+      </c>
+      <c r="K106" s="46">
+        <v>2.37905622E-2</v>
+      </c>
+      <c r="L106" s="46">
+        <v>5.6065896300000001E-2</v>
+      </c>
+      <c r="M106" s="46">
+        <v>0.17130569100000001</v>
+      </c>
+      <c r="N106" s="46">
+        <v>8.3644639899999994E-3</v>
+      </c>
+      <c r="O106" s="46">
+        <v>2.8989668999999999E-2</v>
+      </c>
+      <c r="P106" s="46">
+        <v>6.2897191300000002E-5</v>
+      </c>
+      <c r="Q106" s="51">
+        <v>1.46600551E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B107" s="92">
+        <v>30000000</v>
+      </c>
+      <c r="C107" s="33">
         <v>3</v>
       </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="28">
-        <v>1000</v>
-      </c>
-      <c r="F107" s="46">
-        <v>0.97516700000000001</v>
-      </c>
-      <c r="G107" s="46">
-        <v>0.97259700000000004</v>
-      </c>
-      <c r="H107" s="47">
-        <v>0.96376139999999999</v>
-      </c>
-      <c r="I107" s="19"/>
-      <c r="J107" s="55">
-        <v>0.71456977899999996</v>
-      </c>
-      <c r="K107" s="46">
-        <v>1.80833733E-2</v>
-      </c>
-      <c r="L107" s="46">
-        <v>5.9508768300000001E-2</v>
-      </c>
-      <c r="M107" s="46">
-        <v>0.163593828</v>
-      </c>
-      <c r="N107" s="46">
-        <v>5.9944030099999997E-3</v>
-      </c>
-      <c r="O107" s="46">
-        <v>2.8839717800000001E-2</v>
-      </c>
-      <c r="P107" s="46">
-        <v>2.6924533999999999E-5</v>
-      </c>
-      <c r="Q107" s="51">
-        <v>9.3832059400000001E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B108" s="86"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="36">
+        <v>997</v>
+      </c>
+      <c r="F107" s="56">
+        <v>0.97029900000000002</v>
+      </c>
+      <c r="G107" s="56">
+        <v>0.96767099999999995</v>
+      </c>
+      <c r="H107" s="57">
+        <v>0.96431109999999998</v>
+      </c>
+      <c r="I107" s="35"/>
+      <c r="J107" s="84">
+        <v>0.712134924</v>
+      </c>
+      <c r="K107" s="56">
+        <v>1.8252126600000002E-2</v>
+      </c>
+      <c r="L107" s="56">
+        <v>5.6156885099999998E-2</v>
+      </c>
+      <c r="M107" s="56">
+        <v>0.16486788599999999</v>
+      </c>
+      <c r="N107" s="56">
+        <v>5.4863902699999996E-3</v>
+      </c>
+      <c r="O107" s="56">
+        <v>3.2600313700000001E-2</v>
+      </c>
+      <c r="P107" s="56">
+        <v>2.7475398999999998E-5</v>
+      </c>
+      <c r="Q107" s="82">
+        <v>1.0473998300000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B108" s="93"/>
       <c r="C108" s="17">
         <v>4</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="28">
-        <v>770</v>
+        <v>999</v>
       </c>
       <c r="F108" s="46">
-        <v>0.97688699999999995</v>
+        <v>0.97230099999999997</v>
       </c>
       <c r="G108" s="46">
-        <v>0.972966</v>
+        <v>0.96802999999999995</v>
       </c>
       <c r="H108" s="47">
-        <v>0.96368520000000002</v>
+        <v>0.96426769999999995</v>
       </c>
       <c r="I108" s="19"/>
       <c r="J108" s="55">
-        <v>0.70635136300000001</v>
+        <v>0.70346909400000002</v>
       </c>
       <c r="K108" s="46">
-        <v>2.0910423599999999E-2</v>
+        <v>2.10462402E-2</v>
       </c>
       <c r="L108" s="46">
-        <v>5.6438440499999999E-2</v>
+        <v>5.4905388899999998E-2</v>
       </c>
       <c r="M108" s="46">
-        <v>0.16701243199999999</v>
+        <v>0.16763984300000001</v>
       </c>
       <c r="N108" s="46">
-        <v>6.9905357499999996E-3</v>
+        <v>7.2187121299999999E-3</v>
       </c>
       <c r="O108" s="46">
-        <v>2.9939784000000001E-2</v>
+        <v>3.2374738200000003E-2</v>
       </c>
       <c r="P108" s="46">
-        <v>5.6410736900000001E-5</v>
+        <v>5.3034416399999998E-5</v>
       </c>
       <c r="Q108" s="51">
-        <v>1.23006101E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B109" s="86"/>
+        <v>1.32929491E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B109" s="93"/>
       <c r="C109" s="17">
         <v>5</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="28">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="F109" s="46">
-        <v>0.97750800000000004</v>
+        <v>0.97269000000000005</v>
       </c>
       <c r="G109" s="46">
-        <v>0.97282000000000002</v>
+        <v>0.96811800000000003</v>
       </c>
       <c r="H109" s="47">
-        <v>0.96350429999999998</v>
+        <v>0.96431820000000001</v>
       </c>
       <c r="I109" s="19"/>
       <c r="J109" s="55">
-        <v>0.70312180800000001</v>
+        <v>0.70299324500000004</v>
       </c>
       <c r="K109" s="46">
-        <v>2.1483581799999998E-2</v>
+        <v>2.1426706399999999E-2</v>
       </c>
       <c r="L109" s="46">
-        <v>5.5481304100000003E-2</v>
+        <v>5.0477466499999998E-2</v>
       </c>
       <c r="M109" s="46">
-        <v>0.16928442199999999</v>
+        <v>0.17054844299999999</v>
       </c>
       <c r="N109" s="46">
-        <v>7.6614586099999996E-3</v>
+        <v>7.7868198299999997E-3</v>
       </c>
       <c r="O109" s="46">
-        <v>2.9843212399999999E-2</v>
+        <v>3.2827045899999997E-2</v>
       </c>
       <c r="P109" s="46">
-        <v>7.4014216599999994E-5</v>
+        <v>5.1236622500000002E-5</v>
       </c>
       <c r="Q109" s="51">
-        <v>1.3050199199999999E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B110" s="86"/>
+        <v>1.3889036400000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B110" s="93"/>
       <c r="C110" s="17">
         <v>6</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="28">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="F110" s="46">
-        <v>0.97899099999999994</v>
+        <v>0.973908</v>
       </c>
       <c r="G110" s="46">
-        <v>0.97294700000000001</v>
-      </c>
-      <c r="H110" s="47"/>
+        <v>0.96797900000000003</v>
+      </c>
+      <c r="H110" s="81">
+        <v>0.964391</v>
+      </c>
       <c r="I110" s="19"/>
       <c r="J110" s="55">
-        <v>0.69720965000000001</v>
+        <v>0.69743786500000005</v>
       </c>
       <c r="K110" s="46">
-        <v>2.3498866E-2</v>
+        <v>2.3765264800000001E-2</v>
       </c>
       <c r="L110" s="46">
-        <v>5.6140578699999999E-2</v>
+        <v>5.1512674899999999E-2</v>
       </c>
       <c r="M110" s="46">
-        <v>0.16974219400000001</v>
+        <v>0.17090465799999999</v>
       </c>
       <c r="N110" s="46">
-        <v>9.2674321800000001E-3</v>
+        <v>8.9760559799999997E-3</v>
       </c>
       <c r="O110" s="46">
-        <v>2.9127441699999999E-2</v>
+        <v>3.2186723600000001E-2</v>
       </c>
       <c r="P110" s="46">
-        <v>8.0067104200000005E-5</v>
+        <v>9.6328254399999998E-5</v>
       </c>
       <c r="Q110" s="51">
-        <v>1.49337706E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B111" s="86"/>
-      <c r="C111" s="17">
+        <v>1.5120429499999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B111" s="94"/>
+      <c r="C111" s="10">
         <v>7</v>
       </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="28">
-        <v>358</v>
-      </c>
-      <c r="F111" s="46">
-        <v>0.97900200000000004</v>
-      </c>
-      <c r="G111" s="46">
-        <v>0.97306099999999995</v>
-      </c>
-      <c r="H111" s="47"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="55">
-        <v>0.69676076600000003</v>
-      </c>
-      <c r="K111" s="46">
-        <v>2.37905622E-2</v>
-      </c>
-      <c r="L111" s="46">
-        <v>5.6065896300000001E-2</v>
-      </c>
-      <c r="M111" s="46">
-        <v>0.17130569100000001</v>
-      </c>
-      <c r="N111" s="46">
-        <v>8.3644639899999994E-3</v>
-      </c>
-      <c r="O111" s="46">
-        <v>2.8989668999999999E-2</v>
-      </c>
-      <c r="P111" s="46">
-        <v>6.2897191300000002E-5</v>
-      </c>
-      <c r="Q111" s="51">
-        <v>1.46600551E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="115">
-        <v>30000000</v>
-      </c>
-      <c r="C112" s="33">
+      <c r="D111" s="23"/>
+      <c r="E111" s="29">
+        <v>481</v>
+      </c>
+      <c r="F111" s="52">
+        <v>0.97448800000000002</v>
+      </c>
+      <c r="G111" s="52">
+        <v>0.96807900000000002</v>
+      </c>
+      <c r="H111" s="53">
+        <v>0.96420570000000005</v>
+      </c>
+      <c r="I111" s="23"/>
+      <c r="J111" s="11">
+        <v>0.69440933500000002</v>
+      </c>
+      <c r="K111" s="52">
+        <v>2.40647389E-2</v>
+      </c>
+      <c r="L111" s="52">
+        <v>5.25836436E-2</v>
+      </c>
+      <c r="M111" s="52">
+        <v>0.171892407</v>
+      </c>
+      <c r="N111" s="52">
+        <v>9.1728495199999999E-3</v>
+      </c>
+      <c r="O111" s="52">
+        <v>3.2069306200000001E-2</v>
+      </c>
+      <c r="P111" s="52">
+        <v>8.0088194800000007E-5</v>
+      </c>
+      <c r="Q111" s="9">
+        <v>1.57276319E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B112" s="95">
+        <v>40000000</v>
+      </c>
+      <c r="C112" s="17">
         <v>3</v>
       </c>
-      <c r="D112" s="35"/>
-      <c r="E112" s="36">
-        <v>997</v>
-      </c>
-      <c r="F112" s="56">
-        <v>0.97029900000000002</v>
-      </c>
-      <c r="G112" s="56">
-        <v>0.96767099999999995</v>
-      </c>
-      <c r="H112" s="57"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="118">
-        <v>0.712134924</v>
-      </c>
-      <c r="K112" s="56">
-        <v>1.8252126600000002E-2</v>
-      </c>
-      <c r="L112" s="56">
-        <v>5.6156885099999998E-2</v>
-      </c>
-      <c r="M112" s="56">
-        <v>0.16486788599999999</v>
-      </c>
-      <c r="N112" s="56">
-        <v>5.4863902699999996E-3</v>
-      </c>
-      <c r="O112" s="56">
-        <v>3.2600313700000001E-2</v>
-      </c>
-      <c r="P112" s="56">
-        <v>2.7475398999999998E-5</v>
-      </c>
-      <c r="Q112" s="116">
-        <v>1.0473998300000001E-2</v>
+      <c r="D112" s="19"/>
+      <c r="E112" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F112" s="46">
+        <v>0.96786700000000003</v>
+      </c>
+      <c r="G112" s="46">
+        <v>0.96665400000000001</v>
+      </c>
+      <c r="H112" s="47">
+        <v>0.96436429999999995</v>
+      </c>
+      <c r="I112" s="19"/>
+      <c r="J112" s="55">
+        <v>0.70775070100000004</v>
+      </c>
+      <c r="K112" s="46">
+        <v>1.8614998000000001E-2</v>
+      </c>
+      <c r="L112" s="46">
+        <v>5.4164855499999998E-2</v>
+      </c>
+      <c r="M112" s="46">
+        <v>0.16579412399999999</v>
+      </c>
+      <c r="N112" s="46">
+        <v>5.5472452000000002E-3</v>
+      </c>
+      <c r="O112" s="46">
+        <v>3.7197757099999999E-2</v>
+      </c>
+      <c r="P112" s="46">
+        <v>1.5760162899999999E-5</v>
+      </c>
+      <c r="Q112" s="51">
+        <v>1.0914558899999999E-2</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B113" s="86"/>
+      <c r="B113" s="93"/>
       <c r="C113" s="17">
         <v>4</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="28">
-        <v>999</v>
+        <v>878</v>
       </c>
       <c r="F113" s="46">
-        <v>0.97230099999999997</v>
+        <v>0.96939500000000001</v>
       </c>
       <c r="G113" s="46">
-        <v>0.96802999999999995</v>
-      </c>
-      <c r="H113" s="47"/>
+        <v>0.96712500000000001</v>
+      </c>
+      <c r="H113" s="47">
+        <v>0.96418769999999998</v>
+      </c>
       <c r="I113" s="19"/>
       <c r="J113" s="55">
-        <v>0.70346909400000002</v>
+        <v>0.70189816900000002</v>
       </c>
       <c r="K113" s="46">
-        <v>2.10462402E-2</v>
+        <v>2.0095976599999999E-2</v>
       </c>
       <c r="L113" s="46">
-        <v>5.4905388899999998E-2</v>
+        <v>5.2799714800000001E-2</v>
       </c>
       <c r="M113" s="46">
-        <v>0.16763984300000001</v>
+        <v>0.16937211299999999</v>
       </c>
       <c r="N113" s="46">
-        <v>7.2187121299999999E-3</v>
+        <v>6.0244246099999997E-3</v>
       </c>
       <c r="O113" s="46">
-        <v>3.2374738200000003E-2</v>
+        <v>3.6701270600000002E-2</v>
       </c>
       <c r="P113" s="46">
-        <v>5.3034416399999998E-5</v>
+        <v>3.5270806299999999E-5</v>
       </c>
       <c r="Q113" s="51">
-        <v>1.32929491E-2</v>
+        <v>1.30730602E-2</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B114" s="86"/>
+      <c r="B114" s="93"/>
       <c r="C114" s="17">
         <v>5</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="28">
-        <v>516</v>
+        <v>681</v>
       </c>
       <c r="F114" s="46">
-        <v>0.97269000000000005</v>
+        <v>0.970827</v>
       </c>
       <c r="G114" s="46">
-        <v>0.96811800000000003</v>
-      </c>
-      <c r="H114" s="47"/>
+        <v>0.96725700000000003</v>
+      </c>
+      <c r="H114" s="47">
+        <v>0.96414250000000001</v>
+      </c>
       <c r="I114" s="19"/>
       <c r="J114" s="55">
-        <v>0.70299324500000004</v>
+        <v>0.69699223099999996</v>
       </c>
       <c r="K114" s="46">
-        <v>2.1426706399999999E-2</v>
+        <v>2.2482795100000001E-2</v>
       </c>
       <c r="L114" s="46">
-        <v>5.0477466499999998E-2</v>
+        <v>5.09227264E-2</v>
       </c>
       <c r="M114" s="46">
-        <v>0.17054844299999999</v>
+        <v>0.17014559000000001</v>
       </c>
       <c r="N114" s="46">
-        <v>7.7868198299999997E-3</v>
+        <v>7.54334845E-3</v>
       </c>
       <c r="O114" s="46">
-        <v>3.2827045899999997E-2</v>
+        <v>3.6845639299999997E-2</v>
       </c>
       <c r="P114" s="46">
-        <v>5.1236622500000002E-5</v>
+        <v>4.5852902400000001E-5</v>
       </c>
       <c r="Q114" s="51">
-        <v>1.3889036400000001E-2</v>
+        <v>1.5021816299999999E-2</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B115" s="86"/>
+      <c r="B115" s="93"/>
       <c r="C115" s="17">
         <v>6</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="28">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="F115" s="46">
-        <v>0.973908</v>
+        <v>0.97109900000000005</v>
       </c>
       <c r="G115" s="46">
-        <v>0.96797900000000003</v>
-      </c>
-      <c r="H115" s="47"/>
+        <v>0.96719699999999997</v>
+      </c>
+      <c r="H115" s="47">
+        <v>0.96444600000000003</v>
+      </c>
       <c r="I115" s="19"/>
       <c r="J115" s="55">
-        <v>0.69743786500000005</v>
+        <v>0.69669575699999997</v>
       </c>
       <c r="K115" s="46">
-        <v>2.3765264800000001E-2</v>
+        <v>2.2880132599999999E-2</v>
       </c>
       <c r="L115" s="46">
-        <v>5.1512674899999999E-2</v>
+        <v>4.8770730599999999E-2</v>
       </c>
       <c r="M115" s="46">
-        <v>0.17090465799999999</v>
+        <v>0.172228826</v>
       </c>
       <c r="N115" s="46">
-        <v>8.9760559799999997E-3</v>
+        <v>7.8962824300000001E-3</v>
       </c>
       <c r="O115" s="46">
-        <v>3.2186723600000001E-2</v>
+        <v>3.6434356199999997E-2</v>
       </c>
       <c r="P115" s="46">
-        <v>9.6328254399999998E-5</v>
+        <v>5.4110455099999998E-5</v>
       </c>
       <c r="Q115" s="51">
-        <v>1.5120429499999999E-2</v>
+        <v>1.50398046E-2</v>
       </c>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="87"/>
-      <c r="C116" s="10">
+      <c r="B116" s="93"/>
+      <c r="C116" s="17">
         <v>7</v>
       </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="29">
-        <v>481</v>
-      </c>
-      <c r="F116" s="52">
-        <v>0.97448800000000002</v>
-      </c>
-      <c r="G116" s="52">
-        <v>0.96807900000000002</v>
-      </c>
-      <c r="H116" s="53"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="11">
-        <v>0.69440933500000002</v>
-      </c>
-      <c r="K116" s="52">
-        <v>2.40647389E-2</v>
-      </c>
-      <c r="L116" s="52">
-        <v>5.25836436E-2</v>
-      </c>
-      <c r="M116" s="52">
-        <v>0.171892407</v>
-      </c>
-      <c r="N116" s="52">
-        <v>9.1728495199999999E-3</v>
-      </c>
-      <c r="O116" s="52">
-        <v>3.2069306200000001E-2</v>
-      </c>
-      <c r="P116" s="52">
-        <v>8.0088194800000007E-5</v>
-      </c>
-      <c r="Q116" s="9">
-        <v>1.57276319E-2</v>
+      <c r="D116" s="19"/>
+      <c r="E116" s="28">
+        <v>342</v>
+      </c>
+      <c r="F116" s="46">
+        <v>0.97009000000000001</v>
+      </c>
+      <c r="G116" s="46">
+        <v>0.96706899999999996</v>
+      </c>
+      <c r="H116" s="81">
+        <v>0.96444790000000002</v>
+      </c>
+      <c r="I116" s="19"/>
+      <c r="J116" s="55">
+        <v>0.69816149299999997</v>
+      </c>
+      <c r="K116" s="46">
+        <v>2.2156368799999999E-2</v>
+      </c>
+      <c r="L116" s="46">
+        <v>4.9349100100000001E-2</v>
+      </c>
+      <c r="M116" s="46">
+        <v>0.17367069500000001</v>
+      </c>
+      <c r="N116" s="46">
+        <v>6.8331204E-3</v>
+      </c>
+      <c r="O116" s="46">
+        <v>3.6417165799999998E-2</v>
+      </c>
+      <c r="P116" s="46">
+        <v>5.8182968899999999E-5</v>
+      </c>
+      <c r="Q116" s="51">
+        <v>1.33538745E-2</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B117" s="113">
-        <v>40000000</v>
-      </c>
-      <c r="C117" s="17">
+      <c r="B117" s="92">
+        <v>50000000</v>
+      </c>
+      <c r="C117" s="33">
         <v>3</v>
       </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="55"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="N117" s="46"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="46"/>
-      <c r="Q117" s="51"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F117" s="56">
+        <v>0.96738400000000002</v>
+      </c>
+      <c r="G117" s="56">
+        <v>0.96706999999999999</v>
+      </c>
+      <c r="H117" s="57">
+        <v>0.96386110000000003</v>
+      </c>
+      <c r="I117" s="35"/>
+      <c r="J117" s="84">
+        <v>0.70609451400000001</v>
+      </c>
+      <c r="K117" s="56">
+        <v>1.71689662E-2</v>
+      </c>
+      <c r="L117" s="56">
+        <v>5.7480109100000003E-2</v>
+      </c>
+      <c r="M117" s="56">
+        <v>0.16222634399999999</v>
+      </c>
+      <c r="N117" s="56">
+        <v>5.0553338800000003E-3</v>
+      </c>
+      <c r="O117" s="56">
+        <v>3.9822626E-2</v>
+      </c>
+      <c r="P117" s="56">
+        <v>3.1274426399999997E-5</v>
+      </c>
+      <c r="Q117" s="82">
+        <v>1.2120831800000001E-2</v>
+      </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B118" s="86"/>
+      <c r="B118" s="93"/>
       <c r="C118" s="17">
         <v>4</v>
       </c>
       <c r="D118" s="19"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="47"/>
+      <c r="E118" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F118" s="46">
+        <v>0.96896800000000005</v>
+      </c>
+      <c r="G118" s="46">
+        <v>0.96762700000000001</v>
+      </c>
+      <c r="H118" s="47">
+        <v>0.96377539999999995</v>
+      </c>
       <c r="I118" s="19"/>
-      <c r="J118" s="55"/>
-      <c r="K118" s="46"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="46"/>
-      <c r="N118" s="46"/>
-      <c r="O118" s="46"/>
-      <c r="P118" s="46"/>
-      <c r="Q118" s="51"/>
+      <c r="J118" s="55">
+        <v>0.70085198400000004</v>
+      </c>
+      <c r="K118" s="46">
+        <v>1.93199732E-2</v>
+      </c>
+      <c r="L118" s="46">
+        <v>5.0427489800000003E-2</v>
+      </c>
+      <c r="M118" s="46">
+        <v>0.17024450499999999</v>
+      </c>
+      <c r="N118" s="46">
+        <v>6.2622486999999996E-3</v>
+      </c>
+      <c r="O118" s="46">
+        <v>3.8958831100000001E-2</v>
+      </c>
+      <c r="P118" s="46">
+        <v>4.3017192400000003E-5</v>
+      </c>
+      <c r="Q118" s="51">
+        <v>1.3891950700000001E-2</v>
+      </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B119" s="86"/>
+      <c r="B119" s="93"/>
       <c r="C119" s="17">
         <v>5</v>
       </c>
       <c r="D119" s="19"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="47"/>
+      <c r="E119" s="28">
+        <v>712</v>
+      </c>
+      <c r="F119" s="46">
+        <v>0.97005799999999998</v>
+      </c>
+      <c r="G119" s="46">
+        <v>0.96780999999999995</v>
+      </c>
+      <c r="H119" s="47">
+        <v>0.96342280000000002</v>
+      </c>
       <c r="I119" s="19"/>
-      <c r="J119" s="55"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="N119" s="46"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="51"/>
+      <c r="J119" s="55">
+        <v>0.69754198300000003</v>
+      </c>
+      <c r="K119" s="46">
+        <v>2.13017122E-2</v>
+      </c>
+      <c r="L119" s="46">
+        <v>4.80111176E-2</v>
+      </c>
+      <c r="M119" s="46">
+        <v>0.17131937699999999</v>
+      </c>
+      <c r="N119" s="46">
+        <v>7.3162420700000003E-3</v>
+      </c>
+      <c r="O119" s="46">
+        <v>3.9202652999999997E-2</v>
+      </c>
+      <c r="P119" s="46">
+        <v>8.3731017100000007E-5</v>
+      </c>
+      <c r="Q119" s="51">
+        <v>1.52231842E-2</v>
+      </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B120" s="86"/>
+      <c r="B120" s="93"/>
       <c r="C120" s="17">
         <v>6</v>
       </c>
       <c r="D120" s="19"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="47"/>
+      <c r="E120" s="28">
+        <v>553</v>
+      </c>
+      <c r="F120" s="46">
+        <v>0.97026400000000002</v>
+      </c>
+      <c r="G120" s="46">
+        <v>0.96771499999999999</v>
+      </c>
+      <c r="H120" s="47">
+        <v>0.963758</v>
+      </c>
       <c r="I120" s="19"/>
-      <c r="J120" s="55"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="N120" s="46"/>
-      <c r="O120" s="46"/>
-      <c r="P120" s="46"/>
-      <c r="Q120" s="51"/>
+      <c r="J120" s="55">
+        <v>0.69565513700000003</v>
+      </c>
+      <c r="K120" s="46">
+        <v>2.20698166E-2</v>
+      </c>
+      <c r="L120" s="46">
+        <v>4.7033362000000002E-2</v>
+      </c>
+      <c r="M120" s="46">
+        <v>0.173320529</v>
+      </c>
+      <c r="N120" s="46">
+        <v>7.7467722099999999E-3</v>
+      </c>
+      <c r="O120" s="46">
+        <v>3.8571654300000001E-2</v>
+      </c>
+      <c r="P120" s="46">
+        <v>7.7433848900000006E-5</v>
+      </c>
+      <c r="Q120" s="51">
+        <v>1.55252945E-2</v>
+      </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B121" s="86"/>
-      <c r="C121" s="17">
+      <c r="B121" s="94"/>
+      <c r="C121" s="10">
         <v>7</v>
       </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="46"/>
-      <c r="M121" s="46"/>
-      <c r="N121" s="46"/>
-      <c r="O121" s="46"/>
-      <c r="P121" s="46"/>
-      <c r="Q121" s="51"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B122" s="115">
-        <v>50000000</v>
-      </c>
-      <c r="C122" s="33">
-        <v>3</v>
-      </c>
-      <c r="D122" s="35"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="118"/>
-      <c r="K122" s="56"/>
-      <c r="L122" s="56"/>
-      <c r="M122" s="56"/>
-      <c r="N122" s="56"/>
-      <c r="O122" s="56"/>
-      <c r="P122" s="56"/>
-      <c r="Q122" s="116"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B123" s="86"/>
-      <c r="C123" s="17">
-        <v>4</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="46"/>
-      <c r="L123" s="46"/>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="46"/>
-      <c r="Q123" s="51"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B124" s="86"/>
-      <c r="C124" s="17">
-        <v>5</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="46"/>
-      <c r="L124" s="46"/>
-      <c r="M124" s="46"/>
-      <c r="N124" s="46"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="51"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B125" s="86"/>
-      <c r="C125" s="17">
-        <v>6</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="46"/>
-      <c r="L125" s="46"/>
-      <c r="M125" s="46"/>
-      <c r="N125" s="46"/>
-      <c r="O125" s="46"/>
-      <c r="P125" s="46"/>
-      <c r="Q125" s="51"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B126" s="87"/>
-      <c r="C126" s="10">
-        <v>7</v>
-      </c>
-      <c r="D126" s="23"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="23"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="52"/>
-      <c r="L126" s="52"/>
-      <c r="M126" s="52"/>
-      <c r="N126" s="52"/>
-      <c r="O126" s="52"/>
-      <c r="P126" s="52"/>
-      <c r="Q126" s="9"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B127" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C127" s="17">
-        <v>3</v>
-      </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="47"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="46"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="46"/>
-      <c r="Q127" s="51"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B128" s="86"/>
-      <c r="C128" s="17">
-        <v>4</v>
-      </c>
-      <c r="D128" s="19"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="55"/>
-      <c r="K128" s="46"/>
-      <c r="L128" s="46"/>
-      <c r="M128" s="46"/>
-      <c r="N128" s="46"/>
-      <c r="O128" s="46"/>
-      <c r="P128" s="46"/>
-      <c r="Q128" s="51"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B129" s="86"/>
-      <c r="C129" s="17">
-        <v>5</v>
-      </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="55"/>
-      <c r="K129" s="46"/>
-      <c r="L129" s="46"/>
-      <c r="M129" s="46"/>
-      <c r="N129" s="46"/>
-      <c r="O129" s="46"/>
-      <c r="P129" s="46"/>
-      <c r="Q129" s="51"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B130" s="86"/>
-      <c r="C130" s="17">
-        <v>6</v>
-      </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="55"/>
-      <c r="K130" s="46"/>
-      <c r="L130" s="46"/>
-      <c r="M130" s="46"/>
-      <c r="N130" s="46"/>
-      <c r="O130" s="46"/>
-      <c r="P130" s="46"/>
-      <c r="Q130" s="51"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B131" s="87"/>
-      <c r="C131" s="10">
-        <v>7</v>
-      </c>
-      <c r="D131" s="23"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="52"/>
-      <c r="L131" s="52"/>
-      <c r="M131" s="52"/>
-      <c r="N131" s="52"/>
-      <c r="O131" s="52"/>
-      <c r="P131" s="52"/>
-      <c r="Q131" s="9"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="29">
+        <v>590</v>
+      </c>
+      <c r="F121" s="52">
+        <v>0.97105799999999998</v>
+      </c>
+      <c r="G121" s="52">
+        <v>0.96774700000000002</v>
+      </c>
+      <c r="H121" s="83">
+        <v>0.9639373</v>
+      </c>
+      <c r="I121" s="23"/>
+      <c r="J121" s="11">
+        <v>0.52873352900000004</v>
+      </c>
+      <c r="K121" s="52">
+        <v>1.7873792699999998E-2</v>
+      </c>
+      <c r="L121" s="52">
+        <v>3.6798176199999998E-2</v>
+      </c>
+      <c r="M121" s="52">
+        <v>0.13252757300000001</v>
+      </c>
+      <c r="N121" s="52">
+        <v>5.9912772600000004E-3</v>
+      </c>
+      <c r="O121" s="52">
+        <v>2.9529654299999999E-2</v>
+      </c>
+      <c r="P121" s="52">
+        <v>5.6303968599999997E-5</v>
+      </c>
+      <c r="Q121" s="9">
+        <v>0.24848969400000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="29">
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="J96:Q96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B87"/>
     <mergeCell ref="J67:R67"/>
     <mergeCell ref="B54:B58"/>
     <mergeCell ref="B59:B63"/>
@@ -5869,21 +6550,6 @@
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B112:B116"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5895,8 +6561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC141"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5912,7 +6578,7 @@
   <sheetData>
     <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1">
         <v>20000000</v>
@@ -5922,11 +6588,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -5944,61 +6610,61 @@
         <v>7</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="M4" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="O4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="48" t="s">
-        <v>11</v>
-      </c>
       <c r="P4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="R4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="S4" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="T4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="48" t="s">
-        <v>31</v>
-      </c>
       <c r="U4" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="W4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="X4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="Y4" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Z4" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="AA4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AB4" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="AB4" s="50" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -6006,31 +6672,31 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="97"/>
+      <c r="J5" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="111"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="86" t="s">
-        <v>22</v>
+      <c r="B6" s="93" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="17">
         <v>3</v>
@@ -6106,7 +6772,7 @@
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="86"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="17">
         <v>4</v>
       </c>
@@ -6181,7 +6847,7 @@
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="17">
         <v>5</v>
       </c>
@@ -6256,7 +6922,7 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="86"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="17">
         <v>6</v>
       </c>
@@ -6331,7 +6997,7 @@
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10">
         <v>7</v>
       </c>
@@ -6347,7 +7013,7 @@
         <v>0.88324329999999995</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="61">
         <v>0.59125000000000005</v>
@@ -6411,11 +7077,11 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="48" t="s">
         <v>2</v>
       </c>
@@ -6430,62 +7096,62 @@
         <v>7</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="L13" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="N13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="48" t="s">
-        <v>11</v>
-      </c>
       <c r="O13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="48" t="s">
+      <c r="Q13" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="48" t="s">
+      <c r="R13" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="48" t="s">
+      <c r="S13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="48" t="s">
-        <v>31</v>
-      </c>
       <c r="T13" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="48" t="s">
+      <c r="V13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="48" t="s">
+      <c r="W13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="48" t="s">
+      <c r="X13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="48" t="s">
+      <c r="Y13" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Y13" s="48" t="s">
+      <c r="Z13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="48" t="s">
+      <c r="AA13" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="AA13" s="50" t="s">
-        <v>42</v>
       </c>
       <c r="AC13"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
       <c r="C14" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="36"/>
@@ -6493,30 +7159,30 @@
       <c r="G14" s="56"/>
       <c r="H14" s="57"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="97"/>
+      <c r="J14" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="111"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B15" s="86" t="s">
-        <v>22</v>
+      <c r="B15" s="93" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="17">
         <v>3</v>
@@ -6587,7 +7253,7 @@
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B16" s="86"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="17">
         <v>4</v>
       </c>
@@ -6657,7 +7323,7 @@
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B17" s="86"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="17">
         <v>5</v>
       </c>
@@ -6729,7 +7395,7 @@
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B18" s="86"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="17">
         <v>6</v>
       </c>
@@ -6801,7 +7467,7 @@
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B19" s="87"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="10">
         <v>7</v>
       </c>
@@ -6876,11 +7542,11 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="48" t="s">
         <v>2</v>
       </c>
@@ -6895,59 +7561,59 @@
         <v>7</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="L22" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="N22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="48" t="s">
-        <v>11</v>
-      </c>
       <c r="O22" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="48" t="s">
+      <c r="Q22" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q22" s="48" t="s">
+      <c r="R22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="48" t="s">
-        <v>31</v>
-      </c>
       <c r="S22" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="48" t="s">
+      <c r="U22" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="48" t="s">
+      <c r="V22" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="V22" s="48" t="s">
+      <c r="W22" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="W22" s="48" t="s">
+      <c r="X22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="X22" s="48" t="s">
+      <c r="Y22" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="Y22" s="48" t="s">
+      <c r="Z22" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="Z22" s="50" t="s">
-        <v>42</v>
       </c>
       <c r="AC22"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="28"/>
@@ -6955,29 +7621,29 @@
       <c r="G23" s="46"/>
       <c r="H23" s="47"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="100"/>
+      <c r="J23" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="91"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="86" t="s">
-        <v>14</v>
+      <c r="B24" s="93" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="17">
         <v>3</v>
@@ -7045,7 +7711,7 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B25" s="86"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="17">
         <v>4</v>
       </c>
@@ -7112,7 +7778,7 @@
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B26" s="86"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="17">
         <v>5</v>
       </c>
@@ -7179,7 +7845,7 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B27" s="86"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="17">
         <v>6</v>
       </c>
@@ -7248,7 +7914,7 @@
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B28" s="86"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="17">
         <v>7</v>
       </c>
@@ -7319,41 +7985,41 @@
     <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="70"/>
       <c r="C29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>55</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>56</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
       <c r="H29" s="57"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="83" t="s">
+      <c r="J29" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="114"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B30" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="85"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="88">
+      <c r="C30" s="106">
         <v>3</v>
       </c>
       <c r="D30" s="19">
@@ -7421,8 +8087,8 @@
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="86"/>
-      <c r="C31" s="88"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="19">
         <v>70</v>
       </c>
@@ -7488,8 +8154,8 @@
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="86"/>
-      <c r="C32" s="88"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="19">
         <v>100</v>
       </c>
@@ -7555,8 +8221,8 @@
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B33" s="86"/>
-      <c r="C33" s="88">
+      <c r="B33" s="93"/>
+      <c r="C33" s="106">
         <v>4</v>
       </c>
       <c r="D33" s="19">
@@ -7624,8 +8290,8 @@
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="19">
         <v>70</v>
       </c>
@@ -7691,8 +8357,8 @@
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="86"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="19">
         <v>100</v>
       </c>
@@ -7758,8 +8424,8 @@
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="86"/>
-      <c r="C36" s="88">
+      <c r="B36" s="93"/>
+      <c r="C36" s="106">
         <v>5</v>
       </c>
       <c r="D36" s="19">
@@ -7829,8 +8495,8 @@
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="19">
         <v>70</v>
       </c>
@@ -7898,8 +8564,8 @@
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="86"/>
-      <c r="C38" s="88"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="19">
         <v>100</v>
       </c>
@@ -7967,8 +8633,8 @@
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="86"/>
-      <c r="C39" s="88">
+      <c r="B39" s="93"/>
+      <c r="C39" s="106">
         <v>6</v>
       </c>
       <c r="D39" s="19">
@@ -8038,8 +8704,8 @@
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="86"/>
-      <c r="C40" s="88"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="106"/>
       <c r="D40" s="19">
         <v>70</v>
       </c>
@@ -8107,8 +8773,8 @@
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="86"/>
-      <c r="C41" s="88"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="19">
         <v>100</v>
       </c>
@@ -8176,8 +8842,8 @@
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="86"/>
-      <c r="C42" s="88">
+      <c r="B42" s="93"/>
+      <c r="C42" s="106">
         <v>7</v>
       </c>
       <c r="D42" s="19">
@@ -8247,8 +8913,8 @@
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="86"/>
-      <c r="C43" s="88"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="19">
         <v>70</v>
       </c>
@@ -8316,8 +8982,8 @@
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="87"/>
-      <c r="C44" s="89"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="107"/>
       <c r="D44" s="23">
         <v>100</v>
       </c>
@@ -8387,46 +9053,46 @@
     <row r="45" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B45" s="70"/>
       <c r="C45" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="56"/>
       <c r="G45" s="56"/>
       <c r="H45" s="57"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
-      <c r="V45" s="84"/>
-      <c r="W45" s="84"/>
-      <c r="X45" s="84"/>
-      <c r="Y45" s="84"/>
-      <c r="Z45" s="85"/>
+      <c r="J45" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="114"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B46" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="88">
+      <c r="B46" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="106">
         <v>5</v>
       </c>
-      <c r="D46" s="93">
+      <c r="D46" s="105">
         <v>1E-3</v>
       </c>
       <c r="E46" s="28">
@@ -8493,9 +9159,9 @@
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="86"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="93"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="105"/>
       <c r="E47" s="28">
         <v>70</v>
       </c>
@@ -8560,9 +9226,9 @@
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B48" s="86"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="93">
+      <c r="B48" s="93"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="105">
         <v>0.01</v>
       </c>
       <c r="E48" s="28">
@@ -8631,9 +9297,9 @@
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B49" s="86"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="93"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="28">
         <v>70</v>
       </c>
@@ -8700,9 +9366,9 @@
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B50" s="86"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="93">
+      <c r="B50" s="93"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="105">
         <v>0.1</v>
       </c>
       <c r="E50" s="28">
@@ -8769,9 +9435,9 @@
       </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="86"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="93"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="28">
         <v>70</v>
       </c>
@@ -8836,11 +9502,11 @@
       </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B52" s="86"/>
-      <c r="C52" s="88">
+      <c r="B52" s="93"/>
+      <c r="C52" s="106">
         <v>6</v>
       </c>
-      <c r="D52" s="93">
+      <c r="D52" s="105">
         <v>1E-3</v>
       </c>
       <c r="E52" s="28">
@@ -8909,9 +9575,9 @@
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="93"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="105"/>
       <c r="E53" s="28">
         <v>70</v>
       </c>
@@ -8978,9 +9644,9 @@
       </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="93">
+      <c r="B54" s="93"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="105">
         <v>0.01</v>
       </c>
       <c r="E54" s="28">
@@ -9049,9 +9715,9 @@
       </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="86"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="93"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="28">
         <v>70</v>
       </c>
@@ -9118,9 +9784,9 @@
       </c>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B56" s="86"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="93">
+      <c r="B56" s="93"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="105">
         <v>0.1</v>
       </c>
       <c r="E56" s="28">
@@ -9187,9 +9853,9 @@
       </c>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="86"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="93"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="105"/>
       <c r="E57" s="28">
         <v>70</v>
       </c>
@@ -9254,11 +9920,11 @@
       </c>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B58" s="86"/>
-      <c r="C58" s="88">
+      <c r="B58" s="93"/>
+      <c r="C58" s="106">
         <v>7</v>
       </c>
-      <c r="D58" s="93">
+      <c r="D58" s="105">
         <v>1E-3</v>
       </c>
       <c r="E58" s="28">
@@ -9327,9 +9993,9 @@
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B59" s="86"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="93"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="105"/>
       <c r="E59" s="28">
         <v>70</v>
       </c>
@@ -9396,9 +10062,9 @@
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="86"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="93">
+      <c r="B60" s="93"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="105">
         <v>0.01</v>
       </c>
       <c r="E60" s="28">
@@ -9467,9 +10133,9 @@
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B61" s="86"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="93"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="105"/>
       <c r="E61" s="28">
         <v>70</v>
       </c>
@@ -9536,9 +10202,9 @@
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="86"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="93">
+      <c r="B62" s="93"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="105">
         <v>0.1</v>
       </c>
       <c r="E62" s="28">
@@ -9605,9 +10271,9 @@
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="87"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="94"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="108"/>
       <c r="E63" s="29">
         <v>70</v>
       </c>
@@ -9675,11 +10341,11 @@
       <c r="B66" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="81"/>
-      <c r="E66" s="82"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="98"/>
       <c r="F66" s="48" t="s">
         <v>2</v>
       </c>
@@ -9694,40 +10360,40 @@
         <v>7</v>
       </c>
       <c r="K66" s="48" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="L66" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M66" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M66" s="48" t="s">
-        <v>10</v>
-      </c>
       <c r="N66" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O66" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="O66" s="48" t="s">
+      <c r="P66" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="P66" s="48" t="s">
+      <c r="Q66" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="48" t="s">
-        <v>31</v>
-      </c>
       <c r="R66" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="S66" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="S66" s="48" t="s">
-        <v>37</v>
-      </c>
       <c r="T66" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="U66" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="U66" s="48" t="s">
-        <v>40</v>
-      </c>
       <c r="V66" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z66"/>
       <c r="AA66"/>
@@ -9737,7 +10403,7 @@
     <row r="67" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B67" s="33"/>
       <c r="C67" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="36"/>
@@ -9745,29 +10411,29 @@
       <c r="G67" s="56"/>
       <c r="H67" s="57"/>
       <c r="I67" s="35"/>
-      <c r="J67" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="84"/>
-      <c r="S67" s="84"/>
-      <c r="T67" s="84"/>
-      <c r="U67" s="84"/>
-      <c r="V67" s="85"/>
+      <c r="J67" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
+      <c r="O67" s="113"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
+      <c r="S67" s="113"/>
+      <c r="T67" s="113"/>
+      <c r="U67" s="113"/>
+      <c r="V67" s="114"/>
       <c r="W67"/>
       <c r="X67"/>
       <c r="Y67"/>
       <c r="Z67"/>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B68" s="86" t="s">
-        <v>14</v>
+      <c r="B68" s="93" t="s">
+        <v>13</v>
       </c>
       <c r="C68" s="17">
         <v>3</v>
@@ -9827,7 +10493,7 @@
       <c r="Z68"/>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B69" s="86"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="17">
         <v>4</v>
       </c>
@@ -9882,7 +10548,7 @@
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B70" s="86"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="17">
         <v>5</v>
       </c>
@@ -9937,7 +10603,7 @@
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B71" s="86"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="17">
         <v>6</v>
       </c>
@@ -9994,7 +10660,7 @@
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B72" s="87"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="10">
         <v>7</v>
       </c>
@@ -10053,48 +10719,48 @@
     <row r="73" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B73" s="70"/>
       <c r="C73" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E73" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F73" s="56"/>
       <c r="G73" s="56"/>
       <c r="H73" s="57"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
-      <c r="U73" s="84"/>
-      <c r="V73" s="85"/>
+      <c r="J73" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="K73" s="113"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="113"/>
+      <c r="Q73" s="113"/>
+      <c r="R73" s="113"/>
+      <c r="S73" s="113"/>
+      <c r="T73" s="113"/>
+      <c r="U73" s="113"/>
+      <c r="V73" s="114"/>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B74" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="88">
+      <c r="B74" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="106">
         <v>5</v>
       </c>
-      <c r="D74" s="93">
+      <c r="D74" s="105">
         <v>1E-3</v>
       </c>
       <c r="E74" s="28">
         <v>50</v>
       </c>
-      <c r="F74" s="112">
+      <c r="F74" s="80">
         <v>0.93466000000000005</v>
       </c>
       <c r="G74" s="46">
@@ -10143,9 +10809,9 @@
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B75" s="86"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="93"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="105"/>
       <c r="E75" s="28">
         <v>70</v>
       </c>
@@ -10198,9 +10864,9 @@
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B76" s="86"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="93">
+      <c r="B76" s="93"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="105">
         <v>0.01</v>
       </c>
       <c r="E76" s="28">
@@ -10257,9 +10923,9 @@
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B77" s="86"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="93"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="105"/>
       <c r="E77" s="28">
         <v>70</v>
       </c>
@@ -10314,9 +10980,9 @@
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B78" s="86"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="93">
+      <c r="B78" s="93"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="105">
         <v>0.1</v>
       </c>
       <c r="E78" s="28">
@@ -10371,9 +11037,9 @@
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B79" s="86"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="93"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="105"/>
       <c r="E79" s="28">
         <v>70</v>
       </c>
@@ -10426,11 +11092,11 @@
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
-      <c r="C80" s="88">
+      <c r="B80" s="93"/>
+      <c r="C80" s="106">
         <v>6</v>
       </c>
-      <c r="D80" s="93">
+      <c r="D80" s="105">
         <v>1E-3</v>
       </c>
       <c r="E80" s="28">
@@ -10487,9 +11153,9 @@
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B81" s="86"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="93"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="105"/>
       <c r="E81" s="28">
         <v>70</v>
       </c>
@@ -10544,9 +11210,9 @@
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B82" s="86"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="93">
+      <c r="B82" s="93"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="105">
         <v>0.01</v>
       </c>
       <c r="E82" s="28">
@@ -10603,9 +11269,9 @@
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B83" s="86"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="93"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="105"/>
       <c r="E83" s="28">
         <v>70</v>
       </c>
@@ -10660,9 +11326,9 @@
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B84" s="86"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="93">
+      <c r="B84" s="93"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="105">
         <v>0.1</v>
       </c>
       <c r="E84" s="28">
@@ -10717,9 +11383,9 @@
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B85" s="86"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="93"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="105"/>
       <c r="E85" s="28">
         <v>70</v>
       </c>
@@ -10772,11 +11438,11 @@
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B86" s="86"/>
-      <c r="C86" s="88">
+      <c r="B86" s="93"/>
+      <c r="C86" s="106">
         <v>7</v>
       </c>
-      <c r="D86" s="93">
+      <c r="D86" s="105">
         <v>1E-3</v>
       </c>
       <c r="E86" s="28">
@@ -10833,9 +11499,9 @@
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B87" s="86"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="93"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="105"/>
       <c r="E87" s="28">
         <v>70</v>
       </c>
@@ -10890,9 +11556,9 @@
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B88" s="86"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="93">
+      <c r="B88" s="93"/>
+      <c r="C88" s="106"/>
+      <c r="D88" s="105">
         <v>0.01</v>
       </c>
       <c r="E88" s="28">
@@ -10949,9 +11615,9 @@
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B89" s="86"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="93"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="106"/>
+      <c r="D89" s="105"/>
       <c r="E89" s="28">
         <v>70</v>
       </c>
@@ -11006,9 +11672,9 @@
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B90" s="86"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="93">
+      <c r="B90" s="93"/>
+      <c r="C90" s="106"/>
+      <c r="D90" s="105">
         <v>0.1</v>
       </c>
       <c r="E90" s="28">
@@ -11063,9 +11729,9 @@
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B91" s="87"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="94"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="108"/>
       <c r="E91" s="29">
         <v>70</v>
       </c>
@@ -11127,11 +11793,11 @@
       <c r="B94" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="101" t="s">
+      <c r="C94" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="102"/>
-      <c r="E94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="104"/>
       <c r="F94" s="76" t="s">
         <v>2</v>
       </c>
@@ -11146,28 +11812,28 @@
         <v>7</v>
       </c>
       <c r="K94" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="48" t="s">
-        <v>11</v>
-      </c>
       <c r="M94" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N94" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="N94" s="48" t="s">
+      <c r="O94" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O94" s="48" t="s">
+      <c r="P94" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P94" s="48" t="s">
-        <v>31</v>
-      </c>
       <c r="Q94" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R94" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V94"/>
       <c r="W94"/>
@@ -11181,7 +11847,7 @@
     <row r="95" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B95" s="33"/>
       <c r="C95" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="36"/>
@@ -11189,21 +11855,21 @@
       <c r="G95" s="56"/>
       <c r="H95" s="57"/>
       <c r="I95" s="35"/>
-      <c r="J95" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
-      <c r="N95" s="84"/>
-      <c r="O95" s="84"/>
-      <c r="P95" s="84"/>
-      <c r="Q95" s="84"/>
-      <c r="R95" s="85"/>
+      <c r="J95" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="K95" s="113"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="113"/>
+      <c r="N95" s="113"/>
+      <c r="O95" s="113"/>
+      <c r="P95" s="113"/>
+      <c r="Q95" s="113"/>
+      <c r="R95" s="114"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B96" s="86" t="s">
-        <v>22</v>
+      <c r="B96" s="93" t="s">
+        <v>21</v>
       </c>
       <c r="C96" s="17">
         <v>3</v>
@@ -11250,7 +11916,7 @@
       <c r="AC96"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B97" s="86"/>
+      <c r="B97" s="93"/>
       <c r="C97" s="17">
         <v>4</v>
       </c>
@@ -11293,7 +11959,7 @@
       </c>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B98" s="86"/>
+      <c r="B98" s="93"/>
       <c r="C98" s="17">
         <v>5</v>
       </c>
@@ -11336,7 +12002,7 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B99" s="86"/>
+      <c r="B99" s="93"/>
       <c r="C99" s="17">
         <v>6</v>
       </c>
@@ -11381,7 +12047,7 @@
       </c>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B100" s="87"/>
+      <c r="B100" s="94"/>
       <c r="C100" s="10">
         <v>7</v>
       </c>
@@ -11428,33 +12094,33 @@
     <row r="101" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B101" s="70"/>
       <c r="C101" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" s="39" t="s">
         <v>55</v>
-      </c>
-      <c r="D101" s="39" t="s">
-        <v>56</v>
       </c>
       <c r="E101" s="36"/>
       <c r="F101" s="56"/>
       <c r="G101" s="56"/>
       <c r="H101" s="57"/>
       <c r="I101" s="35"/>
-      <c r="J101" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="K101" s="84"/>
-      <c r="L101" s="84"/>
-      <c r="M101" s="84"/>
-      <c r="N101" s="84"/>
-      <c r="O101" s="84"/>
-      <c r="P101" s="84"/>
-      <c r="Q101" s="84"/>
-      <c r="R101" s="85"/>
+      <c r="J101" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="K101" s="113"/>
+      <c r="L101" s="113"/>
+      <c r="M101" s="113"/>
+      <c r="N101" s="113"/>
+      <c r="O101" s="113"/>
+      <c r="P101" s="113"/>
+      <c r="Q101" s="113"/>
+      <c r="R101" s="114"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B102" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" s="88">
+      <c r="B102" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="106">
         <v>3</v>
       </c>
       <c r="D102" s="19">
@@ -11467,7 +12133,9 @@
       <c r="G102" s="46">
         <v>0.95238999999999996</v>
       </c>
-      <c r="H102" s="47"/>
+      <c r="H102" s="47">
+        <v>0.94537629999999995</v>
+      </c>
       <c r="I102" s="19"/>
       <c r="J102" s="55">
         <v>0.31234965999999997</v>
@@ -11498,8 +12166,8 @@
       </c>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B103" s="86"/>
-      <c r="C103" s="88"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="106"/>
       <c r="D103" s="19">
         <v>70</v>
       </c>
@@ -11510,7 +12178,9 @@
       <c r="G103" s="46">
         <v>0.95576000000000005</v>
       </c>
-      <c r="H103" s="47"/>
+      <c r="H103" s="47">
+        <v>0.94897529999999997</v>
+      </c>
       <c r="I103" s="19"/>
       <c r="J103" s="55">
         <v>0.28851164299999998</v>
@@ -11541,8 +12211,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B104" s="86"/>
-      <c r="C104" s="88"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="106"/>
       <c r="D104" s="19">
         <v>100</v>
       </c>
@@ -11553,7 +12223,9 @@
       <c r="G104" s="46">
         <v>0.94879000000000002</v>
       </c>
-      <c r="H104" s="47"/>
+      <c r="H104" s="47">
+        <v>0.93776389999999998</v>
+      </c>
       <c r="I104" s="19"/>
       <c r="J104" s="55">
         <v>0.27325094999999999</v>
@@ -11584,8 +12256,8 @@
       </c>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B105" s="86"/>
-      <c r="C105" s="88">
+      <c r="B105" s="93"/>
+      <c r="C105" s="106">
         <v>4</v>
       </c>
       <c r="D105" s="19">
@@ -11598,7 +12270,9 @@
       <c r="G105" s="46">
         <v>0.96160999999999996</v>
       </c>
-      <c r="H105" s="47"/>
+      <c r="H105" s="47">
+        <v>0.95396040000000004</v>
+      </c>
       <c r="I105" s="19"/>
       <c r="J105" s="55">
         <v>0.26022300599999998</v>
@@ -11629,8 +12303,8 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B106" s="86"/>
-      <c r="C106" s="88"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="106"/>
       <c r="D106" s="19">
         <v>70</v>
       </c>
@@ -11641,7 +12315,9 @@
       <c r="G106" s="46">
         <v>0.96342000000000005</v>
       </c>
-      <c r="H106" s="47"/>
+      <c r="H106" s="47">
+        <v>0.95609230000000001</v>
+      </c>
       <c r="I106" s="19"/>
       <c r="J106" s="55">
         <v>0.276525568</v>
@@ -11672,8 +12348,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B107" s="86"/>
-      <c r="C107" s="88"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="106"/>
       <c r="D107" s="19">
         <v>100</v>
       </c>
@@ -11684,7 +12360,9 @@
       <c r="G107" s="46">
         <v>0.95794000000000001</v>
       </c>
-      <c r="H107" s="47"/>
+      <c r="H107" s="47">
+        <v>0.95157239999999998</v>
+      </c>
       <c r="I107" s="19"/>
       <c r="J107" s="55">
         <v>0.26454332600000002</v>
@@ -11715,8 +12393,8 @@
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B108" s="86"/>
-      <c r="C108" s="88">
+      <c r="B108" s="93"/>
+      <c r="C108" s="106">
         <v>5</v>
       </c>
       <c r="D108" s="19">
@@ -11729,7 +12407,9 @@
       <c r="G108" s="46">
         <v>0.96375</v>
       </c>
-      <c r="H108" s="47"/>
+      <c r="H108" s="47">
+        <v>0.95643080000000003</v>
+      </c>
       <c r="I108" s="19"/>
       <c r="J108" s="55">
         <v>0.30820769999999997</v>
@@ -11760,8 +12440,8 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B109" s="86"/>
-      <c r="C109" s="88"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="106"/>
       <c r="D109" s="19">
         <v>70</v>
       </c>
@@ -11772,7 +12452,9 @@
       <c r="G109" s="46">
         <v>0.96311999999999998</v>
       </c>
-      <c r="H109" s="47"/>
+      <c r="H109" s="47">
+        <v>0.95681139999999998</v>
+      </c>
       <c r="I109" s="19"/>
       <c r="J109" s="55">
         <v>0.27826852000000002</v>
@@ -11803,8 +12485,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B110" s="86"/>
-      <c r="C110" s="88"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="106"/>
       <c r="D110" s="19">
         <v>100</v>
       </c>
@@ -11815,7 +12497,9 @@
       <c r="G110" s="46">
         <v>0.96209</v>
       </c>
-      <c r="H110" s="47"/>
+      <c r="H110" s="47">
+        <v>0.95581559999999999</v>
+      </c>
       <c r="I110" s="19"/>
       <c r="J110" s="55">
         <v>0.27812123</v>
@@ -11846,8 +12530,8 @@
       </c>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B111" s="86"/>
-      <c r="C111" s="88">
+      <c r="B111" s="93"/>
+      <c r="C111" s="106">
         <v>6</v>
       </c>
       <c r="D111" s="19">
@@ -11860,7 +12544,9 @@
       <c r="G111" s="46">
         <v>0.96231999999999995</v>
       </c>
-      <c r="H111" s="47"/>
+      <c r="H111" s="47">
+        <v>0.95659720000000004</v>
+      </c>
       <c r="I111" s="19"/>
       <c r="J111" s="55">
         <v>0.25879442000000002</v>
@@ -11891,8 +12577,8 @@
       </c>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="86"/>
-      <c r="C112" s="88"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="106"/>
       <c r="D112" s="19">
         <v>70</v>
       </c>
@@ -11903,7 +12589,9 @@
       <c r="G112" s="46">
         <v>0.96413000000000004</v>
       </c>
-      <c r="H112" s="47"/>
+      <c r="H112" s="47">
+        <v>0.95752170000000003</v>
+      </c>
       <c r="I112" s="19"/>
       <c r="J112" s="55">
         <v>0.25718999999999997</v>
@@ -11934,8 +12622,8 @@
       </c>
     </row>
     <row r="113" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B113" s="86"/>
-      <c r="C113" s="88"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="106"/>
       <c r="D113" s="19">
         <v>100</v>
       </c>
@@ -11946,7 +12634,9 @@
       <c r="G113" s="46">
         <v>0.96419999999999995</v>
       </c>
-      <c r="H113" s="47"/>
+      <c r="H113" s="47">
+        <v>0.95775600000000005</v>
+      </c>
       <c r="I113" s="19"/>
       <c r="J113" s="55">
         <v>0.27207582000000002</v>
@@ -11977,8 +12667,8 @@
       </c>
     </row>
     <row r="114" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B114" s="86"/>
-      <c r="C114" s="88">
+      <c r="B114" s="93"/>
+      <c r="C114" s="106">
         <v>7</v>
       </c>
       <c r="D114" s="19">
@@ -11991,7 +12681,9 @@
       <c r="G114" s="46">
         <v>0.96643999999999997</v>
       </c>
-      <c r="H114" s="47"/>
+      <c r="H114" s="47">
+        <v>0.96010220000000002</v>
+      </c>
       <c r="I114" s="19"/>
       <c r="J114" s="55">
         <v>0.30305936999999999</v>
@@ -12022,8 +12714,8 @@
       </c>
     </row>
     <row r="115" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B115" s="86"/>
-      <c r="C115" s="88"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="106"/>
       <c r="D115" s="19">
         <v>70</v>
       </c>
@@ -12034,7 +12726,9 @@
       <c r="G115" s="46">
         <v>0.96538000000000002</v>
       </c>
-      <c r="H115" s="47"/>
+      <c r="H115" s="47">
+        <v>0.95872740000000001</v>
+      </c>
       <c r="I115" s="19"/>
       <c r="J115" s="55">
         <v>0.25783232</v>
@@ -12065,8 +12759,8 @@
       </c>
     </row>
     <row r="116" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B116" s="87"/>
-      <c r="C116" s="89"/>
+      <c r="B116" s="94"/>
+      <c r="C116" s="107"/>
       <c r="D116" s="23">
         <v>100</v>
       </c>
@@ -12077,7 +12771,9 @@
       <c r="G116" s="52">
         <v>0.96577999999999997</v>
       </c>
-      <c r="H116" s="53"/>
+      <c r="H116" s="53">
+        <v>0.95914770000000005</v>
+      </c>
       <c r="I116" s="23"/>
       <c r="J116" s="11">
         <v>0.26736755000000001</v>
@@ -12111,11 +12807,11 @@
       <c r="B119" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C119" s="80" t="s">
+      <c r="C119" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="81"/>
-      <c r="E119" s="82"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="98"/>
       <c r="F119" s="48" t="s">
         <v>2</v>
       </c>
@@ -12133,22 +12829,22 @@
         <v>8</v>
       </c>
       <c r="L119" s="48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M119" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N119" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O119" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P119" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q119" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S119"/>
       <c r="T119"/>
@@ -12165,7 +12861,7 @@
     <row r="120" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B120" s="33"/>
       <c r="C120" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="36"/>
@@ -12173,16 +12869,16 @@
       <c r="G120" s="56"/>
       <c r="H120" s="57"/>
       <c r="I120" s="35"/>
-      <c r="J120" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="K120" s="91"/>
-      <c r="L120" s="91"/>
-      <c r="M120" s="91"/>
-      <c r="N120" s="91"/>
-      <c r="O120" s="91"/>
-      <c r="P120" s="91"/>
-      <c r="Q120" s="92"/>
+      <c r="J120" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" s="116"/>
+      <c r="L120" s="116"/>
+      <c r="M120" s="116"/>
+      <c r="N120" s="116"/>
+      <c r="O120" s="116"/>
+      <c r="P120" s="116"/>
+      <c r="Q120" s="117"/>
       <c r="R120"/>
       <c r="S120"/>
       <c r="T120"/>
@@ -12196,8 +12892,8 @@
       <c r="AB120"/>
     </row>
     <row r="121" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B121" s="86" t="s">
-        <v>22</v>
+      <c r="B121" s="93" t="s">
+        <v>21</v>
       </c>
       <c r="C121" s="17">
         <v>3</v>
@@ -12238,7 +12934,7 @@
       </c>
     </row>
     <row r="122" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B122" s="86"/>
+      <c r="B122" s="93"/>
       <c r="C122" s="17">
         <v>4</v>
       </c>
@@ -12278,7 +12974,7 @@
       </c>
     </row>
     <row r="123" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B123" s="86"/>
+      <c r="B123" s="93"/>
       <c r="C123" s="17">
         <v>5</v>
       </c>
@@ -12318,7 +13014,7 @@
       </c>
     </row>
     <row r="124" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B124" s="86"/>
+      <c r="B124" s="93"/>
       <c r="C124" s="17">
         <v>6</v>
       </c>
@@ -12330,7 +13026,9 @@
       <c r="G124" s="46">
         <v>0.93642999999999998</v>
       </c>
-      <c r="H124" s="47"/>
+      <c r="H124" s="47">
+        <v>0.91655750000000002</v>
+      </c>
       <c r="I124" s="19"/>
       <c r="J124" s="55">
         <v>0.34614795999999998</v>
@@ -12358,7 +13056,7 @@
       </c>
     </row>
     <row r="125" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B125" s="87"/>
+      <c r="B125" s="94"/>
       <c r="C125" s="10">
         <v>7</v>
       </c>
@@ -12370,7 +13068,9 @@
       <c r="G125" s="52">
         <v>0.95718000000000003</v>
       </c>
-      <c r="H125" s="53"/>
+      <c r="H125" s="53">
+        <v>0.94547959999999998</v>
+      </c>
       <c r="I125" s="23"/>
       <c r="J125" s="11">
         <v>0.337917103</v>
@@ -12400,10 +13100,10 @@
     <row r="126" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B126" s="71"/>
       <c r="C126" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="46"/>
@@ -12420,10 +13120,10 @@
       <c r="Q126" s="51"/>
     </row>
     <row r="127" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B127" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C127" s="88">
+      <c r="B127" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="106">
         <v>3</v>
       </c>
       <c r="D127" s="19">
@@ -12436,7 +13136,9 @@
       <c r="G127" s="46">
         <v>0.9546</v>
       </c>
-      <c r="H127" s="47"/>
+      <c r="H127" s="47">
+        <v>0.94777639999999996</v>
+      </c>
       <c r="I127" s="19"/>
       <c r="J127" s="55">
         <v>0.24350266000000001</v>
@@ -12464,8 +13166,8 @@
       </c>
     </row>
     <row r="128" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B128" s="86"/>
-      <c r="C128" s="88"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="106"/>
       <c r="D128" s="19">
         <v>70</v>
       </c>
@@ -12476,7 +13178,9 @@
       <c r="G128" s="46">
         <v>0.95147000000000004</v>
       </c>
-      <c r="H128" s="47"/>
+      <c r="H128" s="47">
+        <v>0.944079</v>
+      </c>
       <c r="I128" s="19"/>
       <c r="J128" s="55">
         <v>0.26760068999999997</v>
@@ -12504,8 +13208,8 @@
       </c>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B129" s="86"/>
-      <c r="C129" s="88"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="106"/>
       <c r="D129" s="19">
         <v>100</v>
       </c>
@@ -12516,7 +13220,9 @@
       <c r="G129" s="46">
         <v>0.95967999999999998</v>
       </c>
-      <c r="H129" s="47"/>
+      <c r="H129" s="47">
+        <v>0.95282149999999999</v>
+      </c>
       <c r="I129" s="19"/>
       <c r="J129" s="55">
         <v>0.26264282999999999</v>
@@ -12544,8 +13250,8 @@
       </c>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B130" s="86"/>
-      <c r="C130" s="88">
+      <c r="B130" s="93"/>
+      <c r="C130" s="106">
         <v>4</v>
       </c>
       <c r="D130" s="19">
@@ -12558,7 +13264,9 @@
       <c r="G130" s="46">
         <v>0.95691000000000004</v>
       </c>
-      <c r="H130" s="47"/>
+      <c r="H130" s="47">
+        <v>0.95111579999999996</v>
+      </c>
       <c r="I130" s="19"/>
       <c r="J130" s="55">
         <v>0.27644911999999999</v>
@@ -12586,8 +13294,8 @@
       </c>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B131" s="86"/>
-      <c r="C131" s="88"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="106"/>
       <c r="D131" s="19">
         <v>70</v>
       </c>
@@ -12598,7 +13306,9 @@
       <c r="G131" s="46">
         <v>0.95604</v>
       </c>
-      <c r="H131" s="47"/>
+      <c r="H131" s="47">
+        <v>0.95012940000000001</v>
+      </c>
       <c r="I131" s="19"/>
       <c r="J131" s="55">
         <v>0.24867420000000001</v>
@@ -12626,8 +13336,8 @@
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B132" s="86"/>
-      <c r="C132" s="88"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="106"/>
       <c r="D132" s="19">
         <v>100</v>
       </c>
@@ -12638,7 +13348,9 @@
       <c r="G132" s="46">
         <v>0.95750999999999997</v>
       </c>
-      <c r="H132" s="47"/>
+      <c r="H132" s="47">
+        <v>0.95121060000000002</v>
+      </c>
       <c r="I132" s="19"/>
       <c r="J132" s="55">
         <v>0.24474697000000001</v>
@@ -12666,8 +13378,8 @@
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B133" s="86"/>
-      <c r="C133" s="88">
+      <c r="B133" s="93"/>
+      <c r="C133" s="106">
         <v>5</v>
       </c>
       <c r="D133" s="19">
@@ -12680,7 +13392,9 @@
       <c r="G133" s="46">
         <v>0.95928000000000002</v>
       </c>
-      <c r="H133" s="47"/>
+      <c r="H133" s="47">
+        <v>0.9532718</v>
+      </c>
       <c r="I133" s="19"/>
       <c r="J133" s="55">
         <v>0.25695955999999998</v>
@@ -12708,8 +13422,8 @@
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B134" s="86"/>
-      <c r="C134" s="88"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="106"/>
       <c r="D134" s="19">
         <v>70</v>
       </c>
@@ -12720,7 +13434,9 @@
       <c r="G134" s="46">
         <v>0.96179000000000003</v>
       </c>
-      <c r="H134" s="47"/>
+      <c r="H134" s="47">
+        <v>0.95539010000000002</v>
+      </c>
       <c r="I134" s="19"/>
       <c r="J134" s="55">
         <v>0.21481648</v>
@@ -12748,8 +13464,8 @@
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B135" s="86"/>
-      <c r="C135" s="88"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="106"/>
       <c r="D135" s="19">
         <v>100</v>
       </c>
@@ -12760,7 +13476,9 @@
       <c r="G135" s="46">
         <v>0.95762999999999998</v>
       </c>
-      <c r="H135" s="47"/>
+      <c r="H135" s="47">
+        <v>0.95214679999999996</v>
+      </c>
       <c r="I135" s="19"/>
       <c r="J135" s="55">
         <v>0.22429604</v>
@@ -12788,8 +13506,8 @@
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B136" s="86"/>
-      <c r="C136" s="88">
+      <c r="B136" s="93"/>
+      <c r="C136" s="106">
         <v>6</v>
       </c>
       <c r="D136" s="19">
@@ -12802,7 +13520,9 @@
       <c r="G136" s="46">
         <v>0.96133999999999997</v>
       </c>
-      <c r="H136" s="47"/>
+      <c r="H136" s="47">
+        <v>0.95535099999999995</v>
+      </c>
       <c r="I136" s="19"/>
       <c r="J136" s="55">
         <v>0.22536089000000001</v>
@@ -12830,8 +13550,8 @@
       </c>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B137" s="86"/>
-      <c r="C137" s="88"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="106"/>
       <c r="D137" s="19">
         <v>70</v>
       </c>
@@ -12842,7 +13562,9 @@
       <c r="G137" s="46">
         <v>0.96162999999999998</v>
       </c>
-      <c r="H137" s="47"/>
+      <c r="H137" s="47">
+        <v>0.95554720000000004</v>
+      </c>
       <c r="I137" s="19"/>
       <c r="J137" s="55">
         <v>0.21076721000000001</v>
@@ -12870,8 +13592,8 @@
       </c>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B138" s="86"/>
-      <c r="C138" s="88"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="106"/>
       <c r="D138" s="19">
         <v>100</v>
       </c>
@@ -12882,7 +13604,9 @@
       <c r="G138" s="46">
         <v>0.96372999999999998</v>
       </c>
-      <c r="H138" s="47"/>
+      <c r="H138" s="47">
+        <v>0.95713429999999999</v>
+      </c>
       <c r="I138" s="19"/>
       <c r="J138" s="55">
         <v>0.26727929</v>
@@ -12910,8 +13634,8 @@
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B139" s="86"/>
-      <c r="C139" s="88">
+      <c r="B139" s="93"/>
+      <c r="C139" s="106">
         <v>7</v>
       </c>
       <c r="D139" s="19">
@@ -12924,7 +13648,9 @@
       <c r="G139" s="46">
         <v>0.9637</v>
       </c>
-      <c r="H139" s="47"/>
+      <c r="H139" s="47">
+        <v>0.95823239999999998</v>
+      </c>
       <c r="I139" s="19"/>
       <c r="J139" s="55">
         <v>0.24748695000000001</v>
@@ -12952,8 +13678,8 @@
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B140" s="86"/>
-      <c r="C140" s="88"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="106"/>
       <c r="D140" s="19">
         <v>70</v>
       </c>
@@ -12964,7 +13690,9 @@
       <c r="G140" s="46">
         <v>0.96357000000000004</v>
       </c>
-      <c r="H140" s="47"/>
+      <c r="H140" s="47">
+        <v>0.95703859999999996</v>
+      </c>
       <c r="I140" s="19"/>
       <c r="J140" s="55">
         <v>0.26029623000000002</v>
@@ -12992,8 +13720,8 @@
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B141" s="87"/>
-      <c r="C141" s="89"/>
+      <c r="B141" s="94"/>
+      <c r="C141" s="107"/>
       <c r="D141" s="23">
         <v>100</v>
       </c>
@@ -13004,7 +13732,9 @@
       <c r="G141" s="52">
         <v>0.96308000000000005</v>
       </c>
-      <c r="H141" s="53"/>
+      <c r="H141" s="53">
+        <v>0.95649550000000005</v>
+      </c>
       <c r="I141" s="23"/>
       <c r="J141" s="11">
         <v>0.23274386999999999</v>
@@ -13033,24 +13763,38 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="J5:AB5"/>
-    <mergeCell ref="J14:AA14"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="J95:R95"/>
+    <mergeCell ref="J101:R101"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="B127:B141"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="J120:Q120"/>
+    <mergeCell ref="B102:B116"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="J73:V73"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B74:B91"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
     <mergeCell ref="B68:B72"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="B46:B63"/>
@@ -13067,38 +13811,24 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="J73:V73"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B74:B91"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C80:C85"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="J95:R95"/>
-    <mergeCell ref="J101:R101"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="B127:B141"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="J120:Q120"/>
-    <mergeCell ref="B102:B116"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="J5:AB5"/>
+    <mergeCell ref="J14:AA14"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C52:C57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13110,8 +13840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13127,7 +13857,7 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>20000000</v>
@@ -13137,11 +13867,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
@@ -13158,24 +13888,24 @@
       <c r="K4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -13183,17 +13913,17 @@
       <c r="G5" s="37"/>
       <c r="H5" s="38"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="97"/>
+      <c r="J5" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="111"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="119" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="17">
@@ -13231,7 +13961,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="110"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -13265,7 +13995,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="110"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -13299,7 +14029,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="110"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -13333,7 +14063,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="111"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -13369,7 +14099,7 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="28"/>
@@ -13377,18 +14107,18 @@
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="106"/>
+      <c r="J11" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="123"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="86" t="s">
-        <v>14</v>
+      <c r="B12" s="93" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="17">
         <v>3</v>
@@ -13423,7 +14153,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -13457,7 +14187,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="86"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -13491,7 +14221,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="86"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="17">
         <v>6</v>
       </c>
@@ -13525,7 +14255,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="87"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="10">
         <v>7</v>
       </c>
@@ -13541,7 +14271,7 @@
         <v>0.88326720000000003</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="41">
         <v>0.62073</v>
@@ -13566,11 +14296,11 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="13" t="s">
         <v>2</v>
       </c>
@@ -13584,17 +14314,17 @@
       <c r="J19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="K19" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="N19" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -13602,7 +14332,7 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="33"/>
       <c r="C20" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
@@ -13610,17 +14340,17 @@
       <c r="G20" s="37"/>
       <c r="H20" s="38"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
+      <c r="J20" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="111"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="86" t="s">
-        <v>17</v>
+      <c r="B21" s="93" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="17">
         <v>0.01</v>
@@ -13637,7 +14367,7 @@
         <v>0.94727740000000005</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="31">
         <v>9.0705299999999998</v>
@@ -13656,7 +14386,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="86"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="17">
         <v>0.1</v>
       </c>
@@ -13687,7 +14417,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="86"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="17">
         <v>1</v>
       </c>
@@ -13718,7 +14448,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="86"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -13749,7 +14479,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="10">
         <v>100</v>
       </c>
@@ -13782,7 +14512,7 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="28"/>
@@ -13790,17 +14520,17 @@
       <c r="G26" s="20"/>
       <c r="H26" s="21"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="106"/>
+      <c r="J26" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="123"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="86" t="s">
-        <v>22</v>
+      <c r="B27" s="93" t="s">
+        <v>21</v>
       </c>
       <c r="C27" s="17">
         <v>3</v>
@@ -13832,7 +14562,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="86"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="17">
         <v>4</v>
       </c>
@@ -13863,7 +14593,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="86"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="17">
         <v>5</v>
       </c>
@@ -13896,7 +14626,7 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="86"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="17">
         <v>6</v>
       </c>
@@ -13929,7 +14659,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="87"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="10">
         <v>7</v>
       </c>
@@ -13965,11 +14695,11 @@
       <c r="B34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="98"/>
       <c r="F34" s="13" t="s">
         <v>2</v>
       </c>
@@ -13987,7 +14717,7 @@
         <v>8</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -13995,7 +14725,7 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="33"/>
       <c r="C35" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
@@ -14003,15 +14733,15 @@
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
+      <c r="J35" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="110"/>
+      <c r="L35" s="111"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="86" t="s">
-        <v>17</v>
+      <c r="B36" s="93" t="s">
+        <v>16</v>
       </c>
       <c r="C36" s="17">
         <v>0.01</v>
@@ -14039,7 +14769,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="86"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="17">
         <v>0.1</v>
       </c>
@@ -14064,7 +14794,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="86"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="17">
         <v>1</v>
       </c>
@@ -14089,7 +14819,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="86"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="17">
         <v>10</v>
       </c>
@@ -14114,7 +14844,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="87"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="10">
         <v>100</v>
       </c>
@@ -14141,7 +14871,7 @@
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="28"/>
@@ -14149,15 +14879,15 @@
       <c r="G41" s="20"/>
       <c r="H41" s="21"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="106"/>
+      <c r="J41" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="122"/>
+      <c r="L41" s="123"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="86" t="s">
-        <v>22</v>
+      <c r="B42" s="93" t="s">
+        <v>21</v>
       </c>
       <c r="C42" s="17">
         <v>3</v>
@@ -14183,7 +14913,7 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="86"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="17">
         <v>4</v>
       </c>
@@ -14208,7 +14938,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="86"/>
+      <c r="B44" s="93"/>
       <c r="C44" s="17">
         <v>5</v>
       </c>
@@ -14235,7 +14965,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="86"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="17">
         <v>6</v>
       </c>
@@ -14262,7 +14992,7 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="86"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="17">
         <v>7</v>
       </c>
@@ -14278,7 +15008,7 @@
         <v>0.94735910000000001</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J46" s="31">
         <v>0.46296999999999999</v>
@@ -14293,27 +15023,27 @@
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="33"/>
       <c r="C47" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>25</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>26</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="95" t="s">
+      <c r="J47" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="110"/>
+      <c r="L47" s="111"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="96"/>
-      <c r="L47" s="97"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="88">
+      <c r="C48" s="106">
         <v>3</v>
       </c>
       <c r="D48" s="19">
@@ -14339,8 +15069,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="86"/>
-      <c r="C49" s="88"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="19">
         <v>70</v>
       </c>
@@ -14364,8 +15094,8 @@
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="86"/>
-      <c r="C50" s="88"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="19">
         <v>100</v>
       </c>
@@ -14389,8 +15119,8 @@
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="86"/>
-      <c r="C51" s="88">
+      <c r="B51" s="93"/>
+      <c r="C51" s="106">
         <v>4</v>
       </c>
       <c r="D51" s="19">
@@ -14416,8 +15146,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="86"/>
-      <c r="C52" s="88"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="106"/>
       <c r="D52" s="19">
         <v>70</v>
       </c>
@@ -14441,8 +15171,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="19">
         <v>100</v>
       </c>
@@ -14466,8 +15196,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="86"/>
-      <c r="C54" s="88">
+      <c r="B54" s="93"/>
+      <c r="C54" s="106">
         <v>5</v>
       </c>
       <c r="D54" s="19">
@@ -14493,8 +15223,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="86"/>
-      <c r="C55" s="88"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="19">
         <v>70</v>
       </c>
@@ -14518,8 +15248,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="86"/>
-      <c r="C56" s="88"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="106"/>
       <c r="D56" s="19">
         <v>100</v>
       </c>
@@ -14543,8 +15273,8 @@
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="86"/>
-      <c r="C57" s="109">
+      <c r="B57" s="93"/>
+      <c r="C57" s="118">
         <v>6</v>
       </c>
       <c r="D57" s="19">
@@ -14572,8 +15302,8 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="86"/>
-      <c r="C58" s="109"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="19">
         <v>70</v>
       </c>
@@ -14599,8 +15329,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="86"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="19">
         <v>100</v>
       </c>
@@ -14626,8 +15356,8 @@
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="86"/>
-      <c r="C60" s="88">
+      <c r="B60" s="93"/>
+      <c r="C60" s="106">
         <v>7</v>
       </c>
       <c r="D60" s="19">
@@ -14644,7 +15374,7 @@
         <v>0.95272210000000002</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J60" s="31">
         <v>0.40925</v>
@@ -14657,8 +15387,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="86"/>
-      <c r="C61" s="88"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="19">
         <v>70</v>
       </c>
@@ -14684,8 +15414,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="87"/>
-      <c r="C62" s="89"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="23">
         <v>100</v>
       </c>
@@ -14713,32 +15443,32 @@
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" s="66"/>
       <c r="C63" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F63" s="68"/>
       <c r="G63" s="37"/>
       <c r="H63" s="38"/>
       <c r="I63" s="36"/>
-      <c r="J63" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="96"/>
-      <c r="L63" s="97"/>
+      <c r="J63" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="110"/>
+      <c r="L63" s="111"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="88">
+      <c r="B64" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="106">
         <v>5</v>
       </c>
-      <c r="D64" s="93">
+      <c r="D64" s="105">
         <v>1E-3</v>
       </c>
       <c r="E64" s="28">
@@ -14763,9 +15493,9 @@
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="107"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="93"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="105"/>
       <c r="E65" s="28">
         <v>70</v>
       </c>
@@ -14788,9 +15518,9 @@
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="107"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="93">
+      <c r="B66" s="124"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="105">
         <v>0.01</v>
       </c>
       <c r="E66" s="28">
@@ -14815,9 +15545,9 @@
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="93"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="105"/>
       <c r="E67" s="28">
         <v>70</v>
       </c>
@@ -14840,9 +15570,9 @@
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="107"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="93">
+      <c r="B68" s="124"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="105">
         <v>0.1</v>
       </c>
       <c r="E68" s="28">
@@ -14867,9 +15597,9 @@
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="107"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="93"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="105"/>
       <c r="E69" s="28">
         <v>70</v>
       </c>
@@ -14892,11 +15622,11 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="107"/>
-      <c r="C70" s="88">
+      <c r="B70" s="124"/>
+      <c r="C70" s="106">
         <v>6</v>
       </c>
-      <c r="D70" s="93">
+      <c r="D70" s="105">
         <v>1E-3</v>
       </c>
       <c r="E70" s="28">
@@ -14921,9 +15651,9 @@
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="107"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="93"/>
+      <c r="B71" s="124"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="105"/>
       <c r="E71" s="28">
         <v>70</v>
       </c>
@@ -14946,9 +15676,9 @@
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="107"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="93">
+      <c r="B72" s="124"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="105">
         <v>0.01</v>
       </c>
       <c r="E72" s="28">
@@ -14973,9 +15703,9 @@
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="107"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="93"/>
+      <c r="B73" s="124"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="105"/>
       <c r="E73" s="28">
         <v>70</v>
       </c>
@@ -14998,9 +15728,9 @@
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="107"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="93">
+      <c r="B74" s="124"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="105">
         <v>0.1</v>
       </c>
       <c r="E74" s="28">
@@ -15025,9 +15755,9 @@
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="107"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="93"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="105"/>
       <c r="E75" s="28">
         <v>70</v>
       </c>
@@ -15050,11 +15780,11 @@
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="107"/>
-      <c r="C76" s="88">
+      <c r="B76" s="124"/>
+      <c r="C76" s="106">
         <v>7</v>
       </c>
-      <c r="D76" s="93">
+      <c r="D76" s="105">
         <v>1E-3</v>
       </c>
       <c r="E76" s="28">
@@ -15079,9 +15809,9 @@
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="107"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="93"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="105"/>
       <c r="E77" s="28">
         <v>70</v>
       </c>
@@ -15106,9 +15836,9 @@
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="107"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="93">
+      <c r="B78" s="124"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="105">
         <v>0.01</v>
       </c>
       <c r="E78" s="28">
@@ -15135,9 +15865,9 @@
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="107"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="93"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="105"/>
       <c r="E79" s="28">
         <v>70</v>
       </c>
@@ -15162,9 +15892,9 @@
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="107"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="93">
+      <c r="B80" s="124"/>
+      <c r="C80" s="106"/>
+      <c r="D80" s="105">
         <v>0.1</v>
       </c>
       <c r="E80" s="28">
@@ -15189,9 +15919,9 @@
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="108"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="94"/>
+      <c r="B81" s="125"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="108"/>
       <c r="E81" s="29">
         <v>70</v>
       </c>
@@ -15215,26 +15945,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B48:B62"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="J35:L35"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="J47:L47"/>
     <mergeCell ref="B64:B81"/>
@@ -15251,6 +15961,26 @@
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B48:B62"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B42:B46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15279,7 +16009,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="65">
         <v>20000000</v>
@@ -15317,11 +16047,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -15333,26 +16063,26 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="L4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="M4" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="N4" s="50" t="s">
         <v>30</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -15360,17 +16090,17 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
+      <c r="J5" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="93" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="17">
@@ -15404,7 +16134,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="86"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -15436,7 +16166,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -15468,7 +16198,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="86"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -15502,7 +16232,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
-      <c r="B10" s="87"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -15536,7 +16266,7 @@
       <c r="A11" s="19"/>
       <c r="B11" s="17"/>
       <c r="C11" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="28"/>
@@ -15544,18 +16274,18 @@
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="100"/>
+      <c r="J11" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="91"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
-      <c r="B12" s="86" t="s">
-        <v>32</v>
+      <c r="B12" s="93" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="17">
         <v>3</v>
@@ -15589,7 +16319,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="86"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -15622,7 +16352,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="86"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -15655,7 +16385,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="86"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="17">
         <v>6</v>
       </c>
@@ -15688,7 +16418,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="87"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="10">
         <v>7</v>
       </c>
@@ -15758,11 +16488,11 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="48" t="s">
         <v>2</v>
       </c>
@@ -15774,13 +16504,13 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="48" t="s">
-        <v>28</v>
-      </c>
       <c r="L19" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -15789,7 +16519,7 @@
       <c r="A20" s="19"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
@@ -15797,17 +16527,17 @@
       <c r="G20" s="56"/>
       <c r="H20" s="57"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
+      <c r="J20" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
       <c r="M20" s="46"/>
       <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="93" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="17">
@@ -15839,7 +16569,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="86"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="17">
         <v>0.1</v>
       </c>
@@ -15867,7 +16597,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="86"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="17">
         <v>1</v>
       </c>
@@ -15895,7 +16625,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="86"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -15923,7 +16653,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="87"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="10">
         <v>100</v>
       </c>
@@ -15953,7 +16683,7 @@
       <c r="A26" s="19"/>
       <c r="B26" s="17"/>
       <c r="C26" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="28"/>
@@ -15961,18 +16691,18 @@
       <c r="G26" s="46"/>
       <c r="H26" s="47"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="99"/>
-      <c r="L26" s="100"/>
+      <c r="J26" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="90"/>
+      <c r="L26" s="91"/>
       <c r="M26" s="46"/>
       <c r="N26" s="46"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="86" t="s">
-        <v>32</v>
+      <c r="B27" s="93" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="17">
         <v>3</v>
@@ -16001,7 +16731,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="17">
         <v>4</v>
       </c>
@@ -16029,7 +16759,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="17">
         <v>5</v>
       </c>
@@ -16059,7 +16789,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="86"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="17">
         <v>6</v>
       </c>
@@ -16089,7 +16819,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
-      <c r="B31" s="87"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="10">
         <v>7</v>
       </c>
@@ -16155,7 +16885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -16170,7 +16900,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>20000000</v>
@@ -16180,11 +16910,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -16196,25 +16926,25 @@
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="L4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="M4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="N4" s="50" t="s">
         <v>47</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -16222,17 +16952,17 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
+      <c r="J5" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="86" t="s">
-        <v>50</v>
+      <c r="B6" s="93" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="17">
         <v>0.01</v>
@@ -16266,7 +16996,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="86"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -16297,7 +17027,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -16328,7 +17058,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="86"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -16359,7 +17089,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -16392,7 +17122,7 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="28"/>
@@ -16400,17 +17130,17 @@
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="100"/>
+      <c r="J11" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="91"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="86" t="s">
-        <v>51</v>
+      <c r="B12" s="93" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="17">
         <v>3</v>
@@ -16442,7 +17172,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -16473,7 +17203,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="87"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="10">
         <v>5</v>
       </c>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="LightGBM" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="black" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="80">
   <si>
     <t>Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,6 +323,30 @@
   </si>
   <si>
     <t>rate_os</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,13 +896,7 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -894,7 +911,25 @@
     <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1294,9 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD121"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1313,11 +1346,11 @@
       <c r="B3" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="48" t="s">
         <v>2</v>
       </c>
@@ -1351,14 +1384,14 @@
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="92">
+      <c r="B5" s="96">
         <v>10000000</v>
       </c>
       <c r="C5" s="33">
@@ -1378,18 +1411,18 @@
         <v>0.94449950000000005</v>
       </c>
       <c r="I5" s="35"/>
-      <c r="J5" s="84">
+      <c r="J5" s="82">
         <v>0.97592789000000002</v>
       </c>
       <c r="K5" s="56">
         <v>2.7291899999999998E-3</v>
       </c>
-      <c r="L5" s="82">
+      <c r="L5" s="81">
         <v>2.1342920000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="93"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="17">
         <v>4</v>
       </c>
@@ -1418,7 +1451,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="93"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="17">
         <v>5</v>
       </c>
@@ -1447,7 +1480,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="93"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="17">
         <v>6</v>
       </c>
@@ -1476,7 +1509,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="94"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="10">
         <v>7</v>
       </c>
@@ -1484,13 +1517,13 @@
       <c r="E9" s="29">
         <v>168</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="86">
         <v>0.97716700000000001</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="86">
         <v>0.97558400000000001</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="87">
         <v>0.95400810000000003</v>
       </c>
       <c r="I9" s="23"/>
@@ -1505,7 +1538,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="95">
+      <c r="B10" s="99">
         <v>20000000</v>
       </c>
       <c r="C10" s="17">
@@ -1536,7 +1569,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="93"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="17">
         <v>4</v>
       </c>
@@ -1565,7 +1598,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="93"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="17">
         <v>5</v>
       </c>
@@ -1594,7 +1627,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="93"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="17">
         <v>6</v>
       </c>
@@ -1623,7 +1656,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="93"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="17">
         <v>7</v>
       </c>
@@ -1637,7 +1670,7 @@
       <c r="G14" s="46">
         <v>0.96933400000000003</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="88">
         <v>0.953955</v>
       </c>
       <c r="I14" s="19"/>
@@ -1652,7 +1685,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="92">
+      <c r="B15" s="96">
         <v>30000000</v>
       </c>
       <c r="C15" s="33">
@@ -1662,28 +1695,28 @@
       <c r="E15" s="36">
         <v>1000</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="91">
         <v>0.965951</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="91">
         <v>0.96321599999999996</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="92">
         <v>0.95611520000000005</v>
       </c>
       <c r="I15" s="35"/>
-      <c r="J15" s="84">
+      <c r="J15" s="82">
         <v>0.68560248000000001</v>
       </c>
       <c r="K15" s="56">
         <v>2.712208E-2</v>
       </c>
-      <c r="L15" s="82">
+      <c r="L15" s="81">
         <v>0.28727543999999999</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="93"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="17">
         <v>4</v>
       </c>
@@ -1712,7 +1745,7 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="93"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="17">
         <v>5</v>
       </c>
@@ -1741,7 +1774,7 @@
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B18" s="93"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="17">
         <v>6</v>
       </c>
@@ -1770,7 +1803,7 @@
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B19" s="94"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="10">
         <v>7</v>
       </c>
@@ -1784,7 +1817,7 @@
       <c r="G19" s="52">
         <v>0.96390399999999998</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="7">
         <v>0.95619339999999997</v>
       </c>
       <c r="I19" s="23"/>
@@ -1799,7 +1832,7 @@
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B20" s="95">
+      <c r="B20" s="99">
         <v>40000000</v>
       </c>
       <c r="C20" s="17">
@@ -1815,7 +1848,7 @@
       <c r="G20" s="46">
         <v>0.96193899999999999</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="57">
         <v>0.95862460000000005</v>
       </c>
       <c r="I20" s="19"/>
@@ -1830,7 +1863,7 @@
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B21" s="93"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="17">
         <v>4</v>
       </c>
@@ -1844,7 +1877,7 @@
       <c r="G21" s="46">
         <v>0.96250999999999998</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="7">
         <v>0.95668640000000005</v>
       </c>
       <c r="I21" s="19"/>
@@ -1859,7 +1892,7 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="93"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="17">
         <v>5</v>
       </c>
@@ -1888,7 +1921,7 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="93"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="17">
         <v>6</v>
       </c>
@@ -1902,7 +1935,7 @@
       <c r="G23" s="46">
         <v>0.96272199999999997</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="7">
         <v>0.95682590000000001</v>
       </c>
       <c r="I23" s="19"/>
@@ -1917,7 +1950,7 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="93"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="17">
         <v>7</v>
       </c>
@@ -1931,7 +1964,7 @@
       <c r="G24" s="46">
         <v>0.96278600000000003</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="88">
         <v>0.95599959999999995</v>
       </c>
       <c r="I24" s="19"/>
@@ -1946,7 +1979,7 @@
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B25" s="92">
+      <c r="B25" s="96">
         <v>50000000</v>
       </c>
       <c r="C25" s="33">
@@ -1956,28 +1989,30 @@
       <c r="E25" s="36">
         <v>1000</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="89">
         <v>0.96144300000000005</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="89">
         <v>0.96177699999999999</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="90">
         <v>0.95710810000000002</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="84">
+      <c r="I25" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="82">
         <v>0.68019322000000004</v>
       </c>
       <c r="K25" s="56">
         <v>2.4769449999999998E-2</v>
       </c>
-      <c r="L25" s="82">
+      <c r="L25" s="81">
         <v>0.29503732999999999</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="93"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="17">
         <v>4</v>
       </c>
@@ -2006,7 +2041,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="93"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="17">
         <v>5</v>
       </c>
@@ -2035,7 +2070,7 @@
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="93"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="17">
         <v>6</v>
       </c>
@@ -2064,7 +2099,7 @@
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B29" s="94"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="10">
         <v>7</v>
       </c>
@@ -2078,7 +2113,7 @@
       <c r="G29" s="52">
         <v>0.96302100000000002</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="7">
         <v>0.9562811</v>
       </c>
       <c r="I29" s="23"/>
@@ -2092,15 +2127,18 @@
         <v>0.29383766</v>
       </c>
     </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="H30" s="57"/>
+    </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="98"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
       <c r="F32" s="48" t="s">
         <v>2</v>
       </c>
@@ -2176,28 +2214,28 @@
       <c r="G33" s="46"/>
       <c r="H33" s="47"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="89" t="s">
+      <c r="J33" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="91"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="95"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="92">
+      <c r="B34" s="96">
         <v>10000000</v>
       </c>
       <c r="C34" s="33">
@@ -2217,7 +2255,7 @@
         <v>0.96372080000000004</v>
       </c>
       <c r="I34" s="35"/>
-      <c r="J34" s="84">
+      <c r="J34" s="82">
         <v>0.750284383</v>
       </c>
       <c r="K34" s="56">
@@ -2265,12 +2303,12 @@
       <c r="Y34" s="56">
         <v>1.2005943E-4</v>
       </c>
-      <c r="Z34" s="82">
+      <c r="Z34" s="81">
         <v>8.1337446399999992E-3</v>
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="93"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="17">
         <v>4</v>
       </c>
@@ -2341,7 +2379,7 @@
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="93"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="17">
         <v>5</v>
       </c>
@@ -2412,7 +2450,7 @@
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B37" s="93"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="17">
         <v>6</v>
       </c>
@@ -2430,7 +2468,7 @@
         <v>0.96199179999999995</v>
       </c>
       <c r="I37" s="19"/>
-      <c r="J37" s="85">
+      <c r="J37" s="83">
         <v>0.730590988</v>
       </c>
       <c r="K37" s="46">
@@ -2483,7 +2521,7 @@
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="94"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="10">
         <v>7</v>
       </c>
@@ -2501,7 +2539,7 @@
         <v>0.96265679999999998</v>
       </c>
       <c r="I38" s="23"/>
-      <c r="J38" s="86">
+      <c r="J38" s="84">
         <v>0.72974124600000001</v>
       </c>
       <c r="K38" s="52">
@@ -2554,7 +2592,7 @@
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="95">
+      <c r="B39" s="99">
         <v>20000000</v>
       </c>
       <c r="C39" s="17">
@@ -2574,7 +2612,7 @@
         <v>0.96390500000000001</v>
       </c>
       <c r="I39" s="19"/>
-      <c r="J39" s="85">
+      <c r="J39" s="83">
         <v>0.91520573400000005</v>
       </c>
       <c r="K39" s="46">
@@ -2627,7 +2665,7 @@
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="93"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="17">
         <v>4</v>
       </c>
@@ -2645,7 +2683,7 @@
         <v>0.96457289999999996</v>
       </c>
       <c r="I40" s="19"/>
-      <c r="J40" s="85">
+      <c r="J40" s="83">
         <v>0.90996805599999997</v>
       </c>
       <c r="K40" s="46">
@@ -2698,7 +2736,7 @@
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="93"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="17">
         <v>5</v>
       </c>
@@ -2712,11 +2750,11 @@
       <c r="G41" s="46">
         <v>0.97426800000000002</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="88">
         <v>0.9648042</v>
       </c>
       <c r="I41" s="19"/>
-      <c r="J41" s="85">
+      <c r="J41" s="83">
         <v>0.90184040600000004</v>
       </c>
       <c r="K41" s="46">
@@ -2769,7 +2807,7 @@
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="93"/>
+      <c r="B42" s="97"/>
       <c r="C42" s="17">
         <v>6</v>
       </c>
@@ -2787,7 +2825,7 @@
         <v>0.96473960000000003</v>
       </c>
       <c r="I42" s="19"/>
-      <c r="J42" s="85">
+      <c r="J42" s="83">
         <v>0.89699074499999998</v>
       </c>
       <c r="K42" s="46">
@@ -2840,7 +2878,7 @@
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="93"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="17">
         <v>7</v>
       </c>
@@ -2858,7 +2896,7 @@
         <v>0.96449050000000003</v>
       </c>
       <c r="I43" s="19"/>
-      <c r="J43" s="85">
+      <c r="J43" s="83">
         <v>0.88941244100000005</v>
       </c>
       <c r="K43" s="46">
@@ -2911,7 +2949,7 @@
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="92">
+      <c r="B44" s="96">
         <v>30000000</v>
       </c>
       <c r="C44" s="33">
@@ -2931,7 +2969,7 @@
         <v>0.96406230000000004</v>
       </c>
       <c r="I44" s="35"/>
-      <c r="J44" s="87">
+      <c r="J44" s="85">
         <v>0.91015398999999997</v>
       </c>
       <c r="K44" s="56">
@@ -2979,12 +3017,12 @@
       <c r="Y44" s="56">
         <v>1.4957196400000001E-7</v>
       </c>
-      <c r="Z44" s="82">
+      <c r="Z44" s="81">
         <v>4.32380955E-3</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B45" s="93"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="17">
         <v>4</v>
       </c>
@@ -3002,7 +3040,7 @@
         <v>0.9648253</v>
       </c>
       <c r="I45" s="19"/>
-      <c r="J45" s="85">
+      <c r="J45" s="83">
         <v>0.90521665699999998</v>
       </c>
       <c r="K45" s="46">
@@ -3055,7 +3093,7 @@
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B46" s="93"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="17">
         <v>5</v>
       </c>
@@ -3073,7 +3111,7 @@
         <v>0.96512719999999996</v>
       </c>
       <c r="I46" s="19"/>
-      <c r="J46" s="85">
+      <c r="J46" s="83">
         <v>0.89995013999999995</v>
       </c>
       <c r="K46" s="46">
@@ -3126,7 +3164,7 @@
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="93"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="17">
         <v>6</v>
       </c>
@@ -3140,11 +3178,11 @@
       <c r="G47" s="46">
         <v>0.96986600000000001</v>
       </c>
-      <c r="H47" s="81">
+      <c r="H47" s="88">
         <v>0.96516250000000003</v>
       </c>
       <c r="I47" s="19"/>
-      <c r="J47" s="85">
+      <c r="J47" s="83">
         <v>0.898048772</v>
       </c>
       <c r="K47" s="46">
@@ -3197,7 +3235,7 @@
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B48" s="94"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="10">
         <v>7</v>
       </c>
@@ -3215,7 +3253,7 @@
         <v>0.96486680000000002</v>
       </c>
       <c r="I48" s="23"/>
-      <c r="J48" s="86">
+      <c r="J48" s="84">
         <v>0.89297088199999997</v>
       </c>
       <c r="K48" s="52">
@@ -3268,7 +3306,7 @@
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B49" s="95">
+      <c r="B49" s="99">
         <v>40000000</v>
       </c>
       <c r="C49" s="17">
@@ -3288,7 +3326,7 @@
         <v>0.96409180000000005</v>
       </c>
       <c r="I49" s="19"/>
-      <c r="J49" s="85">
+      <c r="J49" s="83">
         <v>0.90153313899999998</v>
       </c>
       <c r="K49" s="46">
@@ -3341,7 +3379,7 @@
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B50" s="93"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="17">
         <v>4</v>
       </c>
@@ -3359,7 +3397,7 @@
         <v>0.96497080000000002</v>
       </c>
       <c r="I50" s="19"/>
-      <c r="J50" s="85">
+      <c r="J50" s="83">
         <v>0.89525076000000003</v>
       </c>
       <c r="K50" s="46">
@@ -3412,7 +3450,7 @@
       </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="93"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="17">
         <v>5</v>
       </c>
@@ -3420,17 +3458,19 @@
       <c r="E51" s="28">
         <v>1000</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="58">
         <v>0.96990399999999999</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="58">
         <v>0.96836100000000003</v>
       </c>
-      <c r="H51" s="81">
+      <c r="H51" s="69">
         <v>0.96548650000000003</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="85">
+      <c r="I51" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="83">
         <v>0.89354330599999998</v>
       </c>
       <c r="K51" s="46">
@@ -3483,7 +3523,7 @@
       </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B52" s="93"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="17">
         <v>6</v>
       </c>
@@ -3501,7 +3541,7 @@
         <v>0.96546430000000005</v>
       </c>
       <c r="I52" s="19"/>
-      <c r="J52" s="85">
+      <c r="J52" s="83">
         <v>0.89037181899999995</v>
       </c>
       <c r="K52" s="46">
@@ -3554,7 +3594,7 @@
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B53" s="93"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="17">
         <v>7</v>
       </c>
@@ -3572,7 +3612,7 @@
         <v>0.96519370000000004</v>
       </c>
       <c r="I53" s="19"/>
-      <c r="J53" s="85">
+      <c r="J53" s="83">
         <v>0.89203715400000005</v>
       </c>
       <c r="K53" s="46">
@@ -3625,7 +3665,7 @@
       </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B54" s="92">
+      <c r="B54" s="96">
         <v>50000000</v>
       </c>
       <c r="C54" s="33">
@@ -3637,7 +3677,7 @@
       <c r="G54" s="56"/>
       <c r="H54" s="57"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="87"/>
+      <c r="J54" s="85"/>
       <c r="K54" s="56"/>
       <c r="L54" s="56"/>
       <c r="M54" s="56"/>
@@ -3653,10 +3693,10 @@
       <c r="W54" s="56"/>
       <c r="X54" s="56"/>
       <c r="Y54" s="56"/>
-      <c r="Z54" s="82"/>
+      <c r="Z54" s="81"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="93"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="17">
         <v>4</v>
       </c>
@@ -3666,7 +3706,7 @@
       <c r="G55" s="46"/>
       <c r="H55" s="47"/>
       <c r="I55" s="19"/>
-      <c r="J55" s="85"/>
+      <c r="J55" s="83"/>
       <c r="K55" s="46"/>
       <c r="L55" s="46"/>
       <c r="M55" s="46"/>
@@ -3685,7 +3725,7 @@
       <c r="Z55" s="51"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B56" s="93"/>
+      <c r="B56" s="97"/>
       <c r="C56" s="17">
         <v>5</v>
       </c>
@@ -3714,7 +3754,7 @@
       <c r="Z56" s="51"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
+      <c r="B57" s="97"/>
       <c r="C57" s="17">
         <v>6</v>
       </c>
@@ -3743,7 +3783,7 @@
       <c r="Z57" s="51"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B58" s="94"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="10">
         <v>7</v>
       </c>
@@ -3772,7 +3812,7 @@
       <c r="Z58" s="9"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B59" s="95" t="s">
+      <c r="B59" s="99" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="17">
@@ -3845,7 +3885,7 @@
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="93"/>
+      <c r="B60" s="97"/>
       <c r="C60" s="17">
         <v>4</v>
       </c>
@@ -3916,7 +3956,7 @@
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B61" s="93"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="17">
         <v>5</v>
       </c>
@@ -3987,7 +4027,7 @@
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="93"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="17">
         <v>6</v>
       </c>
@@ -4056,7 +4096,7 @@
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="94"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="10">
         <v>7</v>
       </c>
@@ -4088,11 +4128,11 @@
       <c r="B66" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="97"/>
-      <c r="E66" s="98"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="102"/>
       <c r="F66" s="48" t="s">
         <v>2</v>
       </c>
@@ -4144,20 +4184,20 @@
       <c r="G67" s="46"/>
       <c r="H67" s="47"/>
       <c r="I67" s="19"/>
-      <c r="J67" s="89" t="s">
+      <c r="J67" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="K67" s="90"/>
-      <c r="L67" s="90"/>
-      <c r="M67" s="90"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
-      <c r="P67" s="90"/>
-      <c r="Q67" s="90"/>
-      <c r="R67" s="91"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="95"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="92">
+      <c r="B68" s="96">
         <v>10000000</v>
       </c>
       <c r="C68" s="33">
@@ -4177,7 +4217,7 @@
         <v>0.96343540000000005</v>
       </c>
       <c r="I68" s="35"/>
-      <c r="J68" s="84">
+      <c r="J68" s="82">
         <v>0.85150543999999995</v>
       </c>
       <c r="K68" s="56">
@@ -4201,12 +4241,12 @@
       <c r="Q68" s="56">
         <v>2.7214439999999999E-2</v>
       </c>
-      <c r="R68" s="82">
+      <c r="R68" s="81">
         <v>8.2761499999999995E-3</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B69" s="93"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="17">
         <v>4</v>
       </c>
@@ -4220,7 +4260,7 @@
       <c r="G69" s="46">
         <v>0.97957000000000005</v>
       </c>
-      <c r="H69" s="81">
+      <c r="H69" s="88">
         <v>0.96382089999999998</v>
       </c>
       <c r="I69" s="19"/>
@@ -4253,7 +4293,7 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B70" s="93"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="17">
         <v>5</v>
       </c>
@@ -4300,7 +4340,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B71" s="93"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="17">
         <v>6</v>
       </c>
@@ -4347,7 +4387,7 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B72" s="94"/>
+      <c r="B72" s="98"/>
       <c r="C72" s="10">
         <v>7</v>
       </c>
@@ -4394,7 +4434,7 @@
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B73" s="95">
+      <c r="B73" s="99">
         <v>20000000</v>
       </c>
       <c r="C73" s="17">
@@ -4443,7 +4483,7 @@
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B74" s="93"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="17">
         <v>4</v>
       </c>
@@ -4490,7 +4530,7 @@
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B75" s="93"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="17">
         <v>5</v>
       </c>
@@ -4537,7 +4577,7 @@
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B76" s="93"/>
+      <c r="B76" s="97"/>
       <c r="C76" s="17">
         <v>6</v>
       </c>
@@ -4551,7 +4591,7 @@
       <c r="G76" s="46">
         <v>0.974437</v>
       </c>
-      <c r="H76" s="81">
+      <c r="H76" s="88">
         <v>0.96555559999999996</v>
       </c>
       <c r="I76" s="19"/>
@@ -4584,7 +4624,7 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B77" s="93"/>
+      <c r="B77" s="97"/>
       <c r="C77" s="17">
         <v>7</v>
       </c>
@@ -4631,7 +4671,7 @@
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B78" s="92">
+      <c r="B78" s="96">
         <v>30000000</v>
       </c>
       <c r="C78" s="33">
@@ -4651,7 +4691,7 @@
         <v>0.96581539999999999</v>
       </c>
       <c r="I78" s="35"/>
-      <c r="J78" s="84">
+      <c r="J78" s="82">
         <v>0.84867066999999996</v>
       </c>
       <c r="K78" s="56">
@@ -4675,12 +4715,12 @@
       <c r="Q78" s="56">
         <v>3.2833479999999998E-2</v>
       </c>
-      <c r="R78" s="82">
+      <c r="R78" s="81">
         <v>9.9197E-3</v>
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B79" s="93"/>
+      <c r="B79" s="97"/>
       <c r="C79" s="17">
         <v>4</v>
       </c>
@@ -4694,7 +4734,7 @@
       <c r="G79" s="46">
         <v>0.96995699999999996</v>
       </c>
-      <c r="H79" s="81">
+      <c r="H79" s="88">
         <v>0.96606040000000004</v>
       </c>
       <c r="I79" s="19"/>
@@ -4727,7 +4767,7 @@
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B80" s="93"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="17">
         <v>5</v>
       </c>
@@ -4774,7 +4814,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B81" s="93"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="17">
         <v>6</v>
       </c>
@@ -4821,7 +4861,7 @@
       </c>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="94"/>
+      <c r="B82" s="98"/>
       <c r="C82" s="10">
         <v>7</v>
       </c>
@@ -4868,7 +4908,7 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="95">
+      <c r="B83" s="99">
         <v>40000000</v>
       </c>
       <c r="C83" s="17">
@@ -4917,7 +4957,7 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="93"/>
+      <c r="B84" s="97"/>
       <c r="C84" s="17">
         <v>4</v>
       </c>
@@ -4964,7 +5004,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="93"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="17">
         <v>5</v>
       </c>
@@ -5011,7 +5051,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="93"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="17">
         <v>6</v>
       </c>
@@ -5058,7 +5098,7 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="93"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="17">
         <v>7</v>
       </c>
@@ -5066,16 +5106,18 @@
       <c r="E87" s="28">
         <v>429</v>
       </c>
-      <c r="F87" s="46">
+      <c r="F87" s="58">
         <v>0.97347799999999995</v>
       </c>
-      <c r="G87" s="46">
+      <c r="G87" s="58">
         <v>0.96915799999999996</v>
       </c>
-      <c r="H87" s="81">
+      <c r="H87" s="69">
         <v>0.96660690000000005</v>
       </c>
-      <c r="I87" s="19"/>
+      <c r="I87" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="J87" s="55">
         <v>0.83483538999999996</v>
       </c>
@@ -5105,7 +5147,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B88" s="92">
+      <c r="B88" s="96">
         <v>50000000</v>
       </c>
       <c r="C88" s="33">
@@ -5125,7 +5167,7 @@
         <v>0.9658639</v>
       </c>
       <c r="I88" s="35"/>
-      <c r="J88" s="84">
+      <c r="J88" s="82">
         <v>0.84222836000000001</v>
       </c>
       <c r="K88" s="56">
@@ -5149,12 +5191,12 @@
       <c r="Q88" s="56">
         <v>4.0171819999999997E-2</v>
       </c>
-      <c r="R88" s="82">
+      <c r="R88" s="81">
         <v>1.162767E-2</v>
       </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B89" s="93"/>
+      <c r="B89" s="97"/>
       <c r="C89" s="17">
         <v>4</v>
       </c>
@@ -5201,7 +5243,7 @@
       </c>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B90" s="93"/>
+      <c r="B90" s="97"/>
       <c r="C90" s="17">
         <v>5</v>
       </c>
@@ -5215,7 +5257,7 @@
       <c r="G90" s="46">
         <v>0.97006700000000001</v>
       </c>
-      <c r="H90" s="81">
+      <c r="H90" s="88">
         <v>0.96641489999999997</v>
       </c>
       <c r="I90" s="19"/>
@@ -5248,7 +5290,7 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B91" s="93"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="17">
         <v>6</v>
       </c>
@@ -5295,7 +5337,7 @@
       </c>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B92" s="94"/>
+      <c r="B92" s="98"/>
       <c r="C92" s="10">
         <v>7</v>
       </c>
@@ -5345,11 +5387,11 @@
       <c r="B95" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="96" t="s">
+      <c r="C95" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="97"/>
-      <c r="E95" s="98"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="102"/>
       <c r="F95" s="48" t="s">
         <v>2</v>
       </c>
@@ -5398,19 +5440,19 @@
       <c r="G96" s="52"/>
       <c r="H96" s="53"/>
       <c r="I96" s="29"/>
-      <c r="J96" s="99" t="s">
+      <c r="J96" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="100"/>
-      <c r="L96" s="100"/>
-      <c r="M96" s="100"/>
-      <c r="N96" s="100"/>
-      <c r="O96" s="100"/>
-      <c r="P96" s="100"/>
-      <c r="Q96" s="101"/>
+      <c r="K96" s="104"/>
+      <c r="L96" s="104"/>
+      <c r="M96" s="104"/>
+      <c r="N96" s="104"/>
+      <c r="O96" s="104"/>
+      <c r="P96" s="104"/>
+      <c r="Q96" s="105"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B97" s="92">
+      <c r="B97" s="96">
         <v>10000000</v>
       </c>
       <c r="C97" s="33">
@@ -5426,11 +5468,11 @@
       <c r="G97" s="56">
         <v>0.97787999999999997</v>
       </c>
-      <c r="H97" s="88">
+      <c r="H97" s="92">
         <v>0.96324010000000004</v>
       </c>
       <c r="I97" s="35"/>
-      <c r="J97" s="84">
+      <c r="J97" s="82">
         <v>0.71778217600000005</v>
       </c>
       <c r="K97" s="56">
@@ -5451,12 +5493,12 @@
       <c r="P97" s="56">
         <v>2.7842993400000002E-5</v>
       </c>
-      <c r="Q97" s="82">
+      <c r="Q97" s="81">
         <v>8.0701815499999996E-3</v>
       </c>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B98" s="93"/>
+      <c r="B98" s="97"/>
       <c r="C98" s="17">
         <v>4</v>
       </c>
@@ -5500,7 +5542,7 @@
       </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B99" s="93"/>
+      <c r="B99" s="97"/>
       <c r="C99" s="17">
         <v>5</v>
       </c>
@@ -5544,7 +5586,7 @@
       </c>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B100" s="93"/>
+      <c r="B100" s="97"/>
       <c r="C100" s="17">
         <v>6</v>
       </c>
@@ -5588,7 +5630,7 @@
       </c>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="94"/>
+      <c r="B101" s="98"/>
       <c r="C101" s="10">
         <v>7</v>
       </c>
@@ -5632,7 +5674,7 @@
       </c>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B102" s="95">
+      <c r="B102" s="99">
         <v>20000000</v>
       </c>
       <c r="C102" s="17">
@@ -5648,7 +5690,7 @@
       <c r="G102" s="46">
         <v>0.97259700000000004</v>
       </c>
-      <c r="H102" s="81">
+      <c r="H102" s="88">
         <v>0.96376139999999999</v>
       </c>
       <c r="I102" s="19"/>
@@ -5678,7 +5720,7 @@
       </c>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B103" s="93"/>
+      <c r="B103" s="97"/>
       <c r="C103" s="17">
         <v>4</v>
       </c>
@@ -5722,7 +5764,7 @@
       </c>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B104" s="93"/>
+      <c r="B104" s="97"/>
       <c r="C104" s="17">
         <v>5</v>
       </c>
@@ -5766,7 +5808,7 @@
       </c>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B105" s="93"/>
+      <c r="B105" s="97"/>
       <c r="C105" s="17">
         <v>6</v>
       </c>
@@ -5810,7 +5852,7 @@
       </c>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B106" s="93"/>
+      <c r="B106" s="97"/>
       <c r="C106" s="17">
         <v>7</v>
       </c>
@@ -5854,7 +5896,7 @@
       </c>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B107" s="92">
+      <c r="B107" s="96">
         <v>30000000</v>
       </c>
       <c r="C107" s="33">
@@ -5874,7 +5916,7 @@
         <v>0.96431109999999998</v>
       </c>
       <c r="I107" s="35"/>
-      <c r="J107" s="84">
+      <c r="J107" s="82">
         <v>0.712134924</v>
       </c>
       <c r="K107" s="56">
@@ -5895,12 +5937,12 @@
       <c r="P107" s="56">
         <v>2.7475398999999998E-5</v>
       </c>
-      <c r="Q107" s="82">
+      <c r="Q107" s="81">
         <v>1.0473998300000001E-2</v>
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B108" s="93"/>
+      <c r="B108" s="97"/>
       <c r="C108" s="17">
         <v>4</v>
       </c>
@@ -5944,7 +5986,7 @@
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B109" s="93"/>
+      <c r="B109" s="97"/>
       <c r="C109" s="17">
         <v>5</v>
       </c>
@@ -5988,7 +6030,7 @@
       </c>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B110" s="93"/>
+      <c r="B110" s="97"/>
       <c r="C110" s="17">
         <v>6</v>
       </c>
@@ -6002,7 +6044,7 @@
       <c r="G110" s="46">
         <v>0.96797900000000003</v>
       </c>
-      <c r="H110" s="81">
+      <c r="H110" s="88">
         <v>0.964391</v>
       </c>
       <c r="I110" s="19"/>
@@ -6032,7 +6074,7 @@
       </c>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B111" s="94"/>
+      <c r="B111" s="98"/>
       <c r="C111" s="10">
         <v>7</v>
       </c>
@@ -6076,7 +6118,7 @@
       </c>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B112" s="95">
+      <c r="B112" s="99">
         <v>40000000</v>
       </c>
       <c r="C112" s="17">
@@ -6122,7 +6164,7 @@
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B113" s="93"/>
+      <c r="B113" s="97"/>
       <c r="C113" s="17">
         <v>4</v>
       </c>
@@ -6166,7 +6208,7 @@
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B114" s="93"/>
+      <c r="B114" s="97"/>
       <c r="C114" s="17">
         <v>5</v>
       </c>
@@ -6210,7 +6252,7 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B115" s="93"/>
+      <c r="B115" s="97"/>
       <c r="C115" s="17">
         <v>6</v>
       </c>
@@ -6254,7 +6296,7 @@
       </c>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="93"/>
+      <c r="B116" s="97"/>
       <c r="C116" s="17">
         <v>7</v>
       </c>
@@ -6262,16 +6304,18 @@
       <c r="E116" s="28">
         <v>342</v>
       </c>
-      <c r="F116" s="46">
+      <c r="F116" s="58">
         <v>0.97009000000000001</v>
       </c>
-      <c r="G116" s="46">
+      <c r="G116" s="58">
         <v>0.96706899999999996</v>
       </c>
-      <c r="H116" s="81">
+      <c r="H116" s="69">
         <v>0.96444790000000002</v>
       </c>
-      <c r="I116" s="19"/>
+      <c r="I116" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="J116" s="55">
         <v>0.69816149299999997</v>
       </c>
@@ -6298,7 +6342,7 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B117" s="92">
+      <c r="B117" s="96">
         <v>50000000</v>
       </c>
       <c r="C117" s="33">
@@ -6318,7 +6362,7 @@
         <v>0.96386110000000003</v>
       </c>
       <c r="I117" s="35"/>
-      <c r="J117" s="84">
+      <c r="J117" s="82">
         <v>0.70609451400000001</v>
       </c>
       <c r="K117" s="56">
@@ -6339,12 +6383,12 @@
       <c r="P117" s="56">
         <v>3.1274426399999997E-5</v>
       </c>
-      <c r="Q117" s="82">
+      <c r="Q117" s="81">
         <v>1.2120831800000001E-2</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B118" s="93"/>
+      <c r="B118" s="97"/>
       <c r="C118" s="17">
         <v>4</v>
       </c>
@@ -6388,7 +6432,7 @@
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B119" s="93"/>
+      <c r="B119" s="97"/>
       <c r="C119" s="17">
         <v>5</v>
       </c>
@@ -6432,7 +6476,7 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B120" s="93"/>
+      <c r="B120" s="97"/>
       <c r="C120" s="17">
         <v>6</v>
       </c>
@@ -6476,7 +6520,7 @@
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B121" s="94"/>
+      <c r="B121" s="98"/>
       <c r="C121" s="10">
         <v>7</v>
       </c>
@@ -6490,7 +6534,7 @@
       <c r="G121" s="52">
         <v>0.96774700000000002</v>
       </c>
-      <c r="H121" s="83">
+      <c r="H121" s="87">
         <v>0.9639373</v>
       </c>
       <c r="I121" s="23"/>
@@ -6561,9 +6605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC141"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6588,11 +6630,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -6672,30 +6714,30 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="111"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="115"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="17">
@@ -6772,7 +6814,7 @@
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="93"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="17">
         <v>4</v>
       </c>
@@ -6847,7 +6889,7 @@
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B8" s="93"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="17">
         <v>5</v>
       </c>
@@ -6922,7 +6964,7 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="93"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="17">
         <v>6</v>
       </c>
@@ -6997,7 +7039,7 @@
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B10" s="94"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="10">
         <v>7</v>
       </c>
@@ -7077,11 +7119,11 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="48" t="s">
         <v>2</v>
       </c>
@@ -7159,29 +7201,29 @@
       <c r="G14" s="56"/>
       <c r="H14" s="57"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="109" t="s">
+      <c r="J14" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="111"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="115"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="17">
@@ -7253,7 +7295,7 @@
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B16" s="93"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="17">
         <v>4</v>
       </c>
@@ -7323,7 +7365,7 @@
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B17" s="93"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="17">
         <v>5</v>
       </c>
@@ -7395,7 +7437,7 @@
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B18" s="93"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="17">
         <v>6</v>
       </c>
@@ -7467,7 +7509,7 @@
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B19" s="94"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="10">
         <v>7</v>
       </c>
@@ -7542,11 +7584,11 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="48" t="s">
         <v>2</v>
       </c>
@@ -7621,28 +7663,28 @@
       <c r="G23" s="46"/>
       <c r="H23" s="47"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="89" t="s">
+      <c r="J23" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="91"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="95"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="97" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="17">
@@ -7711,7 +7753,7 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B25" s="93"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="17">
         <v>4</v>
       </c>
@@ -7778,7 +7820,7 @@
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B26" s="93"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="17">
         <v>5</v>
       </c>
@@ -7845,7 +7887,7 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B27" s="93"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="17">
         <v>6</v>
       </c>
@@ -7914,7 +7956,7 @@
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B28" s="93"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="17">
         <v>7</v>
       </c>
@@ -7995,31 +8037,31 @@
       <c r="G29" s="56"/>
       <c r="H29" s="57"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="112" t="s">
+      <c r="J29" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="114"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="117"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="118"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="110">
         <v>3</v>
       </c>
       <c r="D30" s="19">
@@ -8087,8 +8129,8 @@
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="93"/>
-      <c r="C31" s="106"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="110"/>
       <c r="D31" s="19">
         <v>70</v>
       </c>
@@ -8154,8 +8196,8 @@
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="93"/>
-      <c r="C32" s="106"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="19">
         <v>100</v>
       </c>
@@ -8221,8 +8263,8 @@
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B33" s="93"/>
-      <c r="C33" s="106">
+      <c r="B33" s="97"/>
+      <c r="C33" s="110">
         <v>4</v>
       </c>
       <c r="D33" s="19">
@@ -8290,8 +8332,8 @@
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="93"/>
-      <c r="C34" s="106"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="19">
         <v>70</v>
       </c>
@@ -8357,8 +8399,8 @@
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="93"/>
-      <c r="C35" s="106"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="19">
         <v>100</v>
       </c>
@@ -8424,8 +8466,8 @@
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="93"/>
-      <c r="C36" s="106">
+      <c r="B36" s="97"/>
+      <c r="C36" s="110">
         <v>5</v>
       </c>
       <c r="D36" s="19">
@@ -8495,8 +8537,8 @@
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B37" s="93"/>
-      <c r="C37" s="106"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="19">
         <v>70</v>
       </c>
@@ -8564,8 +8606,8 @@
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="93"/>
-      <c r="C38" s="106"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="19">
         <v>100</v>
       </c>
@@ -8633,8 +8675,8 @@
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="93"/>
-      <c r="C39" s="106">
+      <c r="B39" s="97"/>
+      <c r="C39" s="110">
         <v>6</v>
       </c>
       <c r="D39" s="19">
@@ -8704,8 +8746,8 @@
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="93"/>
-      <c r="C40" s="106"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="19">
         <v>70</v>
       </c>
@@ -8773,8 +8815,8 @@
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="93"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="19">
         <v>100</v>
       </c>
@@ -8842,8 +8884,8 @@
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="93"/>
-      <c r="C42" s="106">
+      <c r="B42" s="97"/>
+      <c r="C42" s="110">
         <v>7</v>
       </c>
       <c r="D42" s="19">
@@ -8859,7 +8901,9 @@
       <c r="H42" s="69">
         <v>0.9591653</v>
       </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="J42" s="55">
         <v>0.20655709799999999</v>
       </c>
@@ -8913,8 +8957,8 @@
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="93"/>
-      <c r="C43" s="106"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="19">
         <v>70</v>
       </c>
@@ -8982,8 +9026,8 @@
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="94"/>
-      <c r="C44" s="107"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="23">
         <v>100</v>
       </c>
@@ -9065,34 +9109,34 @@
       <c r="G45" s="56"/>
       <c r="H45" s="57"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="112" t="s">
+      <c r="J45" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="114"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="117"/>
+      <c r="T45" s="117"/>
+      <c r="U45" s="117"/>
+      <c r="V45" s="117"/>
+      <c r="W45" s="117"/>
+      <c r="X45" s="117"/>
+      <c r="Y45" s="117"/>
+      <c r="Z45" s="118"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="106">
+      <c r="C46" s="110">
         <v>5</v>
       </c>
-      <c r="D46" s="105">
+      <c r="D46" s="109">
         <v>1E-3</v>
       </c>
       <c r="E46" s="28">
@@ -9159,9 +9203,9 @@
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="93"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="105"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="109"/>
       <c r="E47" s="28">
         <v>70</v>
       </c>
@@ -9226,9 +9270,9 @@
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B48" s="93"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="105">
+      <c r="B48" s="97"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="109">
         <v>0.01</v>
       </c>
       <c r="E48" s="28">
@@ -9297,9 +9341,9 @@
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B49" s="93"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="105"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="109"/>
       <c r="E49" s="28">
         <v>70</v>
       </c>
@@ -9366,9 +9410,9 @@
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B50" s="93"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="105">
+      <c r="B50" s="97"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="109">
         <v>0.1</v>
       </c>
       <c r="E50" s="28">
@@ -9435,9 +9479,9 @@
       </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="93"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="105"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="109"/>
       <c r="E51" s="28">
         <v>70</v>
       </c>
@@ -9502,11 +9546,11 @@
       </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B52" s="93"/>
-      <c r="C52" s="106">
+      <c r="B52" s="97"/>
+      <c r="C52" s="110">
         <v>6</v>
       </c>
-      <c r="D52" s="105">
+      <c r="D52" s="109">
         <v>1E-3</v>
       </c>
       <c r="E52" s="28">
@@ -9575,9 +9619,9 @@
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B53" s="93"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="105"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="109"/>
       <c r="E53" s="28">
         <v>70</v>
       </c>
@@ -9644,9 +9688,9 @@
       </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B54" s="93"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="105">
+      <c r="B54" s="97"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="109">
         <v>0.01</v>
       </c>
       <c r="E54" s="28">
@@ -9715,9 +9759,9 @@
       </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="93"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="105"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="109"/>
       <c r="E55" s="28">
         <v>70</v>
       </c>
@@ -9784,9 +9828,9 @@
       </c>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B56" s="93"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="105">
+      <c r="B56" s="97"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="109">
         <v>0.1</v>
       </c>
       <c r="E56" s="28">
@@ -9853,9 +9897,9 @@
       </c>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="105"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="109"/>
       <c r="E57" s="28">
         <v>70</v>
       </c>
@@ -9920,11 +9964,11 @@
       </c>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B58" s="93"/>
-      <c r="C58" s="106">
+      <c r="B58" s="97"/>
+      <c r="C58" s="110">
         <v>7</v>
       </c>
-      <c r="D58" s="105">
+      <c r="D58" s="109">
         <v>1E-3</v>
       </c>
       <c r="E58" s="28">
@@ -9993,9 +10037,9 @@
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B59" s="93"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="105"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="109"/>
       <c r="E59" s="28">
         <v>70</v>
       </c>
@@ -10062,9 +10106,9 @@
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="93"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="105">
+      <c r="B60" s="97"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="109">
         <v>0.01</v>
       </c>
       <c r="E60" s="28">
@@ -10133,9 +10177,9 @@
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B61" s="93"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="105"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="109"/>
       <c r="E61" s="28">
         <v>70</v>
       </c>
@@ -10202,9 +10246,9 @@
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="93"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="105">
+      <c r="B62" s="97"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="109">
         <v>0.1</v>
       </c>
       <c r="E62" s="28">
@@ -10271,9 +10315,9 @@
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="94"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="108"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="112"/>
       <c r="E63" s="29">
         <v>70</v>
       </c>
@@ -10341,11 +10385,11 @@
       <c r="B66" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="97"/>
-      <c r="E66" s="98"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="102"/>
       <c r="F66" s="48" t="s">
         <v>2</v>
       </c>
@@ -10411,28 +10455,28 @@
       <c r="G67" s="56"/>
       <c r="H67" s="57"/>
       <c r="I67" s="35"/>
-      <c r="J67" s="112" t="s">
+      <c r="J67" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="K67" s="113"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="113"/>
-      <c r="N67" s="113"/>
-      <c r="O67" s="113"/>
-      <c r="P67" s="113"/>
-      <c r="Q67" s="113"/>
-      <c r="R67" s="113"/>
-      <c r="S67" s="113"/>
-      <c r="T67" s="113"/>
-      <c r="U67" s="113"/>
-      <c r="V67" s="114"/>
+      <c r="K67" s="117"/>
+      <c r="L67" s="117"/>
+      <c r="M67" s="117"/>
+      <c r="N67" s="117"/>
+      <c r="O67" s="117"/>
+      <c r="P67" s="117"/>
+      <c r="Q67" s="117"/>
+      <c r="R67" s="117"/>
+      <c r="S67" s="117"/>
+      <c r="T67" s="117"/>
+      <c r="U67" s="117"/>
+      <c r="V67" s="118"/>
       <c r="W67"/>
       <c r="X67"/>
       <c r="Y67"/>
       <c r="Z67"/>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B68" s="93" t="s">
+      <c r="B68" s="97" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="17">
@@ -10493,7 +10537,7 @@
       <c r="Z68"/>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B69" s="93"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="17">
         <v>4</v>
       </c>
@@ -10548,7 +10592,7 @@
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B70" s="93"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="17">
         <v>5</v>
       </c>
@@ -10603,7 +10647,7 @@
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B71" s="93"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="17">
         <v>6</v>
       </c>
@@ -10660,7 +10704,7 @@
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B72" s="94"/>
+      <c r="B72" s="98"/>
       <c r="C72" s="10">
         <v>7</v>
       </c>
@@ -10731,30 +10775,30 @@
       <c r="G73" s="56"/>
       <c r="H73" s="57"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="112" t="s">
+      <c r="J73" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="113"/>
-      <c r="P73" s="113"/>
-      <c r="Q73" s="113"/>
-      <c r="R73" s="113"/>
-      <c r="S73" s="113"/>
-      <c r="T73" s="113"/>
-      <c r="U73" s="113"/>
-      <c r="V73" s="114"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="117"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="117"/>
+      <c r="Q73" s="117"/>
+      <c r="R73" s="117"/>
+      <c r="S73" s="117"/>
+      <c r="T73" s="117"/>
+      <c r="U73" s="117"/>
+      <c r="V73" s="118"/>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B74" s="93" t="s">
+      <c r="B74" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="106">
+      <c r="C74" s="110">
         <v>5</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="109">
         <v>1E-3</v>
       </c>
       <c r="E74" s="28">
@@ -10809,9 +10853,9 @@
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B75" s="93"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="105"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="109"/>
       <c r="E75" s="28">
         <v>70</v>
       </c>
@@ -10864,9 +10908,9 @@
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B76" s="93"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="105">
+      <c r="B76" s="97"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="109">
         <v>0.01</v>
       </c>
       <c r="E76" s="28">
@@ -10923,9 +10967,9 @@
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B77" s="93"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="105"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="109"/>
       <c r="E77" s="28">
         <v>70</v>
       </c>
@@ -10980,9 +11024,9 @@
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B78" s="93"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="105">
+      <c r="B78" s="97"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="109">
         <v>0.1</v>
       </c>
       <c r="E78" s="28">
@@ -11037,9 +11081,9 @@
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B79" s="93"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="105"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="109"/>
       <c r="E79" s="28">
         <v>70</v>
       </c>
@@ -11092,11 +11136,11 @@
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B80" s="93"/>
-      <c r="C80" s="106">
+      <c r="B80" s="97"/>
+      <c r="C80" s="110">
         <v>6</v>
       </c>
-      <c r="D80" s="105">
+      <c r="D80" s="109">
         <v>1E-3</v>
       </c>
       <c r="E80" s="28">
@@ -11153,9 +11197,9 @@
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B81" s="93"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="105"/>
+      <c r="B81" s="97"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="109"/>
       <c r="E81" s="28">
         <v>70</v>
       </c>
@@ -11210,9 +11254,9 @@
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B82" s="93"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="105">
+      <c r="B82" s="97"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="109">
         <v>0.01</v>
       </c>
       <c r="E82" s="28">
@@ -11269,9 +11313,9 @@
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B83" s="93"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="105"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="109"/>
       <c r="E83" s="28">
         <v>70</v>
       </c>
@@ -11326,9 +11370,9 @@
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B84" s="93"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="105">
+      <c r="B84" s="97"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="109">
         <v>0.1</v>
       </c>
       <c r="E84" s="28">
@@ -11383,9 +11427,9 @@
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B85" s="93"/>
-      <c r="C85" s="106"/>
-      <c r="D85" s="105"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="109"/>
       <c r="E85" s="28">
         <v>70</v>
       </c>
@@ -11438,11 +11482,11 @@
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B86" s="93"/>
-      <c r="C86" s="106">
+      <c r="B86" s="97"/>
+      <c r="C86" s="110">
         <v>7</v>
       </c>
-      <c r="D86" s="105">
+      <c r="D86" s="109">
         <v>1E-3</v>
       </c>
       <c r="E86" s="28">
@@ -11499,9 +11543,9 @@
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B87" s="93"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="105"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="109"/>
       <c r="E87" s="28">
         <v>70</v>
       </c>
@@ -11556,9 +11600,9 @@
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B88" s="93"/>
-      <c r="C88" s="106"/>
-      <c r="D88" s="105">
+      <c r="B88" s="97"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="109">
         <v>0.01</v>
       </c>
       <c r="E88" s="28">
@@ -11615,9 +11659,9 @@
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B89" s="93"/>
-      <c r="C89" s="106"/>
-      <c r="D89" s="105"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="109"/>
       <c r="E89" s="28">
         <v>70</v>
       </c>
@@ -11630,7 +11674,9 @@
       <c r="H89" s="69">
         <v>0.95598459999999996</v>
       </c>
-      <c r="I89" s="19"/>
+      <c r="I89" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="J89" s="55">
         <v>0.35276973700000003</v>
       </c>
@@ -11672,9 +11718,9 @@
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B90" s="93"/>
-      <c r="C90" s="106"/>
-      <c r="D90" s="105">
+      <c r="B90" s="97"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="109">
         <v>0.1</v>
       </c>
       <c r="E90" s="28">
@@ -11729,9 +11775,9 @@
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B91" s="94"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="108"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="112"/>
       <c r="E91" s="29">
         <v>70</v>
       </c>
@@ -11793,11 +11839,11 @@
       <c r="B94" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="102" t="s">
+      <c r="C94" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="103"/>
-      <c r="E94" s="104"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="108"/>
       <c r="F94" s="76" t="s">
         <v>2</v>
       </c>
@@ -11855,20 +11901,20 @@
       <c r="G95" s="56"/>
       <c r="H95" s="57"/>
       <c r="I95" s="35"/>
-      <c r="J95" s="112" t="s">
+      <c r="J95" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="113"/>
-      <c r="L95" s="113"/>
-      <c r="M95" s="113"/>
-      <c r="N95" s="113"/>
-      <c r="O95" s="113"/>
-      <c r="P95" s="113"/>
-      <c r="Q95" s="113"/>
-      <c r="R95" s="114"/>
+      <c r="K95" s="117"/>
+      <c r="L95" s="117"/>
+      <c r="M95" s="117"/>
+      <c r="N95" s="117"/>
+      <c r="O95" s="117"/>
+      <c r="P95" s="117"/>
+      <c r="Q95" s="117"/>
+      <c r="R95" s="118"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B96" s="93" t="s">
+      <c r="B96" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C96" s="17">
@@ -11916,7 +11962,7 @@
       <c r="AC96"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B97" s="93"/>
+      <c r="B97" s="97"/>
       <c r="C97" s="17">
         <v>4</v>
       </c>
@@ -11959,7 +12005,7 @@
       </c>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B98" s="93"/>
+      <c r="B98" s="97"/>
       <c r="C98" s="17">
         <v>5</v>
       </c>
@@ -12002,7 +12048,7 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B99" s="93"/>
+      <c r="B99" s="97"/>
       <c r="C99" s="17">
         <v>6</v>
       </c>
@@ -12047,7 +12093,7 @@
       </c>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B100" s="94"/>
+      <c r="B100" s="98"/>
       <c r="C100" s="10">
         <v>7</v>
       </c>
@@ -12104,23 +12150,23 @@
       <c r="G101" s="56"/>
       <c r="H101" s="57"/>
       <c r="I101" s="35"/>
-      <c r="J101" s="112" t="s">
+      <c r="J101" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="K101" s="113"/>
-      <c r="L101" s="113"/>
-      <c r="M101" s="113"/>
-      <c r="N101" s="113"/>
-      <c r="O101" s="113"/>
-      <c r="P101" s="113"/>
-      <c r="Q101" s="113"/>
-      <c r="R101" s="114"/>
+      <c r="K101" s="117"/>
+      <c r="L101" s="117"/>
+      <c r="M101" s="117"/>
+      <c r="N101" s="117"/>
+      <c r="O101" s="117"/>
+      <c r="P101" s="117"/>
+      <c r="Q101" s="117"/>
+      <c r="R101" s="118"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B102" s="93" t="s">
+      <c r="B102" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="106">
+      <c r="C102" s="110">
         <v>3</v>
       </c>
       <c r="D102" s="19">
@@ -12166,8 +12212,8 @@
       </c>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B103" s="93"/>
-      <c r="C103" s="106"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="110"/>
       <c r="D103" s="19">
         <v>70</v>
       </c>
@@ -12211,8 +12257,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B104" s="93"/>
-      <c r="C104" s="106"/>
+      <c r="B104" s="97"/>
+      <c r="C104" s="110"/>
       <c r="D104" s="19">
         <v>100</v>
       </c>
@@ -12256,8 +12302,8 @@
       </c>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B105" s="93"/>
-      <c r="C105" s="106">
+      <c r="B105" s="97"/>
+      <c r="C105" s="110">
         <v>4</v>
       </c>
       <c r="D105" s="19">
@@ -12303,8 +12349,8 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B106" s="93"/>
-      <c r="C106" s="106"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="110"/>
       <c r="D106" s="19">
         <v>70</v>
       </c>
@@ -12348,8 +12394,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B107" s="93"/>
-      <c r="C107" s="106"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="110"/>
       <c r="D107" s="19">
         <v>100</v>
       </c>
@@ -12393,8 +12439,8 @@
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B108" s="93"/>
-      <c r="C108" s="106">
+      <c r="B108" s="97"/>
+      <c r="C108" s="110">
         <v>5</v>
       </c>
       <c r="D108" s="19">
@@ -12440,8 +12486,8 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B109" s="93"/>
-      <c r="C109" s="106"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="110"/>
       <c r="D109" s="19">
         <v>70</v>
       </c>
@@ -12485,8 +12531,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B110" s="93"/>
-      <c r="C110" s="106"/>
+      <c r="B110" s="97"/>
+      <c r="C110" s="110"/>
       <c r="D110" s="19">
         <v>100</v>
       </c>
@@ -12530,8 +12576,8 @@
       </c>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B111" s="93"/>
-      <c r="C111" s="106">
+      <c r="B111" s="97"/>
+      <c r="C111" s="110">
         <v>6</v>
       </c>
       <c r="D111" s="19">
@@ -12577,8 +12623,8 @@
       </c>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="93"/>
-      <c r="C112" s="106"/>
+      <c r="B112" s="97"/>
+      <c r="C112" s="110"/>
       <c r="D112" s="19">
         <v>70</v>
       </c>
@@ -12622,8 +12668,8 @@
       </c>
     </row>
     <row r="113" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B113" s="93"/>
-      <c r="C113" s="106"/>
+      <c r="B113" s="97"/>
+      <c r="C113" s="110"/>
       <c r="D113" s="19">
         <v>100</v>
       </c>
@@ -12667,24 +12713,26 @@
       </c>
     </row>
     <row r="114" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B114" s="93"/>
-      <c r="C114" s="106">
+      <c r="B114" s="97"/>
+      <c r="C114" s="110">
         <v>7</v>
       </c>
       <c r="D114" s="19">
         <v>50</v>
       </c>
       <c r="E114" s="28"/>
-      <c r="F114" s="46">
+      <c r="F114" s="58">
         <v>0.96736</v>
       </c>
-      <c r="G114" s="46">
+      <c r="G114" s="58">
         <v>0.96643999999999997</v>
       </c>
-      <c r="H114" s="47">
+      <c r="H114" s="69">
         <v>0.96010220000000002</v>
       </c>
-      <c r="I114" s="19"/>
+      <c r="I114" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="J114" s="55">
         <v>0.30305936999999999</v>
       </c>
@@ -12714,8 +12762,8 @@
       </c>
     </row>
     <row r="115" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B115" s="93"/>
-      <c r="C115" s="106"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="110"/>
       <c r="D115" s="19">
         <v>70</v>
       </c>
@@ -12759,8 +12807,8 @@
       </c>
     </row>
     <row r="116" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B116" s="94"/>
-      <c r="C116" s="107"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="111"/>
       <c r="D116" s="23">
         <v>100</v>
       </c>
@@ -12807,11 +12855,11 @@
       <c r="B119" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C119" s="96" t="s">
+      <c r="C119" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="97"/>
-      <c r="E119" s="98"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="102"/>
       <c r="F119" s="48" t="s">
         <v>2</v>
       </c>
@@ -12869,16 +12917,16 @@
       <c r="G120" s="56"/>
       <c r="H120" s="57"/>
       <c r="I120" s="35"/>
-      <c r="J120" s="115" t="s">
+      <c r="J120" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K120" s="116"/>
-      <c r="L120" s="116"/>
-      <c r="M120" s="116"/>
-      <c r="N120" s="116"/>
-      <c r="O120" s="116"/>
-      <c r="P120" s="116"/>
-      <c r="Q120" s="117"/>
+      <c r="K120" s="120"/>
+      <c r="L120" s="120"/>
+      <c r="M120" s="120"/>
+      <c r="N120" s="120"/>
+      <c r="O120" s="120"/>
+      <c r="P120" s="120"/>
+      <c r="Q120" s="121"/>
       <c r="R120"/>
       <c r="S120"/>
       <c r="T120"/>
@@ -12892,7 +12940,7 @@
       <c r="AB120"/>
     </row>
     <row r="121" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B121" s="93" t="s">
+      <c r="B121" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C121" s="17">
@@ -12934,7 +12982,7 @@
       </c>
     </row>
     <row r="122" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B122" s="93"/>
+      <c r="B122" s="97"/>
       <c r="C122" s="17">
         <v>4</v>
       </c>
@@ -12974,7 +13022,7 @@
       </c>
     </row>
     <row r="123" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B123" s="93"/>
+      <c r="B123" s="97"/>
       <c r="C123" s="17">
         <v>5</v>
       </c>
@@ -13014,7 +13062,7 @@
       </c>
     </row>
     <row r="124" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B124" s="93"/>
+      <c r="B124" s="97"/>
       <c r="C124" s="17">
         <v>6</v>
       </c>
@@ -13056,7 +13104,7 @@
       </c>
     </row>
     <row r="125" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B125" s="94"/>
+      <c r="B125" s="98"/>
       <c r="C125" s="10">
         <v>7</v>
       </c>
@@ -13120,10 +13168,10 @@
       <c r="Q126" s="51"/>
     </row>
     <row r="127" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B127" s="93" t="s">
+      <c r="B127" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C127" s="106">
+      <c r="C127" s="110">
         <v>3</v>
       </c>
       <c r="D127" s="19">
@@ -13166,8 +13214,8 @@
       </c>
     </row>
     <row r="128" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B128" s="93"/>
-      <c r="C128" s="106"/>
+      <c r="B128" s="97"/>
+      <c r="C128" s="110"/>
       <c r="D128" s="19">
         <v>70</v>
       </c>
@@ -13208,8 +13256,8 @@
       </c>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B129" s="93"/>
-      <c r="C129" s="106"/>
+      <c r="B129" s="97"/>
+      <c r="C129" s="110"/>
       <c r="D129" s="19">
         <v>100</v>
       </c>
@@ -13250,8 +13298,8 @@
       </c>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B130" s="93"/>
-      <c r="C130" s="106">
+      <c r="B130" s="97"/>
+      <c r="C130" s="110">
         <v>4</v>
       </c>
       <c r="D130" s="19">
@@ -13294,8 +13342,8 @@
       </c>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B131" s="93"/>
-      <c r="C131" s="106"/>
+      <c r="B131" s="97"/>
+      <c r="C131" s="110"/>
       <c r="D131" s="19">
         <v>70</v>
       </c>
@@ -13336,8 +13384,8 @@
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B132" s="93"/>
-      <c r="C132" s="106"/>
+      <c r="B132" s="97"/>
+      <c r="C132" s="110"/>
       <c r="D132" s="19">
         <v>100</v>
       </c>
@@ -13378,8 +13426,8 @@
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B133" s="93"/>
-      <c r="C133" s="106">
+      <c r="B133" s="97"/>
+      <c r="C133" s="110">
         <v>5</v>
       </c>
       <c r="D133" s="19">
@@ -13422,8 +13470,8 @@
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B134" s="93"/>
-      <c r="C134" s="106"/>
+      <c r="B134" s="97"/>
+      <c r="C134" s="110"/>
       <c r="D134" s="19">
         <v>70</v>
       </c>
@@ -13464,8 +13512,8 @@
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B135" s="93"/>
-      <c r="C135" s="106"/>
+      <c r="B135" s="97"/>
+      <c r="C135" s="110"/>
       <c r="D135" s="19">
         <v>100</v>
       </c>
@@ -13506,8 +13554,8 @@
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B136" s="93"/>
-      <c r="C136" s="106">
+      <c r="B136" s="97"/>
+      <c r="C136" s="110">
         <v>6</v>
       </c>
       <c r="D136" s="19">
@@ -13550,8 +13598,8 @@
       </c>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B137" s="93"/>
-      <c r="C137" s="106"/>
+      <c r="B137" s="97"/>
+      <c r="C137" s="110"/>
       <c r="D137" s="19">
         <v>70</v>
       </c>
@@ -13592,8 +13640,8 @@
       </c>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B138" s="93"/>
-      <c r="C138" s="106"/>
+      <c r="B138" s="97"/>
+      <c r="C138" s="110"/>
       <c r="D138" s="19">
         <v>100</v>
       </c>
@@ -13634,24 +13682,26 @@
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B139" s="93"/>
-      <c r="C139" s="106">
+      <c r="B139" s="97"/>
+      <c r="C139" s="110">
         <v>7</v>
       </c>
       <c r="D139" s="19">
         <v>50</v>
       </c>
       <c r="E139" s="28"/>
-      <c r="F139" s="46">
+      <c r="F139" s="58">
         <v>0.96423000000000003</v>
       </c>
-      <c r="G139" s="46">
+      <c r="G139" s="58">
         <v>0.9637</v>
       </c>
-      <c r="H139" s="47">
+      <c r="H139" s="69">
         <v>0.95823239999999998</v>
       </c>
-      <c r="I139" s="19"/>
+      <c r="I139" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="J139" s="55">
         <v>0.24748695000000001</v>
       </c>
@@ -13678,8 +13728,8 @@
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B140" s="93"/>
-      <c r="C140" s="106"/>
+      <c r="B140" s="97"/>
+      <c r="C140" s="110"/>
       <c r="D140" s="19">
         <v>70</v>
       </c>
@@ -13720,8 +13770,8 @@
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B141" s="94"/>
-      <c r="C141" s="107"/>
+      <c r="B141" s="98"/>
+      <c r="C141" s="111"/>
       <c r="D141" s="23">
         <v>100</v>
       </c>
@@ -13840,9 +13890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13867,11 +13915,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
@@ -13913,17 +13961,17 @@
       <c r="G5" s="37"/>
       <c r="H5" s="38"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="111"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="115"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="123" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="17">
@@ -13961,7 +14009,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="119"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -13995,7 +14043,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="119"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -14029,7 +14077,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="119"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -14063,7 +14111,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="120"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -14107,17 +14155,17 @@
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="121" t="s">
+      <c r="J11" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="123"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="127"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="97" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="17">
@@ -14153,7 +14201,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="93"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -14187,7 +14235,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="93"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -14221,7 +14269,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="93"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="17">
         <v>6</v>
       </c>
@@ -14255,7 +14303,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="94"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="10">
         <v>7</v>
       </c>
@@ -14296,11 +14344,11 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="13" t="s">
         <v>2</v>
       </c>
@@ -14340,16 +14388,16 @@
       <c r="G20" s="37"/>
       <c r="H20" s="38"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="109" t="s">
+      <c r="J20" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="111"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="115"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="97" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="17">
@@ -14386,7 +14434,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="93"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="17">
         <v>0.1</v>
       </c>
@@ -14417,7 +14465,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="93"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="17">
         <v>1</v>
       </c>
@@ -14448,7 +14496,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="93"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -14479,7 +14527,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="94"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="10">
         <v>100</v>
       </c>
@@ -14520,16 +14568,16 @@
       <c r="G26" s="20"/>
       <c r="H26" s="21"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="121" t="s">
+      <c r="J26" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="127"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="17">
@@ -14562,7 +14610,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="93"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="17">
         <v>4</v>
       </c>
@@ -14593,7 +14641,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="93"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="17">
         <v>5</v>
       </c>
@@ -14626,7 +14674,7 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="93"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="17">
         <v>6</v>
       </c>
@@ -14659,7 +14707,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="94"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="10">
         <v>7</v>
       </c>
@@ -14695,11 +14743,11 @@
       <c r="B34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="98"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102"/>
       <c r="F34" s="13" t="s">
         <v>2</v>
       </c>
@@ -14733,14 +14781,14 @@
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="109" t="s">
+      <c r="J35" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="115"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="97" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="17">
@@ -14769,7 +14817,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="93"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="17">
         <v>0.1</v>
       </c>
@@ -14794,7 +14842,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="93"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="17">
         <v>1</v>
       </c>
@@ -14819,7 +14867,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="93"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="17">
         <v>10</v>
       </c>
@@ -14844,7 +14892,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="94"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="10">
         <v>100</v>
       </c>
@@ -14879,14 +14927,14 @@
       <c r="G41" s="20"/>
       <c r="H41" s="21"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="121" t="s">
+      <c r="J41" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="122"/>
-      <c r="L41" s="123"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="127"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="17">
@@ -14913,7 +14961,7 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="93"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="17">
         <v>4</v>
       </c>
@@ -14938,7 +14986,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="93"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="17">
         <v>5</v>
       </c>
@@ -14965,7 +15013,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="93"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="17">
         <v>6</v>
       </c>
@@ -14992,7 +15040,7 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="93"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="17">
         <v>7</v>
       </c>
@@ -15033,17 +15081,17 @@
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="109" t="s">
+      <c r="J47" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="110"/>
-      <c r="L47" s="111"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="115"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="106">
+      <c r="C48" s="110">
         <v>3</v>
       </c>
       <c r="D48" s="19">
@@ -15069,8 +15117,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="93"/>
-      <c r="C49" s="106"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="19">
         <v>70</v>
       </c>
@@ -15094,8 +15142,8 @@
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="93"/>
-      <c r="C50" s="106"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="19">
         <v>100</v>
       </c>
@@ -15119,8 +15167,8 @@
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="93"/>
-      <c r="C51" s="106">
+      <c r="B51" s="97"/>
+      <c r="C51" s="110">
         <v>4</v>
       </c>
       <c r="D51" s="19">
@@ -15146,8 +15194,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="93"/>
-      <c r="C52" s="106"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="19">
         <v>70</v>
       </c>
@@ -15171,8 +15219,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="93"/>
-      <c r="C53" s="106"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="110"/>
       <c r="D53" s="19">
         <v>100</v>
       </c>
@@ -15196,8 +15244,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="93"/>
-      <c r="C54" s="106">
+      <c r="B54" s="97"/>
+      <c r="C54" s="110">
         <v>5</v>
       </c>
       <c r="D54" s="19">
@@ -15223,8 +15271,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="93"/>
-      <c r="C55" s="106"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="110"/>
       <c r="D55" s="19">
         <v>70</v>
       </c>
@@ -15248,8 +15296,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="93"/>
-      <c r="C56" s="106"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="110"/>
       <c r="D56" s="19">
         <v>100</v>
       </c>
@@ -15273,8 +15321,8 @@
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
-      <c r="C57" s="118">
+      <c r="B57" s="97"/>
+      <c r="C57" s="122">
         <v>6</v>
       </c>
       <c r="D57" s="19">
@@ -15302,8 +15350,8 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="93"/>
-      <c r="C58" s="118"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="122"/>
       <c r="D58" s="19">
         <v>70</v>
       </c>
@@ -15329,8 +15377,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="93"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="19">
         <v>100</v>
       </c>
@@ -15356,8 +15404,8 @@
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="93"/>
-      <c r="C60" s="106">
+      <c r="B60" s="97"/>
+      <c r="C60" s="110">
         <v>7</v>
       </c>
       <c r="D60" s="19">
@@ -15387,8 +15435,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="93"/>
-      <c r="C61" s="106"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="110"/>
       <c r="D61" s="19">
         <v>70</v>
       </c>
@@ -15414,8 +15462,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="94"/>
-      <c r="C62" s="107"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="111"/>
       <c r="D62" s="23">
         <v>100</v>
       </c>
@@ -15455,20 +15503,20 @@
       <c r="G63" s="37"/>
       <c r="H63" s="38"/>
       <c r="I63" s="36"/>
-      <c r="J63" s="109" t="s">
+      <c r="J63" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="110"/>
-      <c r="L63" s="111"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="115"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="106">
+      <c r="C64" s="110">
         <v>5</v>
       </c>
-      <c r="D64" s="105">
+      <c r="D64" s="109">
         <v>1E-3</v>
       </c>
       <c r="E64" s="28">
@@ -15493,9 +15541,9 @@
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="124"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="105"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="109"/>
       <c r="E65" s="28">
         <v>70</v>
       </c>
@@ -15518,9 +15566,9 @@
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="124"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="105">
+      <c r="B66" s="128"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="109">
         <v>0.01</v>
       </c>
       <c r="E66" s="28">
@@ -15545,9 +15593,9 @@
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="124"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="105"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="109"/>
       <c r="E67" s="28">
         <v>70</v>
       </c>
@@ -15570,9 +15618,9 @@
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="124"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="105">
+      <c r="B68" s="128"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="109">
         <v>0.1</v>
       </c>
       <c r="E68" s="28">
@@ -15597,9 +15645,9 @@
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="124"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="105"/>
+      <c r="B69" s="128"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="109"/>
       <c r="E69" s="28">
         <v>70</v>
       </c>
@@ -15622,11 +15670,11 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="124"/>
-      <c r="C70" s="106">
+      <c r="B70" s="128"/>
+      <c r="C70" s="110">
         <v>6</v>
       </c>
-      <c r="D70" s="105">
+      <c r="D70" s="109">
         <v>1E-3</v>
       </c>
       <c r="E70" s="28">
@@ -15651,9 +15699,9 @@
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="124"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="105"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="109"/>
       <c r="E71" s="28">
         <v>70</v>
       </c>
@@ -15676,9 +15724,9 @@
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="124"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="105">
+      <c r="B72" s="128"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="109">
         <v>0.01</v>
       </c>
       <c r="E72" s="28">
@@ -15703,9 +15751,9 @@
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="124"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="105"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="109"/>
       <c r="E73" s="28">
         <v>70</v>
       </c>
@@ -15728,9 +15776,9 @@
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="124"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="105">
+      <c r="B74" s="128"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="109">
         <v>0.1</v>
       </c>
       <c r="E74" s="28">
@@ -15755,9 +15803,9 @@
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="124"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="105"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="109"/>
       <c r="E75" s="28">
         <v>70</v>
       </c>
@@ -15780,11 +15828,11 @@
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="124"/>
-      <c r="C76" s="106">
+      <c r="B76" s="128"/>
+      <c r="C76" s="110">
         <v>7</v>
       </c>
-      <c r="D76" s="105">
+      <c r="D76" s="109">
         <v>1E-3</v>
       </c>
       <c r="E76" s="28">
@@ -15809,9 +15857,9 @@
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="124"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="105"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="109"/>
       <c r="E77" s="28">
         <v>70</v>
       </c>
@@ -15836,9 +15884,9 @@
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="124"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="105">
+      <c r="B78" s="128"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="109">
         <v>0.01</v>
       </c>
       <c r="E78" s="28">
@@ -15865,9 +15913,9 @@
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="124"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="105"/>
+      <c r="B79" s="128"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="109"/>
       <c r="E79" s="28">
         <v>70</v>
       </c>
@@ -15892,9 +15940,9 @@
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="124"/>
-      <c r="C80" s="106"/>
-      <c r="D80" s="105">
+      <c r="B80" s="128"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="109">
         <v>0.1</v>
       </c>
       <c r="E80" s="28">
@@ -15919,9 +15967,9 @@
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="125"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="108"/>
+      <c r="B81" s="129"/>
+      <c r="C81" s="111"/>
+      <c r="D81" s="112"/>
       <c r="E81" s="29">
         <v>70</v>
       </c>
@@ -15992,9 +16040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16047,11 +16093,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -16090,17 +16136,17 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="112" t="s">
+      <c r="J5" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="97" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="17">
@@ -16134,7 +16180,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="93"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -16166,7 +16212,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="93"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -16198,7 +16244,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="93"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -16232,7 +16278,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
-      <c r="B10" s="94"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -16274,17 +16320,17 @@
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="91"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="95"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="97" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="17">
@@ -16319,7 +16365,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="93"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -16352,7 +16398,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="93"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -16385,7 +16431,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="93"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="17">
         <v>6</v>
       </c>
@@ -16418,7 +16464,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="94"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="10">
         <v>7</v>
       </c>
@@ -16488,11 +16534,11 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="48" t="s">
         <v>2</v>
       </c>
@@ -16527,17 +16573,17 @@
       <c r="G20" s="56"/>
       <c r="H20" s="57"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="112" t="s">
+      <c r="J20" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="118"/>
       <c r="M20" s="46"/>
       <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="97" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="17">
@@ -16569,7 +16615,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="93"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="17">
         <v>0.1</v>
       </c>
@@ -16597,7 +16643,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="93"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="17">
         <v>1</v>
       </c>
@@ -16625,7 +16671,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="93"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -16653,7 +16699,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="94"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="10">
         <v>100</v>
       </c>
@@ -16691,17 +16737,17 @@
       <c r="G26" s="46"/>
       <c r="H26" s="47"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="89" t="s">
+      <c r="J26" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="95"/>
       <c r="M26" s="46"/>
       <c r="N26" s="46"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="97" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="17">
@@ -16731,7 +16777,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="93"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="17">
         <v>4</v>
       </c>
@@ -16759,7 +16805,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="93"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="17">
         <v>5</v>
       </c>
@@ -16789,7 +16835,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="93"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="17">
         <v>6</v>
       </c>
@@ -16819,7 +16865,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
-      <c r="B31" s="94"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="10">
         <v>7</v>
       </c>
@@ -16885,9 +16931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16910,11 +16954,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -16952,16 +16996,16 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="112" t="s">
+      <c r="J5" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="97" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="17">
@@ -16996,7 +17040,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="93"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -17027,7 +17071,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="93"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -17058,7 +17102,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="93"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -17089,7 +17133,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="94"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -17130,16 +17174,16 @@
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="91"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="95"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="97" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="17">
@@ -17172,7 +17216,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="93"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -17203,7 +17247,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="94"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="10">
         <v>5</v>
       </c>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LightGBM" sheetId="5" r:id="rId1"/>
@@ -932,15 +932,6 @@
     <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -971,22 +962,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1001,32 +1010,14 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1042,6 +1033,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1329,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1346,11 +1346,11 @@
       <c r="B3" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="48" t="s">
         <v>2</v>
       </c>
@@ -1384,14 +1384,14 @@
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="95"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="96">
+      <c r="B5" s="93">
         <v>10000000</v>
       </c>
       <c r="C5" s="33">
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="97"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="17">
         <v>4</v>
       </c>
@@ -1451,7 +1451,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="17">
         <v>5</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="97"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="17">
         <v>6</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="10">
         <v>7</v>
       </c>
@@ -1538,7 +1538,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="99">
+      <c r="B10" s="96">
         <v>20000000</v>
       </c>
       <c r="C10" s="17">
@@ -1569,7 +1569,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="97"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="17">
         <v>4</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="97"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="17">
         <v>5</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="97"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="17">
         <v>6</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="97"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="17">
         <v>7</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="96">
+      <c r="B15" s="93">
         <v>30000000</v>
       </c>
       <c r="C15" s="33">
@@ -1716,7 +1716,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="97"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="17">
         <v>4</v>
       </c>
@@ -1745,7 +1745,7 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="97"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="17">
         <v>5</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B18" s="97"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="17">
         <v>6</v>
       </c>
@@ -1803,7 +1803,7 @@
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="10">
         <v>7</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B20" s="99">
+      <c r="B20" s="96">
         <v>40000000</v>
       </c>
       <c r="C20" s="17">
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B21" s="97"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="17">
         <v>4</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="97"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="17">
         <v>5</v>
       </c>
@@ -1921,7 +1921,7 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="97"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="17">
         <v>6</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="97"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="17">
         <v>7</v>
       </c>
@@ -1979,7 +1979,7 @@
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B25" s="96">
+      <c r="B25" s="93">
         <v>50000000</v>
       </c>
       <c r="C25" s="33">
@@ -2012,7 +2012,7 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="97"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="17">
         <v>4</v>
       </c>
@@ -2041,7 +2041,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="97"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="17">
         <v>5</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="97"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="17">
         <v>6</v>
       </c>
@@ -2099,7 +2099,7 @@
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B29" s="98"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="10">
         <v>7</v>
       </c>
@@ -2134,11 +2134,11 @@
       <c r="B32" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="48" t="s">
         <v>2</v>
       </c>
@@ -2214,28 +2214,28 @@
       <c r="G33" s="46"/>
       <c r="H33" s="47"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="93" t="s">
+      <c r="J33" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="95"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="105"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="96">
+      <c r="B34" s="93">
         <v>10000000</v>
       </c>
       <c r="C34" s="33">
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="97"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="17">
         <v>4</v>
       </c>
@@ -2379,7 +2379,7 @@
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="97"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="17">
         <v>5</v>
       </c>
@@ -2450,7 +2450,7 @@
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B37" s="97"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="17">
         <v>6</v>
       </c>
@@ -2521,7 +2521,7 @@
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="10">
         <v>7</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="99">
+      <c r="B39" s="96">
         <v>20000000</v>
       </c>
       <c r="C39" s="17">
@@ -2665,7 +2665,7 @@
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="97"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="17">
         <v>4</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="97"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="17">
         <v>5</v>
       </c>
@@ -2807,7 +2807,7 @@
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="97"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="17">
         <v>6</v>
       </c>
@@ -2878,7 +2878,7 @@
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="97"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="17">
         <v>7</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="96">
+      <c r="B44" s="93">
         <v>30000000</v>
       </c>
       <c r="C44" s="33">
@@ -3022,7 +3022,7 @@
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B45" s="97"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="17">
         <v>4</v>
       </c>
@@ -3093,7 +3093,7 @@
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B46" s="97"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="17">
         <v>5</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="97"/>
+      <c r="B47" s="94"/>
       <c r="C47" s="17">
         <v>6</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B48" s="98"/>
+      <c r="B48" s="95"/>
       <c r="C48" s="10">
         <v>7</v>
       </c>
@@ -3306,7 +3306,7 @@
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B49" s="99">
+      <c r="B49" s="96">
         <v>40000000</v>
       </c>
       <c r="C49" s="17">
@@ -3379,7 +3379,7 @@
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B50" s="97"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="17">
         <v>4</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="97"/>
+      <c r="B51" s="94"/>
       <c r="C51" s="17">
         <v>5</v>
       </c>
@@ -3523,7 +3523,7 @@
       </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B52" s="97"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="17">
         <v>6</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B53" s="97"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="17">
         <v>7</v>
       </c>
@@ -3665,7 +3665,7 @@
       </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B54" s="96">
+      <c r="B54" s="93">
         <v>50000000</v>
       </c>
       <c r="C54" s="33">
@@ -3696,7 +3696,7 @@
       <c r="Z54" s="81"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="97"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="17">
         <v>4</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="Z55" s="51"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B56" s="97"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="17">
         <v>5</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="Z56" s="51"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="97"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="17">
         <v>6</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="Z57" s="51"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B58" s="98"/>
+      <c r="B58" s="95"/>
       <c r="C58" s="10">
         <v>7</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="Z58" s="9"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="96" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="17">
@@ -3885,7 +3885,7 @@
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="97"/>
+      <c r="B60" s="94"/>
       <c r="C60" s="17">
         <v>4</v>
       </c>
@@ -3956,7 +3956,7 @@
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B61" s="97"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="17">
         <v>5</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="97"/>
+      <c r="B62" s="94"/>
       <c r="C62" s="17">
         <v>6</v>
       </c>
@@ -4096,7 +4096,7 @@
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="98"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="10">
         <v>7</v>
       </c>
@@ -4128,11 +4128,11 @@
       <c r="B66" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="100" t="s">
+      <c r="C66" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="101"/>
-      <c r="E66" s="102"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="99"/>
       <c r="F66" s="48" t="s">
         <v>2</v>
       </c>
@@ -4184,20 +4184,20 @@
       <c r="G67" s="46"/>
       <c r="H67" s="47"/>
       <c r="I67" s="19"/>
-      <c r="J67" s="93" t="s">
+      <c r="J67" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="94"/>
-      <c r="R67" s="95"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="105"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="96">
+      <c r="B68" s="93">
         <v>10000000</v>
       </c>
       <c r="C68" s="33">
@@ -4246,7 +4246,7 @@
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B69" s="97"/>
+      <c r="B69" s="94"/>
       <c r="C69" s="17">
         <v>4</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B70" s="97"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="17">
         <v>5</v>
       </c>
@@ -4340,7 +4340,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B71" s="97"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="17">
         <v>6</v>
       </c>
@@ -4387,7 +4387,7 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B72" s="98"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="10">
         <v>7</v>
       </c>
@@ -4434,7 +4434,7 @@
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B73" s="99">
+      <c r="B73" s="96">
         <v>20000000</v>
       </c>
       <c r="C73" s="17">
@@ -4483,7 +4483,7 @@
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B74" s="97"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="17">
         <v>4</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B75" s="97"/>
+      <c r="B75" s="94"/>
       <c r="C75" s="17">
         <v>5</v>
       </c>
@@ -4577,7 +4577,7 @@
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B76" s="97"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="17">
         <v>6</v>
       </c>
@@ -4624,7 +4624,7 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B77" s="97"/>
+      <c r="B77" s="94"/>
       <c r="C77" s="17">
         <v>7</v>
       </c>
@@ -4671,7 +4671,7 @@
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B78" s="96">
+      <c r="B78" s="93">
         <v>30000000</v>
       </c>
       <c r="C78" s="33">
@@ -4720,7 +4720,7 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B79" s="97"/>
+      <c r="B79" s="94"/>
       <c r="C79" s="17">
         <v>4</v>
       </c>
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B80" s="97"/>
+      <c r="B80" s="94"/>
       <c r="C80" s="17">
         <v>5</v>
       </c>
@@ -4814,7 +4814,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B81" s="97"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="17">
         <v>6</v>
       </c>
@@ -4861,7 +4861,7 @@
       </c>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="98"/>
+      <c r="B82" s="95"/>
       <c r="C82" s="10">
         <v>7</v>
       </c>
@@ -4908,7 +4908,7 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="99">
+      <c r="B83" s="96">
         <v>40000000</v>
       </c>
       <c r="C83" s="17">
@@ -4957,7 +4957,7 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="97"/>
+      <c r="B84" s="94"/>
       <c r="C84" s="17">
         <v>4</v>
       </c>
@@ -5004,7 +5004,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="97"/>
+      <c r="B85" s="94"/>
       <c r="C85" s="17">
         <v>5</v>
       </c>
@@ -5051,7 +5051,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="97"/>
+      <c r="B86" s="94"/>
       <c r="C86" s="17">
         <v>6</v>
       </c>
@@ -5098,7 +5098,7 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="97"/>
+      <c r="B87" s="94"/>
       <c r="C87" s="17">
         <v>7</v>
       </c>
@@ -5147,7 +5147,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B88" s="96">
+      <c r="B88" s="93">
         <v>50000000</v>
       </c>
       <c r="C88" s="33">
@@ -5196,7 +5196,7 @@
       </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B89" s="97"/>
+      <c r="B89" s="94"/>
       <c r="C89" s="17">
         <v>4</v>
       </c>
@@ -5243,7 +5243,7 @@
       </c>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B90" s="97"/>
+      <c r="B90" s="94"/>
       <c r="C90" s="17">
         <v>5</v>
       </c>
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B91" s="97"/>
+      <c r="B91" s="94"/>
       <c r="C91" s="17">
         <v>6</v>
       </c>
@@ -5337,7 +5337,7 @@
       </c>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B92" s="98"/>
+      <c r="B92" s="95"/>
       <c r="C92" s="10">
         <v>7</v>
       </c>
@@ -5387,11 +5387,11 @@
       <c r="B95" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="100" t="s">
+      <c r="C95" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="101"/>
-      <c r="E95" s="102"/>
+      <c r="D95" s="98"/>
+      <c r="E95" s="99"/>
       <c r="F95" s="48" t="s">
         <v>2</v>
       </c>
@@ -5440,19 +5440,19 @@
       <c r="G96" s="52"/>
       <c r="H96" s="53"/>
       <c r="I96" s="29"/>
-      <c r="J96" s="103" t="s">
+      <c r="J96" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="104"/>
-      <c r="L96" s="104"/>
-      <c r="M96" s="104"/>
-      <c r="N96" s="104"/>
-      <c r="O96" s="104"/>
-      <c r="P96" s="104"/>
-      <c r="Q96" s="105"/>
+      <c r="K96" s="101"/>
+      <c r="L96" s="101"/>
+      <c r="M96" s="101"/>
+      <c r="N96" s="101"/>
+      <c r="O96" s="101"/>
+      <c r="P96" s="101"/>
+      <c r="Q96" s="102"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B97" s="96">
+      <c r="B97" s="93">
         <v>10000000</v>
       </c>
       <c r="C97" s="33">
@@ -5498,7 +5498,7 @@
       </c>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B98" s="97"/>
+      <c r="B98" s="94"/>
       <c r="C98" s="17">
         <v>4</v>
       </c>
@@ -5542,7 +5542,7 @@
       </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B99" s="97"/>
+      <c r="B99" s="94"/>
       <c r="C99" s="17">
         <v>5</v>
       </c>
@@ -5586,7 +5586,7 @@
       </c>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B100" s="97"/>
+      <c r="B100" s="94"/>
       <c r="C100" s="17">
         <v>6</v>
       </c>
@@ -5630,7 +5630,7 @@
       </c>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="98"/>
+      <c r="B101" s="95"/>
       <c r="C101" s="10">
         <v>7</v>
       </c>
@@ -5674,7 +5674,7 @@
       </c>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B102" s="99">
+      <c r="B102" s="96">
         <v>20000000</v>
       </c>
       <c r="C102" s="17">
@@ -5720,7 +5720,7 @@
       </c>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B103" s="97"/>
+      <c r="B103" s="94"/>
       <c r="C103" s="17">
         <v>4</v>
       </c>
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B104" s="97"/>
+      <c r="B104" s="94"/>
       <c r="C104" s="17">
         <v>5</v>
       </c>
@@ -5808,7 +5808,7 @@
       </c>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B105" s="97"/>
+      <c r="B105" s="94"/>
       <c r="C105" s="17">
         <v>6</v>
       </c>
@@ -5852,7 +5852,7 @@
       </c>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B106" s="97"/>
+      <c r="B106" s="94"/>
       <c r="C106" s="17">
         <v>7</v>
       </c>
@@ -5896,7 +5896,7 @@
       </c>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B107" s="96">
+      <c r="B107" s="93">
         <v>30000000</v>
       </c>
       <c r="C107" s="33">
@@ -5942,7 +5942,7 @@
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B108" s="97"/>
+      <c r="B108" s="94"/>
       <c r="C108" s="17">
         <v>4</v>
       </c>
@@ -5986,7 +5986,7 @@
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B109" s="97"/>
+      <c r="B109" s="94"/>
       <c r="C109" s="17">
         <v>5</v>
       </c>
@@ -6030,7 +6030,7 @@
       </c>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B110" s="97"/>
+      <c r="B110" s="94"/>
       <c r="C110" s="17">
         <v>6</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B111" s="98"/>
+      <c r="B111" s="95"/>
       <c r="C111" s="10">
         <v>7</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B112" s="99">
+      <c r="B112" s="96">
         <v>40000000</v>
       </c>
       <c r="C112" s="17">
@@ -6164,7 +6164,7 @@
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B113" s="97"/>
+      <c r="B113" s="94"/>
       <c r="C113" s="17">
         <v>4</v>
       </c>
@@ -6208,7 +6208,7 @@
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B114" s="97"/>
+      <c r="B114" s="94"/>
       <c r="C114" s="17">
         <v>5</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B115" s="97"/>
+      <c r="B115" s="94"/>
       <c r="C115" s="17">
         <v>6</v>
       </c>
@@ -6296,7 +6296,7 @@
       </c>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="97"/>
+      <c r="B116" s="94"/>
       <c r="C116" s="17">
         <v>7</v>
       </c>
@@ -6342,7 +6342,7 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B117" s="96">
+      <c r="B117" s="93">
         <v>50000000</v>
       </c>
       <c r="C117" s="33">
@@ -6388,7 +6388,7 @@
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B118" s="97"/>
+      <c r="B118" s="94"/>
       <c r="C118" s="17">
         <v>4</v>
       </c>
@@ -6432,7 +6432,7 @@
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B119" s="97"/>
+      <c r="B119" s="94"/>
       <c r="C119" s="17">
         <v>5</v>
       </c>
@@ -6476,7 +6476,7 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B120" s="97"/>
+      <c r="B120" s="94"/>
       <c r="C120" s="17">
         <v>6</v>
       </c>
@@ -6520,7 +6520,7 @@
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B121" s="98"/>
+      <c r="B121" s="95"/>
       <c r="C121" s="10">
         <v>7</v>
       </c>
@@ -6565,19 +6565,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="J96:Q96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B87"/>
     <mergeCell ref="J67:R67"/>
     <mergeCell ref="B54:B58"/>
     <mergeCell ref="B59:B63"/>
@@ -6594,6 +6581,19 @@
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="J96:Q96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B111"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6630,11 +6630,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -6714,30 +6714,30 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="115"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="118"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="94" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="17">
@@ -6814,7 +6814,7 @@
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="17">
         <v>4</v>
       </c>
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B8" s="97"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="17">
         <v>5</v>
       </c>
@@ -6964,7 +6964,7 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="97"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="17">
         <v>6</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="10">
         <v>7</v>
       </c>
@@ -7119,11 +7119,11 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="48" t="s">
         <v>2</v>
       </c>
@@ -7201,29 +7201,29 @@
       <c r="G14" s="56"/>
       <c r="H14" s="57"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="113" t="s">
+      <c r="J14" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="115"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="118"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="94" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="17">
@@ -7295,7 +7295,7 @@
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B16" s="97"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="17">
         <v>4</v>
       </c>
@@ -7365,7 +7365,7 @@
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B17" s="97"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="17">
         <v>5</v>
       </c>
@@ -7437,7 +7437,7 @@
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B18" s="97"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="17">
         <v>6</v>
       </c>
@@ -7509,7 +7509,7 @@
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="10">
         <v>7</v>
       </c>
@@ -7584,11 +7584,11 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="48" t="s">
         <v>2</v>
       </c>
@@ -7663,28 +7663,28 @@
       <c r="G23" s="46"/>
       <c r="H23" s="47"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="93" t="s">
+      <c r="J23" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="95"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="105"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="17">
@@ -7753,7 +7753,7 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B25" s="97"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="17">
         <v>4</v>
       </c>
@@ -7820,7 +7820,7 @@
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B26" s="97"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="17">
         <v>5</v>
       </c>
@@ -7887,7 +7887,7 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B27" s="97"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="17">
         <v>6</v>
       </c>
@@ -7956,7 +7956,7 @@
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B28" s="97"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="17">
         <v>7</v>
       </c>
@@ -8037,31 +8037,31 @@
       <c r="G29" s="56"/>
       <c r="H29" s="57"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="116" t="s">
+      <c r="J29" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="117"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="118"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="108"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="110">
+      <c r="C30" s="109">
         <v>3</v>
       </c>
       <c r="D30" s="19">
@@ -8129,8 +8129,8 @@
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="97"/>
-      <c r="C31" s="110"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="19">
         <v>70</v>
       </c>
@@ -8196,8 +8196,8 @@
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="97"/>
-      <c r="C32" s="110"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="19">
         <v>100</v>
       </c>
@@ -8263,8 +8263,8 @@
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B33" s="97"/>
-      <c r="C33" s="110">
+      <c r="B33" s="94"/>
+      <c r="C33" s="109">
         <v>4</v>
       </c>
       <c r="D33" s="19">
@@ -8332,8 +8332,8 @@
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="97"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="19">
         <v>70</v>
       </c>
@@ -8399,8 +8399,8 @@
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="97"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="19">
         <v>100</v>
       </c>
@@ -8466,8 +8466,8 @@
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="97"/>
-      <c r="C36" s="110">
+      <c r="B36" s="94"/>
+      <c r="C36" s="109">
         <v>5</v>
       </c>
       <c r="D36" s="19">
@@ -8537,8 +8537,8 @@
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B37" s="97"/>
-      <c r="C37" s="110"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="19">
         <v>70</v>
       </c>
@@ -8606,8 +8606,8 @@
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="97"/>
-      <c r="C38" s="110"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="19">
         <v>100</v>
       </c>
@@ -8675,8 +8675,8 @@
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="97"/>
-      <c r="C39" s="110">
+      <c r="B39" s="94"/>
+      <c r="C39" s="109">
         <v>6</v>
       </c>
       <c r="D39" s="19">
@@ -8746,8 +8746,8 @@
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="97"/>
-      <c r="C40" s="110"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="19">
         <v>70</v>
       </c>
@@ -8815,8 +8815,8 @@
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="97"/>
-      <c r="C41" s="110"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="19">
         <v>100</v>
       </c>
@@ -8884,8 +8884,8 @@
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="97"/>
-      <c r="C42" s="110">
+      <c r="B42" s="94"/>
+      <c r="C42" s="109">
         <v>7</v>
       </c>
       <c r="D42" s="19">
@@ -8957,8 +8957,8 @@
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="97"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="19">
         <v>70</v>
       </c>
@@ -9026,8 +9026,8 @@
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="98"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="23">
         <v>100</v>
       </c>
@@ -9109,34 +9109,34 @@
       <c r="G45" s="56"/>
       <c r="H45" s="57"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="116" t="s">
+      <c r="J45" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="K45" s="117"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="117"/>
-      <c r="S45" s="117"/>
-      <c r="T45" s="117"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="117"/>
-      <c r="X45" s="117"/>
-      <c r="Y45" s="117"/>
-      <c r="Z45" s="118"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="107"/>
+      <c r="V45" s="107"/>
+      <c r="W45" s="107"/>
+      <c r="X45" s="107"/>
+      <c r="Y45" s="107"/>
+      <c r="Z45" s="108"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B46" s="97" t="s">
+      <c r="B46" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="110">
+      <c r="C46" s="109">
         <v>5</v>
       </c>
-      <c r="D46" s="109">
+      <c r="D46" s="114">
         <v>1E-3</v>
       </c>
       <c r="E46" s="28">
@@ -9203,9 +9203,9 @@
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="97"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="109"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="28">
         <v>70</v>
       </c>
@@ -9270,9 +9270,9 @@
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B48" s="97"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="109">
+      <c r="B48" s="94"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="114">
         <v>0.01</v>
       </c>
       <c r="E48" s="28">
@@ -9341,9 +9341,9 @@
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B49" s="97"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="109"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="28">
         <v>70</v>
       </c>
@@ -9410,9 +9410,9 @@
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B50" s="97"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="109">
+      <c r="B50" s="94"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="114">
         <v>0.1</v>
       </c>
       <c r="E50" s="28">
@@ -9479,9 +9479,9 @@
       </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="97"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="109"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="28">
         <v>70</v>
       </c>
@@ -9546,11 +9546,11 @@
       </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B52" s="97"/>
-      <c r="C52" s="110">
+      <c r="B52" s="94"/>
+      <c r="C52" s="109">
         <v>6</v>
       </c>
-      <c r="D52" s="109">
+      <c r="D52" s="114">
         <v>1E-3</v>
       </c>
       <c r="E52" s="28">
@@ -9619,9 +9619,9 @@
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B53" s="97"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="109"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="114"/>
       <c r="E53" s="28">
         <v>70</v>
       </c>
@@ -9688,9 +9688,9 @@
       </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B54" s="97"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="109">
+      <c r="B54" s="94"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="114">
         <v>0.01</v>
       </c>
       <c r="E54" s="28">
@@ -9759,9 +9759,9 @@
       </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="97"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="109"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="114"/>
       <c r="E55" s="28">
         <v>70</v>
       </c>
@@ -9828,9 +9828,9 @@
       </c>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B56" s="97"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="109">
+      <c r="B56" s="94"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="114">
         <v>0.1</v>
       </c>
       <c r="E56" s="28">
@@ -9897,9 +9897,9 @@
       </c>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="97"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="109"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="28">
         <v>70</v>
       </c>
@@ -9964,11 +9964,11 @@
       </c>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B58" s="97"/>
-      <c r="C58" s="110">
+      <c r="B58" s="94"/>
+      <c r="C58" s="109">
         <v>7</v>
       </c>
-      <c r="D58" s="109">
+      <c r="D58" s="114">
         <v>1E-3</v>
       </c>
       <c r="E58" s="28">
@@ -10037,9 +10037,9 @@
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B59" s="97"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="109"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="114"/>
       <c r="E59" s="28">
         <v>70</v>
       </c>
@@ -10106,9 +10106,9 @@
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="97"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="109">
+      <c r="B60" s="94"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="114">
         <v>0.01</v>
       </c>
       <c r="E60" s="28">
@@ -10177,9 +10177,9 @@
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B61" s="97"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="109"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="114"/>
       <c r="E61" s="28">
         <v>70</v>
       </c>
@@ -10246,9 +10246,9 @@
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="97"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="109">
+      <c r="B62" s="94"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="114">
         <v>0.1</v>
       </c>
       <c r="E62" s="28">
@@ -10315,9 +10315,9 @@
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="98"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="112"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="115"/>
       <c r="E63" s="29">
         <v>70</v>
       </c>
@@ -10385,11 +10385,11 @@
       <c r="B66" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="100" t="s">
+      <c r="C66" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="101"/>
-      <c r="E66" s="102"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="99"/>
       <c r="F66" s="48" t="s">
         <v>2</v>
       </c>
@@ -10455,28 +10455,28 @@
       <c r="G67" s="56"/>
       <c r="H67" s="57"/>
       <c r="I67" s="35"/>
-      <c r="J67" s="116" t="s">
+      <c r="J67" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="K67" s="117"/>
-      <c r="L67" s="117"/>
-      <c r="M67" s="117"/>
-      <c r="N67" s="117"/>
-      <c r="O67" s="117"/>
-      <c r="P67" s="117"/>
-      <c r="Q67" s="117"/>
-      <c r="R67" s="117"/>
-      <c r="S67" s="117"/>
-      <c r="T67" s="117"/>
-      <c r="U67" s="117"/>
-      <c r="V67" s="118"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+      <c r="T67" s="107"/>
+      <c r="U67" s="107"/>
+      <c r="V67" s="108"/>
       <c r="W67"/>
       <c r="X67"/>
       <c r="Y67"/>
       <c r="Z67"/>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B68" s="97" t="s">
+      <c r="B68" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="17">
@@ -10537,7 +10537,7 @@
       <c r="Z68"/>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B69" s="97"/>
+      <c r="B69" s="94"/>
       <c r="C69" s="17">
         <v>4</v>
       </c>
@@ -10592,7 +10592,7 @@
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B70" s="97"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="17">
         <v>5</v>
       </c>
@@ -10647,7 +10647,7 @@
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B71" s="97"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="17">
         <v>6</v>
       </c>
@@ -10704,7 +10704,7 @@
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B72" s="98"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="10">
         <v>7</v>
       </c>
@@ -10775,30 +10775,30 @@
       <c r="G73" s="56"/>
       <c r="H73" s="57"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="116" t="s">
+      <c r="J73" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="117"/>
-      <c r="Q73" s="117"/>
-      <c r="R73" s="117"/>
-      <c r="S73" s="117"/>
-      <c r="T73" s="117"/>
-      <c r="U73" s="117"/>
-      <c r="V73" s="118"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="107"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="107"/>
+      <c r="O73" s="107"/>
+      <c r="P73" s="107"/>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="107"/>
+      <c r="S73" s="107"/>
+      <c r="T73" s="107"/>
+      <c r="U73" s="107"/>
+      <c r="V73" s="108"/>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B74" s="97" t="s">
+      <c r="B74" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="110">
+      <c r="C74" s="109">
         <v>5</v>
       </c>
-      <c r="D74" s="109">
+      <c r="D74" s="114">
         <v>1E-3</v>
       </c>
       <c r="E74" s="28">
@@ -10853,9 +10853,9 @@
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B75" s="97"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="109"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="114"/>
       <c r="E75" s="28">
         <v>70</v>
       </c>
@@ -10908,9 +10908,9 @@
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B76" s="97"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="109">
+      <c r="B76" s="94"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="114">
         <v>0.01</v>
       </c>
       <c r="E76" s="28">
@@ -10967,9 +10967,9 @@
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B77" s="97"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="109"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="114"/>
       <c r="E77" s="28">
         <v>70</v>
       </c>
@@ -11024,9 +11024,9 @@
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B78" s="97"/>
-      <c r="C78" s="110"/>
-      <c r="D78" s="109">
+      <c r="B78" s="94"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="114">
         <v>0.1</v>
       </c>
       <c r="E78" s="28">
@@ -11081,9 +11081,9 @@
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B79" s="97"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="109"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="114"/>
       <c r="E79" s="28">
         <v>70</v>
       </c>
@@ -11136,11 +11136,11 @@
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B80" s="97"/>
-      <c r="C80" s="110">
+      <c r="B80" s="94"/>
+      <c r="C80" s="109">
         <v>6</v>
       </c>
-      <c r="D80" s="109">
+      <c r="D80" s="114">
         <v>1E-3</v>
       </c>
       <c r="E80" s="28">
@@ -11197,9 +11197,9 @@
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B81" s="97"/>
-      <c r="C81" s="110"/>
-      <c r="D81" s="109"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="109"/>
+      <c r="D81" s="114"/>
       <c r="E81" s="28">
         <v>70</v>
       </c>
@@ -11254,9 +11254,9 @@
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B82" s="97"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="109">
+      <c r="B82" s="94"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="114">
         <v>0.01</v>
       </c>
       <c r="E82" s="28">
@@ -11313,9 +11313,9 @@
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B83" s="97"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="109"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="114"/>
       <c r="E83" s="28">
         <v>70</v>
       </c>
@@ -11370,9 +11370,9 @@
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B84" s="97"/>
-      <c r="C84" s="110"/>
-      <c r="D84" s="109">
+      <c r="B84" s="94"/>
+      <c r="C84" s="109"/>
+      <c r="D84" s="114">
         <v>0.1</v>
       </c>
       <c r="E84" s="28">
@@ -11427,9 +11427,9 @@
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B85" s="97"/>
-      <c r="C85" s="110"/>
-      <c r="D85" s="109"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="109"/>
+      <c r="D85" s="114"/>
       <c r="E85" s="28">
         <v>70</v>
       </c>
@@ -11482,11 +11482,11 @@
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B86" s="97"/>
-      <c r="C86" s="110">
+      <c r="B86" s="94"/>
+      <c r="C86" s="109">
         <v>7</v>
       </c>
-      <c r="D86" s="109">
+      <c r="D86" s="114">
         <v>1E-3</v>
       </c>
       <c r="E86" s="28">
@@ -11543,9 +11543,9 @@
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B87" s="97"/>
-      <c r="C87" s="110"/>
-      <c r="D87" s="109"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="114"/>
       <c r="E87" s="28">
         <v>70</v>
       </c>
@@ -11600,9 +11600,9 @@
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B88" s="97"/>
-      <c r="C88" s="110"/>
-      <c r="D88" s="109">
+      <c r="B88" s="94"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="114">
         <v>0.01</v>
       </c>
       <c r="E88" s="28">
@@ -11659,9 +11659,9 @@
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B89" s="97"/>
-      <c r="C89" s="110"/>
-      <c r="D89" s="109"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="109"/>
+      <c r="D89" s="114"/>
       <c r="E89" s="28">
         <v>70</v>
       </c>
@@ -11718,9 +11718,9 @@
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B90" s="97"/>
-      <c r="C90" s="110"/>
-      <c r="D90" s="109">
+      <c r="B90" s="94"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="114">
         <v>0.1</v>
       </c>
       <c r="E90" s="28">
@@ -11775,9 +11775,9 @@
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B91" s="98"/>
-      <c r="C91" s="111"/>
-      <c r="D91" s="112"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="115"/>
       <c r="E91" s="29">
         <v>70</v>
       </c>
@@ -11839,11 +11839,11 @@
       <c r="B94" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="106" t="s">
+      <c r="C94" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="107"/>
-      <c r="E94" s="108"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="121"/>
       <c r="F94" s="76" t="s">
         <v>2</v>
       </c>
@@ -11901,20 +11901,20 @@
       <c r="G95" s="56"/>
       <c r="H95" s="57"/>
       <c r="I95" s="35"/>
-      <c r="J95" s="116" t="s">
+      <c r="J95" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="117"/>
-      <c r="L95" s="117"/>
-      <c r="M95" s="117"/>
-      <c r="N95" s="117"/>
-      <c r="O95" s="117"/>
-      <c r="P95" s="117"/>
-      <c r="Q95" s="117"/>
-      <c r="R95" s="118"/>
+      <c r="K95" s="107"/>
+      <c r="L95" s="107"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="107"/>
+      <c r="O95" s="107"/>
+      <c r="P95" s="107"/>
+      <c r="Q95" s="107"/>
+      <c r="R95" s="108"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B96" s="97" t="s">
+      <c r="B96" s="94" t="s">
         <v>21</v>
       </c>
       <c r="C96" s="17">
@@ -11962,7 +11962,7 @@
       <c r="AC96"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B97" s="97"/>
+      <c r="B97" s="94"/>
       <c r="C97" s="17">
         <v>4</v>
       </c>
@@ -12005,7 +12005,7 @@
       </c>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B98" s="97"/>
+      <c r="B98" s="94"/>
       <c r="C98" s="17">
         <v>5</v>
       </c>
@@ -12048,7 +12048,7 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B99" s="97"/>
+      <c r="B99" s="94"/>
       <c r="C99" s="17">
         <v>6</v>
       </c>
@@ -12093,7 +12093,7 @@
       </c>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B100" s="98"/>
+      <c r="B100" s="95"/>
       <c r="C100" s="10">
         <v>7</v>
       </c>
@@ -12150,23 +12150,23 @@
       <c r="G101" s="56"/>
       <c r="H101" s="57"/>
       <c r="I101" s="35"/>
-      <c r="J101" s="116" t="s">
+      <c r="J101" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="K101" s="117"/>
-      <c r="L101" s="117"/>
-      <c r="M101" s="117"/>
-      <c r="N101" s="117"/>
-      <c r="O101" s="117"/>
-      <c r="P101" s="117"/>
-      <c r="Q101" s="117"/>
-      <c r="R101" s="118"/>
+      <c r="K101" s="107"/>
+      <c r="L101" s="107"/>
+      <c r="M101" s="107"/>
+      <c r="N101" s="107"/>
+      <c r="O101" s="107"/>
+      <c r="P101" s="107"/>
+      <c r="Q101" s="107"/>
+      <c r="R101" s="108"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B102" s="97" t="s">
+      <c r="B102" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="110">
+      <c r="C102" s="109">
         <v>3</v>
       </c>
       <c r="D102" s="19">
@@ -12212,8 +12212,8 @@
       </c>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B103" s="97"/>
-      <c r="C103" s="110"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="109"/>
       <c r="D103" s="19">
         <v>70</v>
       </c>
@@ -12257,8 +12257,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B104" s="97"/>
-      <c r="C104" s="110"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="19">
         <v>100</v>
       </c>
@@ -12302,8 +12302,8 @@
       </c>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B105" s="97"/>
-      <c r="C105" s="110">
+      <c r="B105" s="94"/>
+      <c r="C105" s="109">
         <v>4</v>
       </c>
       <c r="D105" s="19">
@@ -12349,8 +12349,8 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B106" s="97"/>
-      <c r="C106" s="110"/>
+      <c r="B106" s="94"/>
+      <c r="C106" s="109"/>
       <c r="D106" s="19">
         <v>70</v>
       </c>
@@ -12394,8 +12394,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B107" s="97"/>
-      <c r="C107" s="110"/>
+      <c r="B107" s="94"/>
+      <c r="C107" s="109"/>
       <c r="D107" s="19">
         <v>100</v>
       </c>
@@ -12439,8 +12439,8 @@
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B108" s="97"/>
-      <c r="C108" s="110">
+      <c r="B108" s="94"/>
+      <c r="C108" s="109">
         <v>5</v>
       </c>
       <c r="D108" s="19">
@@ -12486,8 +12486,8 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B109" s="97"/>
-      <c r="C109" s="110"/>
+      <c r="B109" s="94"/>
+      <c r="C109" s="109"/>
       <c r="D109" s="19">
         <v>70</v>
       </c>
@@ -12531,8 +12531,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B110" s="97"/>
-      <c r="C110" s="110"/>
+      <c r="B110" s="94"/>
+      <c r="C110" s="109"/>
       <c r="D110" s="19">
         <v>100</v>
       </c>
@@ -12576,8 +12576,8 @@
       </c>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B111" s="97"/>
-      <c r="C111" s="110">
+      <c r="B111" s="94"/>
+      <c r="C111" s="109">
         <v>6</v>
       </c>
       <c r="D111" s="19">
@@ -12623,8 +12623,8 @@
       </c>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="97"/>
-      <c r="C112" s="110"/>
+      <c r="B112" s="94"/>
+      <c r="C112" s="109"/>
       <c r="D112" s="19">
         <v>70</v>
       </c>
@@ -12668,8 +12668,8 @@
       </c>
     </row>
     <row r="113" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B113" s="97"/>
-      <c r="C113" s="110"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="109"/>
       <c r="D113" s="19">
         <v>100</v>
       </c>
@@ -12713,8 +12713,8 @@
       </c>
     </row>
     <row r="114" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B114" s="97"/>
-      <c r="C114" s="110">
+      <c r="B114" s="94"/>
+      <c r="C114" s="109">
         <v>7</v>
       </c>
       <c r="D114" s="19">
@@ -12762,8 +12762,8 @@
       </c>
     </row>
     <row r="115" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B115" s="97"/>
-      <c r="C115" s="110"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="109"/>
       <c r="D115" s="19">
         <v>70</v>
       </c>
@@ -12807,8 +12807,8 @@
       </c>
     </row>
     <row r="116" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B116" s="98"/>
-      <c r="C116" s="111"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="110"/>
       <c r="D116" s="23">
         <v>100</v>
       </c>
@@ -12855,11 +12855,11 @@
       <c r="B119" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C119" s="100" t="s">
+      <c r="C119" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="101"/>
-      <c r="E119" s="102"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="99"/>
       <c r="F119" s="48" t="s">
         <v>2</v>
       </c>
@@ -12917,16 +12917,16 @@
       <c r="G120" s="56"/>
       <c r="H120" s="57"/>
       <c r="I120" s="35"/>
-      <c r="J120" s="119" t="s">
+      <c r="J120" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="K120" s="120"/>
-      <c r="L120" s="120"/>
-      <c r="M120" s="120"/>
-      <c r="N120" s="120"/>
-      <c r="O120" s="120"/>
-      <c r="P120" s="120"/>
-      <c r="Q120" s="121"/>
+      <c r="K120" s="112"/>
+      <c r="L120" s="112"/>
+      <c r="M120" s="112"/>
+      <c r="N120" s="112"/>
+      <c r="O120" s="112"/>
+      <c r="P120" s="112"/>
+      <c r="Q120" s="113"/>
       <c r="R120"/>
       <c r="S120"/>
       <c r="T120"/>
@@ -12940,7 +12940,7 @@
       <c r="AB120"/>
     </row>
     <row r="121" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B121" s="97" t="s">
+      <c r="B121" s="94" t="s">
         <v>21</v>
       </c>
       <c r="C121" s="17">
@@ -12982,7 +12982,7 @@
       </c>
     </row>
     <row r="122" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B122" s="97"/>
+      <c r="B122" s="94"/>
       <c r="C122" s="17">
         <v>4</v>
       </c>
@@ -13022,7 +13022,7 @@
       </c>
     </row>
     <row r="123" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B123" s="97"/>
+      <c r="B123" s="94"/>
       <c r="C123" s="17">
         <v>5</v>
       </c>
@@ -13062,7 +13062,7 @@
       </c>
     </row>
     <row r="124" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B124" s="97"/>
+      <c r="B124" s="94"/>
       <c r="C124" s="17">
         <v>6</v>
       </c>
@@ -13104,7 +13104,7 @@
       </c>
     </row>
     <row r="125" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B125" s="98"/>
+      <c r="B125" s="95"/>
       <c r="C125" s="10">
         <v>7</v>
       </c>
@@ -13168,10 +13168,10 @@
       <c r="Q126" s="51"/>
     </row>
     <row r="127" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B127" s="97" t="s">
+      <c r="B127" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C127" s="110">
+      <c r="C127" s="109">
         <v>3</v>
       </c>
       <c r="D127" s="19">
@@ -13214,8 +13214,8 @@
       </c>
     </row>
     <row r="128" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B128" s="97"/>
-      <c r="C128" s="110"/>
+      <c r="B128" s="94"/>
+      <c r="C128" s="109"/>
       <c r="D128" s="19">
         <v>70</v>
       </c>
@@ -13256,8 +13256,8 @@
       </c>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B129" s="97"/>
-      <c r="C129" s="110"/>
+      <c r="B129" s="94"/>
+      <c r="C129" s="109"/>
       <c r="D129" s="19">
         <v>100</v>
       </c>
@@ -13298,8 +13298,8 @@
       </c>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B130" s="97"/>
-      <c r="C130" s="110">
+      <c r="B130" s="94"/>
+      <c r="C130" s="109">
         <v>4</v>
       </c>
       <c r="D130" s="19">
@@ -13342,8 +13342,8 @@
       </c>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B131" s="97"/>
-      <c r="C131" s="110"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="109"/>
       <c r="D131" s="19">
         <v>70</v>
       </c>
@@ -13384,8 +13384,8 @@
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B132" s="97"/>
-      <c r="C132" s="110"/>
+      <c r="B132" s="94"/>
+      <c r="C132" s="109"/>
       <c r="D132" s="19">
         <v>100</v>
       </c>
@@ -13426,8 +13426,8 @@
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B133" s="97"/>
-      <c r="C133" s="110">
+      <c r="B133" s="94"/>
+      <c r="C133" s="109">
         <v>5</v>
       </c>
       <c r="D133" s="19">
@@ -13470,8 +13470,8 @@
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B134" s="97"/>
-      <c r="C134" s="110"/>
+      <c r="B134" s="94"/>
+      <c r="C134" s="109"/>
       <c r="D134" s="19">
         <v>70</v>
       </c>
@@ -13512,8 +13512,8 @@
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B135" s="97"/>
-      <c r="C135" s="110"/>
+      <c r="B135" s="94"/>
+      <c r="C135" s="109"/>
       <c r="D135" s="19">
         <v>100</v>
       </c>
@@ -13554,8 +13554,8 @@
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B136" s="97"/>
-      <c r="C136" s="110">
+      <c r="B136" s="94"/>
+      <c r="C136" s="109">
         <v>6</v>
       </c>
       <c r="D136" s="19">
@@ -13598,8 +13598,8 @@
       </c>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B137" s="97"/>
-      <c r="C137" s="110"/>
+      <c r="B137" s="94"/>
+      <c r="C137" s="109"/>
       <c r="D137" s="19">
         <v>70</v>
       </c>
@@ -13640,8 +13640,8 @@
       </c>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B138" s="97"/>
-      <c r="C138" s="110"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="109"/>
       <c r="D138" s="19">
         <v>100</v>
       </c>
@@ -13682,8 +13682,8 @@
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B139" s="97"/>
-      <c r="C139" s="110">
+      <c r="B139" s="94"/>
+      <c r="C139" s="109">
         <v>7</v>
       </c>
       <c r="D139" s="19">
@@ -13728,8 +13728,8 @@
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B140" s="97"/>
-      <c r="C140" s="110"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="109"/>
       <c r="D140" s="19">
         <v>70</v>
       </c>
@@ -13770,8 +13770,8 @@
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B141" s="98"/>
-      <c r="C141" s="111"/>
+      <c r="B141" s="95"/>
+      <c r="C141" s="110"/>
       <c r="D141" s="23">
         <v>100</v>
       </c>
@@ -13813,6 +13813,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="J5:AB5"/>
+    <mergeCell ref="J14:AA14"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="B46:B63"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B30:B44"/>
+    <mergeCell ref="J29:Z29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="J45:Z45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="J73:V73"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B74:B91"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
     <mergeCell ref="J95:R95"/>
     <mergeCell ref="J101:R101"/>
     <mergeCell ref="C119:E119"/>
@@ -13829,56 +13879,6 @@
     <mergeCell ref="C105:C107"/>
     <mergeCell ref="C108:C110"/>
     <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="J73:V73"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B74:B91"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C80:C85"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="B46:B63"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B44"/>
-    <mergeCell ref="J29:Z29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="J45:Z45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="J5:AB5"/>
-    <mergeCell ref="J14:AA14"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C52:C57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13890,7 +13890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13915,11 +13917,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
@@ -13961,17 +13963,17 @@
       <c r="G5" s="37"/>
       <c r="H5" s="38"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="115"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="128" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="17">
@@ -14009,7 +14011,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="123"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -14043,7 +14045,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="123"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -14077,7 +14079,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="123"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -14111,7 +14113,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="124"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -14155,17 +14157,17 @@
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="125" t="s">
+      <c r="J11" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="127"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="124"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="17">
@@ -14179,7 +14181,9 @@
       <c r="G12" s="20">
         <v>0.88168000000000002</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="21">
+        <v>0.78880609999999995</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="40">
         <v>0.76824000000000003</v>
@@ -14201,7 +14205,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="97"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -14213,7 +14217,9 @@
       <c r="G13" s="20">
         <v>0.90310000000000001</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="21">
+        <v>0.81807920000000001</v>
+      </c>
       <c r="I13" s="19"/>
       <c r="J13" s="40">
         <v>0.64219000000000004</v>
@@ -14235,7 +14241,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="97"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -14247,7 +14253,9 @@
       <c r="G14" s="20">
         <v>0.90446000000000004</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="21">
+        <v>0.82310870000000003</v>
+      </c>
       <c r="I14" s="19"/>
       <c r="J14" s="40">
         <v>0.62294000000000005</v>
@@ -14269,7 +14277,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="97"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="17">
         <v>6</v>
       </c>
@@ -14281,7 +14289,9 @@
       <c r="G15" s="20">
         <v>0.93379999999999996</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="21">
+        <v>0.88263519999999995</v>
+      </c>
       <c r="I15" s="19"/>
       <c r="J15" s="40">
         <v>0.62014000000000002</v>
@@ -14303,7 +14313,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="10">
         <v>7</v>
       </c>
@@ -14344,11 +14354,11 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="13" t="s">
         <v>2</v>
       </c>
@@ -14388,16 +14398,16 @@
       <c r="G20" s="37"/>
       <c r="H20" s="38"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="113" t="s">
+      <c r="J20" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="115"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="94" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="17">
@@ -14434,7 +14444,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="97"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="17">
         <v>0.1</v>
       </c>
@@ -14465,7 +14475,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="97"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="17">
         <v>1</v>
       </c>
@@ -14496,7 +14506,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="97"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -14527,7 +14537,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="10">
         <v>100</v>
       </c>
@@ -14568,16 +14578,16 @@
       <c r="G26" s="20"/>
       <c r="H26" s="21"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="125" t="s">
+      <c r="J26" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="127"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="124"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="94" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="17">
@@ -14610,7 +14620,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="97"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="17">
         <v>4</v>
       </c>
@@ -14641,7 +14651,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="97"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="17">
         <v>5</v>
       </c>
@@ -14674,7 +14684,7 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="97"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="17">
         <v>6</v>
       </c>
@@ -14707,7 +14717,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="10">
         <v>7</v>
       </c>
@@ -14743,11 +14753,11 @@
       <c r="B34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99"/>
       <c r="F34" s="13" t="s">
         <v>2</v>
       </c>
@@ -14781,14 +14791,14 @@
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="113" t="s">
+      <c r="J35" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="114"/>
-      <c r="L35" s="115"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="118"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="94" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="17">
@@ -14817,7 +14827,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="97"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="17">
         <v>0.1</v>
       </c>
@@ -14842,7 +14852,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="97"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="17">
         <v>1</v>
       </c>
@@ -14867,7 +14877,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="97"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="17">
         <v>10</v>
       </c>
@@ -14892,7 +14902,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="98"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="10">
         <v>100</v>
       </c>
@@ -14927,14 +14937,14 @@
       <c r="G41" s="20"/>
       <c r="H41" s="21"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="125" t="s">
+      <c r="J41" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="124"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="94" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="17">
@@ -14961,7 +14971,7 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="97"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="17">
         <v>4</v>
       </c>
@@ -14986,7 +14996,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="97"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="17">
         <v>5</v>
       </c>
@@ -15013,7 +15023,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="97"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="17">
         <v>6</v>
       </c>
@@ -15040,7 +15050,7 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="97"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="17">
         <v>7</v>
       </c>
@@ -15081,17 +15091,17 @@
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="113" t="s">
+      <c r="J47" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="114"/>
-      <c r="L47" s="115"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="118"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="110">
+      <c r="C48" s="109">
         <v>3</v>
       </c>
       <c r="D48" s="19">
@@ -15117,8 +15127,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="97"/>
-      <c r="C49" s="110"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="19">
         <v>70</v>
       </c>
@@ -15142,8 +15152,8 @@
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="97"/>
-      <c r="C50" s="110"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="19">
         <v>100</v>
       </c>
@@ -15167,8 +15177,8 @@
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="97"/>
-      <c r="C51" s="110">
+      <c r="B51" s="94"/>
+      <c r="C51" s="109">
         <v>4</v>
       </c>
       <c r="D51" s="19">
@@ -15194,8 +15204,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="97"/>
-      <c r="C52" s="110"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="19">
         <v>70</v>
       </c>
@@ -15219,8 +15229,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="97"/>
-      <c r="C53" s="110"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="19">
         <v>100</v>
       </c>
@@ -15244,8 +15254,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="97"/>
-      <c r="C54" s="110">
+      <c r="B54" s="94"/>
+      <c r="C54" s="109">
         <v>5</v>
       </c>
       <c r="D54" s="19">
@@ -15271,8 +15281,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="97"/>
-      <c r="C55" s="110"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="19">
         <v>70</v>
       </c>
@@ -15296,8 +15306,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="97"/>
-      <c r="C56" s="110"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="19">
         <v>100</v>
       </c>
@@ -15321,8 +15331,8 @@
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="97"/>
-      <c r="C57" s="122">
+      <c r="B57" s="94"/>
+      <c r="C57" s="127">
         <v>6</v>
       </c>
       <c r="D57" s="19">
@@ -15350,8 +15360,8 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="97"/>
-      <c r="C58" s="122"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="19">
         <v>70</v>
       </c>
@@ -15377,8 +15387,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="97"/>
-      <c r="C59" s="122"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="19">
         <v>100</v>
       </c>
@@ -15404,8 +15414,8 @@
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="97"/>
-      <c r="C60" s="110">
+      <c r="B60" s="94"/>
+      <c r="C60" s="109">
         <v>7</v>
       </c>
       <c r="D60" s="19">
@@ -15435,8 +15445,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="97"/>
-      <c r="C61" s="110"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="19">
         <v>70</v>
       </c>
@@ -15462,8 +15472,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="98"/>
-      <c r="C62" s="111"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="110"/>
       <c r="D62" s="23">
         <v>100</v>
       </c>
@@ -15503,20 +15513,20 @@
       <c r="G63" s="37"/>
       <c r="H63" s="38"/>
       <c r="I63" s="36"/>
-      <c r="J63" s="113" t="s">
+      <c r="J63" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="114"/>
-      <c r="L63" s="115"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="118"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="128" t="s">
+      <c r="B64" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="110">
+      <c r="C64" s="109">
         <v>5</v>
       </c>
-      <c r="D64" s="109">
+      <c r="D64" s="114">
         <v>1E-3</v>
       </c>
       <c r="E64" s="28">
@@ -15541,9 +15551,9 @@
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="128"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="109"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="114"/>
       <c r="E65" s="28">
         <v>70</v>
       </c>
@@ -15566,9 +15576,9 @@
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="128"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="109">
+      <c r="B66" s="125"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="114">
         <v>0.01</v>
       </c>
       <c r="E66" s="28">
@@ -15593,9 +15603,9 @@
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="128"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="109"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="114"/>
       <c r="E67" s="28">
         <v>70</v>
       </c>
@@ -15618,9 +15628,9 @@
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="128"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="109">
+      <c r="B68" s="125"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="114">
         <v>0.1</v>
       </c>
       <c r="E68" s="28">
@@ -15645,9 +15655,9 @@
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="128"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="109"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="114"/>
       <c r="E69" s="28">
         <v>70</v>
       </c>
@@ -15670,11 +15680,11 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="128"/>
-      <c r="C70" s="110">
+      <c r="B70" s="125"/>
+      <c r="C70" s="109">
         <v>6</v>
       </c>
-      <c r="D70" s="109">
+      <c r="D70" s="114">
         <v>1E-3</v>
       </c>
       <c r="E70" s="28">
@@ -15699,9 +15709,9 @@
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="128"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="109"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="114"/>
       <c r="E71" s="28">
         <v>70</v>
       </c>
@@ -15724,9 +15734,9 @@
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="128"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="109">
+      <c r="B72" s="125"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="114">
         <v>0.01</v>
       </c>
       <c r="E72" s="28">
@@ -15751,9 +15761,9 @@
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="128"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="109"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="114"/>
       <c r="E73" s="28">
         <v>70</v>
       </c>
@@ -15776,9 +15786,9 @@
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="128"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="109">
+      <c r="B74" s="125"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="114">
         <v>0.1</v>
       </c>
       <c r="E74" s="28">
@@ -15803,9 +15813,9 @@
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="128"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="109"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="114"/>
       <c r="E75" s="28">
         <v>70</v>
       </c>
@@ -15828,11 +15838,11 @@
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="128"/>
-      <c r="C76" s="110">
+      <c r="B76" s="125"/>
+      <c r="C76" s="109">
         <v>7</v>
       </c>
-      <c r="D76" s="109">
+      <c r="D76" s="114">
         <v>1E-3</v>
       </c>
       <c r="E76" s="28">
@@ -15857,9 +15867,9 @@
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="128"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="109"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="114"/>
       <c r="E77" s="28">
         <v>70</v>
       </c>
@@ -15884,9 +15894,9 @@
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="128"/>
-      <c r="C78" s="110"/>
-      <c r="D78" s="109">
+      <c r="B78" s="125"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="114">
         <v>0.01</v>
       </c>
       <c r="E78" s="28">
@@ -15913,9 +15923,9 @@
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="128"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="109"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="114"/>
       <c r="E79" s="28">
         <v>70</v>
       </c>
@@ -15940,9 +15950,9 @@
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="128"/>
-      <c r="C80" s="110"/>
-      <c r="D80" s="109">
+      <c r="B80" s="125"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="114">
         <v>0.1</v>
       </c>
       <c r="E80" s="28">
@@ -15967,9 +15977,9 @@
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="129"/>
-      <c r="C81" s="111"/>
-      <c r="D81" s="112"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="115"/>
       <c r="E81" s="29">
         <v>70</v>
       </c>
@@ -15993,6 +16003,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B48:B62"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="J47:L47"/>
     <mergeCell ref="B64:B81"/>
@@ -16009,26 +16039,6 @@
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B48:B62"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B42:B46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16093,11 +16103,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -16136,17 +16146,17 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="94" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="17">
@@ -16180,7 +16190,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -16212,7 +16222,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -16244,7 +16254,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="97"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -16278,7 +16288,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
-      <c r="B10" s="98"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -16320,17 +16330,17 @@
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="95"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="105"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="94" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="17">
@@ -16365,7 +16375,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="97"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -16398,7 +16408,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="97"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -16431,7 +16441,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="97"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="17">
         <v>6</v>
       </c>
@@ -16464,7 +16474,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="98"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="10">
         <v>7</v>
       </c>
@@ -16534,11 +16544,11 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="48" t="s">
         <v>2</v>
       </c>
@@ -16573,17 +16583,17 @@
       <c r="G20" s="56"/>
       <c r="H20" s="57"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="116" t="s">
+      <c r="J20" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="108"/>
       <c r="M20" s="46"/>
       <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="94" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="17">
@@ -16615,7 +16625,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="97"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="17">
         <v>0.1</v>
       </c>
@@ -16643,7 +16653,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="97"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="17">
         <v>1</v>
       </c>
@@ -16671,7 +16681,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="97"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -16699,7 +16709,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="98"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="10">
         <v>100</v>
       </c>
@@ -16737,17 +16747,17 @@
       <c r="G26" s="46"/>
       <c r="H26" s="47"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="93" t="s">
+      <c r="J26" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="95"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
       <c r="M26" s="46"/>
       <c r="N26" s="46"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="94" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="17">
@@ -16777,7 +16787,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="97"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="17">
         <v>4</v>
       </c>
@@ -16805,7 +16815,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="97"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="17">
         <v>5</v>
       </c>
@@ -16835,7 +16845,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="97"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="17">
         <v>6</v>
       </c>
@@ -16865,7 +16875,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
-      <c r="B31" s="98"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="10">
         <v>7</v>
       </c>
@@ -16954,11 +16964,11 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -16996,16 +17006,16 @@
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="94" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="17">
@@ -17040,7 +17050,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="17">
         <v>0.1</v>
       </c>
@@ -17071,7 +17081,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="97"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="17">
         <v>1</v>
       </c>
@@ -17102,7 +17112,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="97"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="17">
         <v>10</v>
       </c>
@@ -17133,7 +17143,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="10">
         <v>100</v>
       </c>
@@ -17174,16 +17184,16 @@
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="95"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="105"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="94" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="17">
@@ -17216,7 +17226,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="97"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -17247,7 +17257,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="10">
         <v>5</v>
       </c>
